--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -694,19 +694,19 @@
         <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
@@ -715,10 +715,10 @@
         <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -733,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -745,10 +745,10 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>19.5</v>
@@ -763,7 +763,7 @@
         <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -826,13 +826,13 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
@@ -844,16 +844,16 @@
         <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
@@ -904,10 +904,10 @@
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
         <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.94</v>
+        <v>1.13</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.84</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.99</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I7" t="n">
         <v>1.29</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>2.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.72</v>
@@ -2092,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>11.5</v>
@@ -2113,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
         <v>280</v>
@@ -2182,7 +2182,7 @@
         <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
         <v>2.7</v>
@@ -2224,7 +2224,7 @@
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>95</v>
@@ -2257,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
         <v>2.08</v>
@@ -691,28 +691,28 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.92</v>
@@ -727,13 +727,13 @@
         <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -757,10 +757,10 @@
         <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
         <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -850,10 +850,10 @@
         <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
@@ -907,7 +907,7 @@
         <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
         <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>2.86</v>
@@ -1645,7 +1645,7 @@
         <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
@@ -1915,7 +1915,7 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1972,7 +1972,7 @@
         <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15.5</v>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>140</v>
@@ -2179,13 +2179,13 @@
         <v>2.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
@@ -2197,7 +2197,7 @@
         <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
@@ -2227,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2236,7 +2236,7 @@
         <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>130</v>
@@ -2251,7 +2251,7 @@
         <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -691,19 +691,19 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
         <v>3.45</v>
@@ -712,7 +712,7 @@
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>1.92</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -832,55 +832,55 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -895,19 +895,19 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -1078,16 +1078,16 @@
         <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
         <v>2.54</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="n">
         <v>1.78</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
         <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1489,10 +1489,10 @@
         <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -2047,13 +2047,13 @@
         <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
         <v>2.82</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -2116,10 +2116,10 @@
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>180</v>
@@ -2176,13 +2176,13 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
         <v>2.68</v>
@@ -2197,7 +2197,7 @@
         <v>2.26</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
         <v>1.95</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>06:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -823,7 +823,7 @@
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>5.7</v>
@@ -838,7 +838,7 @@
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -850,10 +850,10 @@
         <v>2.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
@@ -898,7 +898,7 @@
         <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>55</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:50:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Karvan Evlakh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,37 +1058,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:50:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.7</v>
       </c>
-      <c r="G5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.67</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>8.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.6</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.31</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>1.31</v>
       </c>
       <c r="J8" t="n">
-        <v>2.58</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.26</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,49 +1603,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>2.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.46</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>9.199999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,28 +1906,28 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>2.58</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>32</v>
       </c>
-      <c r="Z11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AO11" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>1.46</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,55 +2071,55 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>6.2</v>
       </c>
       <c r="AO12" t="n">
         <v>180</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.7</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,57 +2206,192 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
         <v>160</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
         <v>65</v>
       </c>
       <c r="AM13" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM14" t="n">
         <v>240</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN14" t="n">
         <v>26</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO14" t="n">
         <v>170</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06:05:00</t>
+          <t>05:35:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -973,7 +973,7 @@
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
         <v>1.01</v>
@@ -1090,94 +1090,94 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J6" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
@@ -1375,7 +1375,7 @@
         <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
@@ -1486,10 +1486,10 @@
         <v>1.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1615,7 +1615,7 @@
         <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>4.8</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q9" t="n">
         <v>3.15</v>
@@ -1750,37 +1750,37 @@
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.78</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
         <v>8.4</v>
@@ -2050,10 +2050,10 @@
         <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>2.78</v>
@@ -2062,7 +2062,7 @@
         <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>270</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
         <v>180</v>
@@ -2371,7 +2371,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>130</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +697,10 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
@@ -709,7 +709,7 @@
         <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
         <v>2.14</v>
@@ -772,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,16 +805,16 @@
         <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -823,7 +823,7 @@
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>5.7</v>
@@ -841,19 +841,19 @@
         <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
         <v>2.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
@@ -868,7 +868,7 @@
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
@@ -880,7 +880,7 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -904,7 +904,7 @@
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>14.5</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -1114,7 +1114,7 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
         <v>1.92</v>
@@ -1135,7 +1135,7 @@
         <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
         <v>8.800000000000001</v>
@@ -1207,118 +1207,118 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P6" t="n">
         <v>1.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.67</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.28</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.15</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.45</v>
+        <v>1.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>1.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>3.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.98</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.05</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,192 +2206,732 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ACS Petrolul 52</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Espanyol</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Alaves</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F18" t="n">
         <v>2.06</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G18" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>4.7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>4.9</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.25</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.13</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N18" t="n">
         <v>2.72</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O18" t="n">
         <v>1.55</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.68</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R18" t="n">
         <v>1.2</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S18" t="n">
         <v>5.6</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T18" t="n">
         <v>2.26</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U18" t="n">
         <v>1.76</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z18" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA18" t="n">
         <v>160</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB18" t="n">
         <v>6.8</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC18" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AD18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="n">
         <v>90</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF18" t="n">
         <v>11</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH18" t="n">
         <v>26</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI18" t="n">
         <v>130</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ18" t="n">
         <v>26</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK18" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL18" t="n">
         <v>65</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM18" t="n">
         <v>240</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN18" t="n">
         <v>26</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO18" t="n">
         <v>170</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,34 +685,34 @@
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
         <v>1.92</v>
@@ -724,7 +724,7 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
         <v>13.5</v>
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -823,7 +823,7 @@
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>5.7</v>
@@ -844,7 +844,7 @@
         <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>2.72</v>
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.8</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
         <v>2.04</v>
@@ -1348,7 +1348,7 @@
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
         <v>23</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1621,7 +1621,7 @@
         <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
         <v>3.5</v>
@@ -1645,13 +1645,13 @@
         <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
@@ -1660,7 +1660,7 @@
         <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
         <v>2.28</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.83</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.6</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>950</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>2.08</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
         <v>65</v>
       </c>
-      <c r="AB15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.44</v>
+        <v>8.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.46</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>1.25</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>9.6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>1.64</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>330</v>
+        <v>16.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>90</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>150</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,260 +2678,2825 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.82</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>2.66</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>32</v>
       </c>
-      <c r="AA17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>140</v>
-      </c>
       <c r="AJ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="n">
         <v>28</v>
       </c>
-      <c r="AK17" t="n">
-        <v>32</v>
-      </c>
       <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
         <v>65</v>
       </c>
-      <c r="AM17" t="n">
-        <v>270</v>
-      </c>
       <c r="AN17" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>German Bundesliga 2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Preussen Munster</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ACS Petrolul 52</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Al Ittihad (EGY)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>National Bank</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Villefranche Beaujolais</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Neuchatel Xamax</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X30" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Rapperswil-Jona</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Espanyol</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Alaves</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G37" t="n">
         <v>2.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H37" t="n">
         <v>4.7</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I37" t="n">
         <v>4.9</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J37" t="n">
         <v>3.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K37" t="n">
         <v>3.25</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>1.13</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N37" t="n">
         <v>2.72</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O37" t="n">
         <v>1.55</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P37" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q37" t="n">
         <v>2.68</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R37" t="n">
         <v>1.2</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S37" t="n">
         <v>5.6</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T37" t="n">
         <v>2.26</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U37" t="n">
         <v>1.76</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y37" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z37" t="n">
         <v>34</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA37" t="n">
         <v>160</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB37" t="n">
         <v>6.8</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC37" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD37" t="n">
         <v>22</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE37" t="n">
         <v>90</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF37" t="n">
         <v>11</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH37" t="n">
         <v>26</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI37" t="n">
         <v>130</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ37" t="n">
         <v>26</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK37" t="n">
         <v>29</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL37" t="n">
         <v>65</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM37" t="n">
         <v>240</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN37" t="n">
         <v>26</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO37" t="n">
         <v>170</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
         <v>3.8</v>
@@ -697,7 +697,7 @@
         <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
         <v>1.89</v>
@@ -730,7 +730,7 @@
         <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
@@ -847,7 +847,7 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
         <v>1.55</v>
@@ -1126,7 +1126,7 @@
         <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
         <v>22</v>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL5" t="n">
         <v>38</v>
@@ -1219,7 +1219,7 @@
         <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>1.81</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
         <v>3.55</v>
@@ -1348,7 +1348,7 @@
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
         <v>23</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>80</v>
@@ -1423,7 +1423,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
         <v>42</v>
@@ -1432,10 +1432,10 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1486,10 +1486,10 @@
         <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1528,7 +1528,7 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1621,7 +1621,7 @@
         <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1645,13 +1645,13 @@
         <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
         <v>1.78</v>
@@ -1660,7 +1660,7 @@
         <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
         <v>2.28</v>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>50</v>
@@ -1759,10 +1759,10 @@
         <v>2.42</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.45</v>
@@ -1795,7 +1795,7 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W10" t="n">
         <v>1.39</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>1.13</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>1.17</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>16.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,67 +2008,67 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="W12" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>1.72</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>1.98</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,94 +2176,94 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.16</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.12</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10</v>
-      </c>
-      <c r="K14" t="n">
-        <v>950</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H15" t="n">
         <v>4.4</v>
@@ -2443,13 +2443,13 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.08</v>
@@ -2458,82 +2458,82 @@
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.6</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>9.6</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>4.3</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.95</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
         <v>4.1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>1.28</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
         <v>16.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK17" t="n">
         <v>21</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>28</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>14.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>1.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.75</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>1.77</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
         <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>4.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="N19" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="O19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.44</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="V19" t="n">
         <v>1.23</v>
       </c>
-      <c r="S19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.7</v>
+        <v>1.81</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="O20" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="P20" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.8</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>2.7</v>
       </c>
       <c r="X21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF21" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>22</v>
       </c>
-      <c r="AA21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>60</v>
-      </c>
       <c r="AL21" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="AN21" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,55 +3493,55 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>9.199999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,16 +3550,16 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,37 +3568,37 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3628,28 +3628,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>4.6</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
         <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3763,56 +3763,56 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="G25" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.5</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T25" t="n">
         <v>1.01</v>
       </c>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="J26" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.59</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,56 +4168,56 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.75</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T28" t="n">
         <v>1.01</v>
       </c>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.92</v>
+        <v>1.27</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.42</v>
+        <v>1.41</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="H29" t="n">
-        <v>2.74</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
         <v>3.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.59</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V29" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="W29" t="n">
-        <v>1.47</v>
+        <v>2.98</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>1.59</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.48</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H31" t="n">
         <v>2.88</v>
@@ -4594,7 +4594,7 @@
         <v>3.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4606,7 +4606,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
@@ -4615,13 +4615,13 @@
         <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.4</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.45</v>
       </c>
-      <c r="I34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>1.73</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="T34" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
         <v>2.62</v>
       </c>
       <c r="O35" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="P35" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA35" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO35" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,261 +5243,3231 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.46</v>
+        <v>4.3</v>
       </c>
       <c r="H36" t="n">
-        <v>8.4</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>2.14</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>1.81</v>
       </c>
       <c r="O36" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="P36" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="R36" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="U36" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FC Twente</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X39" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X43" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>950</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Rapperswil-Jona</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yverdon Sport</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sociedad B</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ravenna</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Livorno</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FC Guidonia Montecelio 1937</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K50" t="n">
+        <v>950</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FC Koln</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X51" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X52" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X53" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S54" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X54" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Partick</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X55" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Espanyol</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Alaves</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F56" t="n">
         <v>2.08</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G56" t="n">
         <v>2.1</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H56" t="n">
         <v>4.7</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I56" t="n">
         <v>4.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J56" t="n">
         <v>3.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K56" t="n">
         <v>3.25</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="L56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M56" t="n">
         <v>1.13</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N56" t="n">
         <v>2.72</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O56" t="n">
         <v>1.55</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="P56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R56" t="n">
         <v>1.2</v>
       </c>
-      <c r="S37" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="S56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T56" t="n">
         <v>2.26</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U56" t="n">
         <v>1.76</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y37" t="n">
+      <c r="V56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X56" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y56" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="Z56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB56" t="n">
         <v>6.8</v>
       </c>
-      <c r="AC37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AC56" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Internacional de Palmira</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Atletico FC Cali</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI59" t="n">
         <v>90</v>
       </c>
-      <c r="AF37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>170</v>
+      <c r="AJ59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.75</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.31</v>
@@ -703,37 +703,37 @@
         <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -745,13 +745,13 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
@@ -772,7 +772,7 @@
         <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
         <v>2.68</v>
@@ -814,7 +814,7 @@
         <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -832,7 +832,7 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
@@ -844,10 +844,10 @@
         <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.55</v>
@@ -880,7 +880,7 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -1102,7 +1102,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1486,22 +1486,22 @@
         <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1525,10 +1525,10 @@
         <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1621,7 +1621,7 @@
         <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1642,25 +1642,25 @@
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
         <v>2.28</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.13</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.17</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>16.5</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>1.17</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>16.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,67 +2143,67 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="W13" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.35</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.65</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
       <c r="AA14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL14" t="n">
         <v>60</v>
       </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AM14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN14" t="n">
         <v>60</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>26</v>
-      </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2464,13 +2464,13 @@
         <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>2.12</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.76</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>1.27</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>1.32</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="U16" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
         <v>16.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>32</v>
       </c>
-      <c r="AA17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>14.5</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>1.25</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>9.6</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>1.77</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>4.3</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>1.08</v>
+        <v>1.97</v>
       </c>
       <c r="X18" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AB18" t="n">
-        <v>85</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK18" t="n">
         <v>20</v>
       </c>
-      <c r="AD18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>160</v>
-      </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
         <v>2.24</v>
@@ -2971,7 +2971,7 @@
         <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
         <v>2.74</v>
@@ -3001,7 +3001,7 @@
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
         <v>2.62</v>
@@ -3010,7 +3010,7 @@
         <v>1.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.81</v>
@@ -3169,19 +3169,19 @@
         <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
         <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>95</v>
@@ -3286,7 +3286,7 @@
         <v>2.7</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
         <v>22</v>
@@ -3322,7 +3322,7 @@
         <v>260</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
         <v>22</v>
@@ -3334,7 +3334,7 @@
         <v>360</v>
       </c>
       <c r="AN21" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,34 +3391,34 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U22" t="n">
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>1.41</v>
       </c>
       <c r="G23" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="H23" t="n">
-        <v>2.78</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>2.98</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24">
@@ -3628,28 +3628,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.42</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.74</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K24" t="n">
         <v>4.6</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q24" t="n">
         <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="I26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.78</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1.59</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="H28" t="n">
-        <v>2.12</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
-        <v>2.74</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
         <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.41</v>
+        <v>2.42</v>
       </c>
       <c r="G29" t="n">
-        <v>1.51</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>9.199999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>1.59</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>2.98</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>2.64</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I30" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="J30" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>1.59</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>1.76</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S30" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>1.71</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W32" t="n">
         <v>2.14</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD32" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
         <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,94 +4843,94 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>1.31</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>1.37</v>
       </c>
       <c r="H33" t="n">
-        <v>2.22</v>
+        <v>7.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.36</v>
+        <v>12.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.1</v>
       </c>
-      <c r="N33" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.37</v>
+        <v>3.7</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="Y33" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
         <v>970</v>
       </c>
-      <c r="AA33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AE33" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
         <v>970</v>
@@ -4939,31 +4939,31 @@
         <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AK33" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>85</v>
+        <v>6.6</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,67 +4978,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="G34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S34" t="n">
         <v>2.12</v>
       </c>
-      <c r="H34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.23</v>
       </c>
-      <c r="S34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="G35" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="H35" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="O35" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.3</v>
       </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>1.81</v>
+        <v>4.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="T36" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V36" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.95</v>
+        <v>1.76</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>2.46</v>
       </c>
       <c r="H37" t="n">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>2.04</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="O37" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="R37" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W37" t="n">
         <v>1.68</v>
       </c>
-      <c r="U37" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
       <c r="I38" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="J38" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="O38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.32</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X38" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>3.35</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>110</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>2.24</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>1.09</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>1.75</v>
       </c>
       <c r="O39" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P39" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="W39" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>1.94</v>
+        <v>2.56</v>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="P40" t="n">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.66</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X40" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK40" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AL40" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,31 +5923,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,34 +5956,34 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="P41" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="T41" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,94 +6058,94 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.31</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="n">
-        <v>1.35</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
-        <v>7.4</v>
+        <v>2.22</v>
       </c>
       <c r="I42" t="n">
-        <v>12.5</v>
+        <v>2.36</v>
       </c>
       <c r="J42" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>7.2</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="n">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>1.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.34</v>
+        <v>2.38</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.83</v>
+        <v>4.5</v>
       </c>
       <c r="T42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.66</v>
       </c>
-      <c r="U42" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V42" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>3.7</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AF42" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
         <v>970</v>
@@ -6154,31 +6154,31 @@
         <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AL42" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AN42" t="n">
-        <v>6.6</v>
+        <v>85</v>
       </c>
       <c r="AO42" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.7</v>
+        <v>2.72</v>
       </c>
       <c r="G43" t="n">
-        <v>1.87</v>
+        <v>2.92</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J43" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P43" t="n">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="S43" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="W43" t="n">
-        <v>2.14</v>
+        <v>1.52</v>
       </c>
       <c r="X43" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM43" t="n">
         <v>110</v>
       </c>
-      <c r="AB43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>75</v>
-      </c>
       <c r="AN43" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AO43" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="G44" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="H44" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>1.71</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="T44" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,22 +6496,22 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="W45" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="G46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.05</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.52</v>
-      </c>
       <c r="I46" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="W46" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="I47" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="R47" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="S47" t="n">
-        <v>4.4</v>
+        <v>2.68</v>
       </c>
       <c r="T47" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="U47" t="n">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="V47" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AA47" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AB47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD47" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>14</v>
       </c>
       <c r="AE47" t="n">
         <v>36</v>
       </c>
       <c r="AF47" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AI47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM47" t="n">
         <v>65</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>180</v>
-      </c>
       <c r="AN47" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3.65</v>
+        <v>5.4</v>
       </c>
       <c r="H48" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>1.97</v>
       </c>
       <c r="J48" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>1.42</v>
+        <v>3.15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P48" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S48" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V48" t="n">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="W48" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>FC Guidonia Montecelio 1937</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G49" t="n">
-        <v>1.72</v>
+        <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K49" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="G51" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q51" t="n">
         <v>2.22</v>
       </c>
-      <c r="H51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="T51" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U51" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W51" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="G52" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="I52" t="n">
-        <v>1.97</v>
+        <v>2.32</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V52" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="W52" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z52" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AA52" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE52" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AF52" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI52" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AK52" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN52" t="n">
         <v>100</v>
       </c>
-      <c r="AM52" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>130</v>
-      </c>
       <c r="AO52" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G53" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H53" t="n">
         <v>8.4</v>
@@ -7582,46 +7582,46 @@
         <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R53" t="n">
         <v>1.52</v>
       </c>
       <c r="S53" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T53" t="n">
         <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V53" t="n">
         <v>1.12</v>
       </c>
       <c r="W53" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z53" t="n">
         <v>80</v>
       </c>
       <c r="AA53" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB53" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD53" t="n">
         <v>34</v>
@@ -7630,13 +7630,13 @@
         <v>150</v>
       </c>
       <c r="AF53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG53" t="n">
         <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI53" t="n">
         <v>130</v>
@@ -7705,7 +7705,7 @@
         <v>3.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="M54" t="n">
         <v>1.14</v>
@@ -7717,16 +7717,16 @@
         <v>1.6</v>
       </c>
       <c r="P54" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="R54" t="n">
         <v>1.19</v>
       </c>
       <c r="S54" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T54" t="n">
         <v>2.3</v>
@@ -7783,7 +7783,7 @@
         <v>32</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM54" t="n">
         <v>230</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G55" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H55" t="n">
         <v>4.7</v>
@@ -7864,19 +7864,19 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V55" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W55" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X55" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y55" t="n">
         <v>970</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,121 +7948,121 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2.08</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="R56" t="n">
         <v>1.13</v>
       </c>
-      <c r="N56" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S56" t="n">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="T56" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="W56" t="n">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="X56" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8083,31 +8083,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>2.74</v>
       </c>
       <c r="H57" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="J57" t="n">
-        <v>2.28</v>
+        <v>2.98</v>
       </c>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,22 +8116,22 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O57" t="n">
         <v>1.01</v>
       </c>
       <c r="P57" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S57" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8140,10 +8140,10 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,121 +8218,121 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="G58" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.25</v>
       </c>
-      <c r="H58" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N58" t="n">
-        <v>1.54</v>
+        <v>2.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P58" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="R58" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V58" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W58" t="n">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G59" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J59" t="n">
         <v>3.3</v>
@@ -8383,7 +8383,7 @@
         <v>1.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N59" t="n">
         <v>2.96</v>
@@ -8395,7 +8395,7 @@
         <v>1.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R59" t="n">
         <v>1.24</v>
@@ -8410,7 +8410,7 @@
         <v>1.72</v>
       </c>
       <c r="V59" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W59" t="n">
         <v>1.83</v>
@@ -8437,7 +8437,7 @@
         <v>18</v>
       </c>
       <c r="AE59" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF59" t="n">
         <v>13</v>
@@ -8446,10 +8446,10 @@
         <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ59" t="n">
         <v>28</v>
@@ -8468,6 +8468,276 @@
       </c>
       <c r="AO59" t="n">
         <v>95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>150</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.1</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.14</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,13 +694,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
@@ -712,13 +712,13 @@
         <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -727,52 +727,52 @@
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -847,10 +847,10 @@
         <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
         <v>1.61</v>
@@ -895,7 +895,7 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -1102,7 +1102,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.9</v>
       </c>
-      <c r="G6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>1.37</v>
       </c>
       <c r="O6" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.55</v>
+        <v>2.46</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>7.4</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.78</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>1.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.78</v>
       </c>
-      <c r="H9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>6.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="Z9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>530</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AO9" t="n">
         <v>60</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.72</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>1.72</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>1.16</v>
+        <v>4.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>16.5</v>
+        <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.55</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>1.31</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
       <c r="G15" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>16.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>950</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.9</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>1.27</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>1.32</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,94 +2581,94 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>7.8</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.77</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>80</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF16" t="n">
         <v>20</v>
       </c>
-      <c r="AD16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>140</v>
-      </c>
       <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>42</v>
       </c>
-      <c r="AH16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK16" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.76</v>
+        <v>5.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>1.72</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>2.66</v>
+        <v>1.69</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
         <v>4.1</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>2.04</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.77</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>8</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62</v>
+        <v>1.52</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="X19" t="n">
-        <v>6.4</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.7</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
       </c>
-      <c r="AK19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>130</v>
-      </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>330</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.05</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.7</v>
-      </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="X20" t="n">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
       <c r="AD20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>29</v>
-      </c>
       <c r="AI20" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>8.199999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="I21" t="n">
-        <v>10.5</v>
+        <v>1.32</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>8.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.09</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.7</v>
-      </c>
       <c r="X21" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y21" t="n">
         <v>970</v>
       </c>
-      <c r="Y21" t="n">
-        <v>22</v>
-      </c>
       <c r="Z21" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.2</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>280</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.8</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="H22" t="n">
-        <v>2.78</v>
+        <v>6.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>1.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="T22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.44</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>9.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>2.98</v>
+        <v>1.44</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="n">
         <v>28</v>
       </c>
-      <c r="Z23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>520</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AI23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM23" t="n">
         <v>240</v>
       </c>
-      <c r="AF23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>260</v>
-      </c>
       <c r="AN23" t="n">
-        <v>8.800000000000001</v>
+        <v>70</v>
       </c>
       <c r="AO23" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>1.59</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.27</v>
+        <v>2.7</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,34 +3796,34 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U25" t="n">
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3934,19 +3934,19 @@
         <v>1.59</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
         <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3958,7 +3958,7 @@
         <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,7 +4090,7 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
         <v>1.79</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.59</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="H30" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="R30" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.12</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="J31" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.39</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,30 +4703,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="G32" t="n">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
@@ -4738,97 +4738,97 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>2.52</v>
+        <v>1.88</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="S32" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="W32" t="n">
-        <v>2.14</v>
+        <v>2.98</v>
       </c>
       <c r="X32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>28</v>
       </c>
-      <c r="Y32" t="n">
-        <v>24</v>
-      </c>
       <c r="Z32" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AA32" t="n">
-        <v>110</v>
+        <v>520</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AJ32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AL32" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AN32" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO32" t="n">
-        <v>38</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.31</v>
+        <v>2.64</v>
       </c>
       <c r="G33" t="n">
-        <v>1.37</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>7.2</v>
+        <v>2.64</v>
       </c>
       <c r="I33" t="n">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,94 +4876,94 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>6.8</v>
+        <v>1.59</v>
       </c>
       <c r="O33" t="n">
-        <v>1.09</v>
+        <v>1.48</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.83</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>2.96</v>
       </c>
       <c r="H34" t="n">
-        <v>3.95</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="K34" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,34 +5011,34 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.76</v>
+        <v>2.82</v>
       </c>
       <c r="G35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1.92</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.66</v>
-      </c>
       <c r="R35" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF35" t="n">
         <v>22</v>
       </c>
-      <c r="Y35" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AG35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>50</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AK35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM35" t="n">
         <v>110</v>
       </c>
-      <c r="AB35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>90</v>
-      </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.06</v>
+        <v>3.45</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>3.85</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="I36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.7</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>4.7</v>
+        <v>2.92</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="P36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q36" t="n">
-        <v>1.64</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="S36" t="n">
-        <v>2.58</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="V36" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
         <v>32</v>
       </c>
-      <c r="AA36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>42</v>
-      </c>
       <c r="AF36" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AK36" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL36" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,67 +5383,67 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
         <v>1.76</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>950</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.26</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>2.26</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="T37" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="H38" t="n">
-        <v>1.98</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>2.04</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>4.4</v>
+        <v>2.62</v>
       </c>
       <c r="O38" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="P38" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="R38" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>2.84</v>
+        <v>4.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="V38" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="W38" t="n">
-        <v>1.32</v>
+        <v>1.66</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO38" t="n">
-        <v>12.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="G39" t="n">
-        <v>110</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="I39" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="J39" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="K39" t="n">
         <v>3.85</v>
@@ -5686,13 +5686,13 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O39" t="n">
         <v>1.34</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q39" t="n">
         <v>1.89</v>
@@ -5701,7 +5701,7 @@
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="T39" t="n">
         <v>1.69</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W39" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>3.9</v>
       </c>
       <c r="G40" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>1.99</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>1.58</v>
+        <v>2.14</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U40" t="n">
-        <v>1.67</v>
+        <v>2.24</v>
       </c>
       <c r="V40" t="n">
-        <v>1.39</v>
+        <v>1.97</v>
       </c>
       <c r="W40" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="X40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
         <v>11</v>
       </c>
-      <c r="Z40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AE40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>80</v>
       </c>
-      <c r="AB40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>38</v>
-      </c>
       <c r="AK40" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN40" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AO40" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="G41" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
         <v>1.39</v>
       </c>
       <c r="P41" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="G42" t="n">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>4.7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="P42" t="n">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U42" t="n">
         <v>2.38</v>
       </c>
-      <c r="R42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="W42" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>32</v>
       </c>
-      <c r="AF42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH42" t="n">
+      <c r="AK42" t="n">
         <v>24</v>
       </c>
-      <c r="AI42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>60</v>
-      </c>
       <c r="AL42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM42" t="n">
         <v>75</v>
       </c>
-      <c r="AM42" t="n">
-        <v>190</v>
-      </c>
       <c r="AN42" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="AO42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.72</v>
+        <v>1.76</v>
       </c>
       <c r="G43" t="n">
-        <v>2.92</v>
+        <v>1.92</v>
       </c>
       <c r="H43" t="n">
-        <v>2.64</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="O43" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S43" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="U43" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="W43" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="X43" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AA43" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AF43" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN43" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO43" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="G44" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="R44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.27</v>
       </c>
-      <c r="S44" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="X44" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="G45" t="n">
-        <v>3.05</v>
+        <v>1.37</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52</v>
+        <v>7.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.98</v>
+        <v>12.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,94 +6496,94 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.38</v>
+        <v>6.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="P45" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V45" t="n">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="W45" t="n">
-        <v>1.48</v>
+        <v>3.7</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S46" t="n">
         <v>2.32</v>
       </c>
-      <c r="G46" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.78</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V46" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="W46" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="G47" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="H47" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K47" t="n">
-        <v>3.85</v>
+        <v>950</v>
       </c>
       <c r="L47" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="R47" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="U47" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="X47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>2.34</v>
       </c>
       <c r="G48" t="n">
-        <v>5.4</v>
+        <v>2.72</v>
       </c>
       <c r="H48" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>1.97</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>1.94</v>
       </c>
       <c r="O48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V48" t="n">
         <v>1.41</v>
       </c>
-      <c r="P48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W48" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I49" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="J49" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K49" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.59</v>
+        <v>3.75</v>
       </c>
       <c r="G50" t="n">
-        <v>1.72</v>
+        <v>4.3</v>
       </c>
       <c r="H50" t="n">
-        <v>7.4</v>
+        <v>2.2</v>
       </c>
       <c r="I50" t="n">
-        <v>9.199999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="J50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.45</v>
       </c>
-      <c r="K50" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="O50" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="R50" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="T50" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="U50" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="V50" t="n">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
-        <v>2.38</v>
+        <v>1.3</v>
       </c>
       <c r="X50" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK50" t="n">
         <v>75</v>
       </c>
-      <c r="AA50" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>25</v>
-      </c>
       <c r="AL50" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AM50" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AO50" t="n">
-        <v>480</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>1.72</v>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K52" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="O52" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="P52" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="R52" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S52" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="U52" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="V52" t="n">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>1.3</v>
+        <v>2.38</v>
       </c>
       <c r="X52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG52" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y52" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE52" t="n">
+      <c r="AH52" t="n">
         <v>36</v>
       </c>
-      <c r="AF52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>26</v>
-      </c>
       <c r="AI52" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AJ52" t="n">
-        <v>110</v>
+        <v>17.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AL52" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AO52" t="n">
-        <v>32</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.45</v>
+        <v>4.8</v>
       </c>
       <c r="G53" t="n">
-        <v>1.47</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="n">
-        <v>8.4</v>
+        <v>1.85</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>1.97</v>
       </c>
       <c r="J53" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="P53" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="S53" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="U53" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="V53" t="n">
-        <v>1.12</v>
+        <v>2.02</v>
       </c>
       <c r="W53" t="n">
-        <v>3.1</v>
+        <v>1.22</v>
       </c>
       <c r="X53" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA53" t="n">
         <v>22</v>
       </c>
-      <c r="Y53" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z53" t="n">
+      <c r="AB53" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK53" t="n">
         <v>80</v>
       </c>
-      <c r="AA53" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI53" t="n">
+      <c r="AL53" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN53" t="n">
         <v>130</v>
       </c>
-      <c r="AJ53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AO53" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G54" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K54" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="L54" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="M54" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>1.52</v>
+        <v>2.42</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.86</v>
+        <v>1.67</v>
       </c>
       <c r="R54" t="n">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>6.2</v>
+        <v>2.68</v>
       </c>
       <c r="T54" t="n">
-        <v>2.3</v>
+        <v>1.59</v>
       </c>
       <c r="U54" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="V54" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X54" t="n">
-        <v>7.6</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA54" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD54" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AF54" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG54" t="n">
         <v>11</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AH54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN54" t="n">
         <v>12</v>
       </c>
-      <c r="AH54" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>30</v>
-      </c>
       <c r="AO54" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>FC Guidonia Montecelio 1937</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H55" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I55" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J55" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K55" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.72</v>
+        <v>1.45</v>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="H56" t="n">
-        <v>2.56</v>
+        <v>8.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>2.28</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R56" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q56" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S56" t="n">
-        <v>2.08</v>
+        <v>2.8</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V56" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="W56" t="n">
-        <v>1.31</v>
+        <v>3.1</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F57" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G57" t="n">
         <v>2.18</v>
       </c>
-      <c r="G57" t="n">
-        <v>2.74</v>
-      </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="I57" t="n">
         <v>4.7</v>
       </c>
       <c r="J57" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N57" t="n">
-        <v>1.56</v>
+        <v>2.62</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P57" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="R57" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V57" t="n">
         <v>1.27</v>
       </c>
       <c r="W57" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,132 +8213,132 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="G58" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H58" t="n">
         <v>4.7</v>
       </c>
       <c r="I58" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K58" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L58" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.66</v>
+        <v>1.99</v>
       </c>
       <c r="R58" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S58" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="U58" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="V58" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="W58" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X58" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y58" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AA58" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.8</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE58" t="n">
         <v>85</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ58" t="n">
         <v>24</v>
       </c>
       <c r="AK58" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL58" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AO58" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,126 +8348,126 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="I59" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="J59" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="K59" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L59" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="S59" t="n">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="T59" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="X59" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA59" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD59" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE59" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK59" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
@@ -8483,36 +8483,36 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.44</v>
+        <v>2.18</v>
       </c>
       <c r="G60" t="n">
-        <v>1.78</v>
+        <v>2.76</v>
       </c>
       <c r="H60" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>150</v>
+        <v>4.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,13 +8521,13 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O60" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P60" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q60" t="n">
         <v>2</v>
@@ -8545,10 +8545,10 @@
         <v>1.01</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W60" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8608,135 +8608,540 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>150</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>2026-01-30</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Universidad de Chile</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Audax Italiano</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F64" t="n">
         <v>1.45</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G64" t="n">
         <v>1.49</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H64" t="n">
         <v>7.6</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I64" t="n">
         <v>9.6</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J64" t="n">
         <v>4.9</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K64" t="n">
         <v>5.3</v>
       </c>
-      <c r="L61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P61" t="n">
+      <c r="L64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N64" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="O64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q64" t="n">
         <v>1.64</v>
       </c>
-      <c r="R61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V61" t="n">
+      <c r="R64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V64" t="n">
         <v>1.11</v>
       </c>
-      <c r="W61" t="n">
+      <c r="W64" t="n">
         <v>3</v>
       </c>
-      <c r="X61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO61" t="n">
+      <c r="X64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO64" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
         <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -700,7 +700,7 @@
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
@@ -709,7 +709,7 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
@@ -745,10 +745,10 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>2.78</v>
       </c>
       <c r="J3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>5.7</v>
@@ -841,10 +841,10 @@
         <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>2.7</v>
@@ -853,7 +853,7 @@
         <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
@@ -880,7 +880,7 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1102,13 +1102,13 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.1</v>
@@ -1117,7 +1117,7 @@
         <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
         <v>1.16</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1234,19 +1234,19 @@
         <v>1.37</v>
       </c>
       <c r="O6" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.37</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
         <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q7" t="n">
         <v>2.42</v>
@@ -1381,7 +1381,7 @@
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
         <v>6.8</v>
@@ -1489,10 +1489,10 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
         <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
         <v>2.28</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -1636,7 +1636,7 @@
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O9" t="n">
         <v>1.81</v>
@@ -1645,7 +1645,7 @@
         <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
@@ -1678,7 +1678,7 @@
         <v>40</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1690,10 +1690,10 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
         <v>44</v>
@@ -1705,16 +1705,16 @@
         <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AM9" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AN9" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AO9" t="n">
         <v>60</v>
@@ -1750,7 +1750,7 @@
         <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
         <v>17</v>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
         <v>6.8</v>
@@ -1774,13 +1774,13 @@
         <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
@@ -1789,16 +1789,16 @@
         <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="V10" t="n">
         <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AG10" t="n">
         <v>970</v>
@@ -1885,16 +1885,16 @@
         <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1915,7 +1915,7 @@
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
         <v>1.49</v>
@@ -1933,10 +1933,10 @@
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
@@ -1972,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
@@ -2026,10 +2026,10 @@
         <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2047,16 +2047,16 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>1.31</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>950</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.9</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.13</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>1.17</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
-        <v>16.5</v>
+        <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>3.9</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>1.72</v>
       </c>
       <c r="I16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.3</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,94 +2581,94 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="V16" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.16</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2.58</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,88 +2716,88 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.72</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2839,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -3040,7 +3040,7 @@
         <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
         <v>1.27</v>
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.88</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S22" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="T22" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.44</v>
       </c>
-      <c r="V22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
       <c r="X22" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>65</v>
       </c>
-      <c r="AA22" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
-      </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>1.44</v>
+        <v>2.7</v>
       </c>
       <c r="X23" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF23" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>24</v>
-      </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AJ23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL23" t="n">
         <v>65</v>
       </c>
-      <c r="AK23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>95</v>
-      </c>
       <c r="AM23" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="AN23" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,118 +3628,118 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="H24" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="O24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.44</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.58</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y24" t="n">
         <v>970</v>
       </c>
-      <c r="Y24" t="n">
-        <v>22</v>
-      </c>
       <c r="Z24" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK24" t="n">
         <v>36</v>
       </c>
-      <c r="AI24" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>22</v>
-      </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3775,7 +3775,7 @@
         <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>2.78</v>
@@ -3823,7 +3823,7 @@
         <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>1.41</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="H26" t="n">
-        <v>2.74</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
         <v>3.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.59</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>2.98</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27">
@@ -4033,56 +4033,56 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="K27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.75</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.35</v>
-      </c>
       <c r="T27" t="n">
         <v>1.01</v>
       </c>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.85</v>
+        <v>2.26</v>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>1.59</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="G30" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>2.12</v>
+        <v>3.95</v>
       </c>
       <c r="I31" t="n">
-        <v>2.74</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
         <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.41</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>1.51</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>9.199999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>1.59</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>2.98</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="J33" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>1.59</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -4996,7 +4996,7 @@
         <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J34" t="n">
         <v>2.94</v>
@@ -5011,16 +5011,16 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.82</v>
+        <v>1.7</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="H35" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.74</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W35" t="n">
         <v>2.14</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X35" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>21</v>
       </c>
-      <c r="AA35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>50</v>
-      </c>
       <c r="AK35" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.85</v>
+        <v>2.58</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.87</v>
       </c>
-      <c r="U36" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AA36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK36" t="n">
         <v>34</v>
       </c>
-      <c r="AB36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" t="n">
+      <c r="AL36" t="n">
         <v>55</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO36" t="n">
         <v>60</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -5383,28 +5383,28 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>3.05</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>2.74</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
         <v>3.75</v>
@@ -5413,91 +5413,91 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="R37" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S37" t="n">
         <v>3.35</v>
       </c>
       <c r="T37" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U37" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="W37" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.38</v>
+        <v>3.45</v>
       </c>
       <c r="G38" t="n">
-        <v>2.56</v>
+        <v>3.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>2.36</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="O38" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="P38" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V38" t="n">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB38" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AC38" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN38" t="n">
         <v>80</v>
       </c>
-      <c r="AB38" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>36</v>
-      </c>
       <c r="AO38" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>1.94</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.06</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,34 +5686,34 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.89</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.28</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="I40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>4.4</v>
+        <v>1.81</v>
       </c>
       <c r="O40" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R40" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U40" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G41" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="O41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.39</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z41" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA41" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI41" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="n">
         <v>36</v>
       </c>
-      <c r="AK41" t="n">
-        <v>34</v>
-      </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="G42" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
         <v>3.7</v>
       </c>
       <c r="K42" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>4.7</v>
+        <v>2.26</v>
       </c>
       <c r="O42" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
         <v>2.26</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="X42" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="G43" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.3</v>
       </c>
-      <c r="I43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R43" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="T43" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V43" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA43" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE43" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ43" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AK43" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AL43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM43" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN43" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AO43" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -6328,31 +6328,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H44" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,88 +6361,88 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P44" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="T44" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="U44" t="n">
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W44" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>12.5</v>
+        <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="K45" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,88 +6496,88 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>6.8</v>
+        <v>2.48</v>
       </c>
       <c r="O45" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="T45" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>3.7</v>
+        <v>1.91</v>
       </c>
       <c r="X45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6598,79 +6598,79 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.7</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="P46" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="T46" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U46" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="V46" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>2.14</v>
+        <v>3.7</v>
       </c>
       <c r="X46" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="Y46" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="Z46" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AA46" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
         <v>970</v>
@@ -6679,10 +6679,10 @@
         <v>970</v>
       </c>
       <c r="AD46" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
         <v>970</v>
@@ -6691,34 +6691,34 @@
         <v>970</v>
       </c>
       <c r="AH46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>970</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>21</v>
       </c>
       <c r="AK46" t="n">
         <v>970</v>
       </c>
       <c r="AL46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM46" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN46" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AO46" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,121 +6733,121 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.81</v>
+        <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>2.46</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.05</v>
+        <v>1.99</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>2.04</v>
       </c>
       <c r="J47" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>2.26</v>
+        <v>4.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="S47" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V47" t="n">
-        <v>1.3</v>
+        <v>1.97</v>
       </c>
       <c r="W47" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G48" t="n">
         <v>2.72</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="H50" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="I50" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.46</v>
+        <v>1.42</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.46</v>
+        <v>2.22</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>3.9</v>
+        <v>2.24</v>
       </c>
       <c r="T50" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X50" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="G51" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N51" t="n">
         <v>2.46</v>
       </c>
-      <c r="I51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.42</v>
-      </c>
       <c r="O51" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P51" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.22</v>
+        <v>1.46</v>
       </c>
       <c r="R51" t="n">
         <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>2.24</v>
+        <v>3.9</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V51" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="W51" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H52" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I52" t="n">
         <v>9.199999999999999</v>
@@ -7441,10 +7441,10 @@
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O52" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P52" t="n">
         <v>1.54</v>
@@ -7459,7 +7459,7 @@
         <v>5.1</v>
       </c>
       <c r="T52" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U52" t="n">
         <v>1.57</v>
@@ -7468,7 +7468,7 @@
         <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X52" t="n">
         <v>9.800000000000001</v>
@@ -7480,7 +7480,7 @@
         <v>75</v>
       </c>
       <c r="AA52" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB52" t="n">
         <v>5.9</v>
@@ -7522,7 +7522,7 @@
         <v>17</v>
       </c>
       <c r="AO52" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G58" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H58" t="n">
         <v>4.7</v>
@@ -8257,7 +8257,7 @@
         <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q58" t="n">
         <v>1.99</v>
@@ -8275,10 +8275,10 @@
         <v>1.9</v>
       </c>
       <c r="V58" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W58" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X58" t="n">
         <v>970</v>
@@ -8287,7 +8287,7 @@
         <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA58" t="n">
         <v>150</v>
@@ -8386,7 +8386,7 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
@@ -8839,7 +8839,7 @@
         <v>8</v>
       </c>
       <c r="AD62" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE62" t="n">
         <v>70</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G63" t="n">
         <v>1.78</v>
@@ -8917,7 +8917,7 @@
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8929,7 +8929,7 @@
         <v>1.57</v>
       </c>
       <c r="O63" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P63" t="n">
         <v>1.57</v>
@@ -9079,10 +9079,10 @@
         <v>2.34</v>
       </c>
       <c r="T64" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="U64" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V64" t="n">
         <v>1.11</v>
@@ -9143,6 +9143,411 @@
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medell</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K66" t="n">
+        <v>950</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -691,31 +691,31 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -724,10 +724,10 @@
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>25</v>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
         <v>44</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.68</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -832,7 +832,7 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
@@ -850,64 +850,64 @@
         <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -943,16 +943,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
@@ -982,10 +982,10 @@
         <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>1.13</v>
@@ -1081,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1096,19 +1096,19 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
         <v>3.1</v>
@@ -1117,16 +1117,16 @@
         <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>22</v>
@@ -1135,7 +1135,7 @@
         <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
         <v>8.800000000000001</v>
@@ -1147,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
@@ -1159,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
         <v>2.28</v>
@@ -1627,7 +1627,7 @@
         <v>2.72</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,16 +1636,16 @@
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
@@ -1654,19 +1654,19 @@
         <v>7.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>6.4</v>
@@ -1696,28 +1696,28 @@
         <v>30</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL9" t="n">
         <v>210</v>
       </c>
-      <c r="AK9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>230</v>
-      </c>
       <c r="AM9" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="AN9" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
@@ -1789,16 +1789,16 @@
         <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="V10" t="n">
         <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1807,7 +1807,7 @@
         <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1903,10 +1903,10 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1921,7 +1921,7 @@
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
         <v>1.65</v>
@@ -1930,10 +1930,10 @@
         <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2026,10 +2026,10 @@
         <v>5.6</v>
       </c>
       <c r="I12" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2041,22 +2041,22 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2065,13 +2065,13 @@
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
         <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
@@ -2092,7 +2092,7 @@
         <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2119,10 +2119,10 @@
         <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -2176,88 +2176,88 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.31</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.79</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.01</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.13</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H14" t="n">
         <v>16.5</v>
@@ -2299,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q14" t="n">
         <v>1.22</v>
@@ -2425,16 +2425,16 @@
         <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
         <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>3.55</v>
@@ -2446,19 +2446,19 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
         <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
         <v>3.85</v>
@@ -2524,10 +2524,10 @@
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G16" t="n">
         <v>7</v>
@@ -2566,13 +2566,13 @@
         <v>1.72</v>
       </c>
       <c r="I16" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,7 +2605,7 @@
         <v>1.69</v>
       </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
         <v>1.16</v>
@@ -2695,7 +2695,7 @@
         <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
         <v>3.05</v>
@@ -2704,10 +2704,10 @@
         <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
         <v>1.94</v>
@@ -2764,10 +2764,10 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
         <v>20</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>42</v>
@@ -2797,7 +2797,7 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2833,13 +2833,13 @@
         <v>1.88</v>
       </c>
       <c r="H18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,31 +2851,31 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
         <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
         <v>2.12</v>
@@ -2887,7 +2887,7 @@
         <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="n">
         <v>120</v>
@@ -2911,28 +2911,28 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
         <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H19" t="n">
         <v>2.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
@@ -2992,13 +2992,13 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
         <v>2.42</v>
@@ -3007,13 +3007,13 @@
         <v>1.52</v>
       </c>
       <c r="U19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
@@ -3028,10 +3028,10 @@
         <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
@@ -3058,7 +3058,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>55</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
         <v>4.1</v>
@@ -3121,49 +3121,49 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
         <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
         <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
         <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3172,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -3184,7 +3184,7 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>23</v>
@@ -3193,13 +3193,13 @@
         <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
         <v>48</v>
@@ -3238,7 +3238,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I21" t="n">
         <v>1.32</v>
@@ -3247,7 +3247,7 @@
         <v>6.2</v>
       </c>
       <c r="K21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O21" t="n">
         <v>1.1</v>
@@ -3268,10 +3268,10 @@
         <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S21" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
         <v>1.69</v>
@@ -3283,7 +3283,7 @@
         <v>4.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X21" t="n">
         <v>65</v>
@@ -3298,7 +3298,7 @@
         <v>970</v>
       </c>
       <c r="AB21" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AC21" t="n">
         <v>20</v>
@@ -3331,7 +3331,7 @@
         <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
         <v>120</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
         <v>2.84</v>
@@ -3388,13 +3388,13 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -3403,10 +3403,10 @@
         <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -3415,28 +3415,28 @@
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y22" t="n">
         <v>7.8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>16.5</v>
@@ -3448,31 +3448,31 @@
         <v>24</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>95</v>
       </c>
       <c r="AJ22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="n">
         <v>65</v>
       </c>
-      <c r="AK22" t="n">
-        <v>60</v>
-      </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AO22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G23" t="n">
         <v>1.59</v>
@@ -3526,7 +3526,7 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3562,7 +3562,7 @@
         <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3577,7 +3577,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF23" t="n">
         <v>7.8</v>
@@ -3589,7 +3589,7 @@
         <v>36</v>
       </c>
       <c r="AI23" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AJ23" t="n">
         <v>970</v>
@@ -3601,7 +3601,7 @@
         <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN23" t="n">
         <v>970</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
         <v>1.97</v>
@@ -3649,10 +3649,10 @@
         <v>7.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,16 +3661,16 @@
         <v>1.16</v>
       </c>
       <c r="N24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R24" t="n">
         <v>1.12</v>
@@ -3679,7 +3679,7 @@
         <v>7.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="U24" t="n">
         <v>1.44</v>
@@ -3709,7 +3709,7 @@
         <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
         <v>220</v>
@@ -3772,106 +3772,106 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="K25" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
         <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="T25" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3937,13 +3937,13 @@
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
         <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
         <v>3.4</v>
@@ -3952,7 +3952,7 @@
         <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
         <v>1.09</v>
@@ -3970,7 +3970,7 @@
         <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="AB26" t="n">
         <v>7.4</v>
@@ -3979,10 +3979,10 @@
         <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="n">
         <v>8.199999999999999</v>
@@ -3994,7 +3994,7 @@
         <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -4003,16 +4003,16 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27">
@@ -4078,10 +4078,10 @@
         <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G28" t="n">
         <v>2.48</v>
@@ -4204,7 +4204,7 @@
         <v>1.51</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
         <v>1.51</v>
@@ -4336,16 +4336,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,13 +4471,13 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
         <v>2.16</v>
@@ -4498,7 +4498,7 @@
         <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="G31" t="n">
         <v>2.08</v>
@@ -4591,10 +4591,10 @@
         <v>3.95</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.75</v>
@@ -4606,16 +4606,16 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R31" t="n">
         <v>1.21</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4765,7 +4765,7 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
         <v>1.47</v>
@@ -4855,16 +4855,16 @@
         <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I33" t="n">
         <v>2.96</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
         <v>4.1</v>
@@ -4957,7 +4957,7 @@
         <v>26</v>
       </c>
       <c r="AO33" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G34" t="n">
         <v>2.96</v>
@@ -4996,13 +4996,13 @@
         <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,31 +5011,31 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="Q34" t="n">
         <v>2.04</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W34" t="n">
         <v>1.51</v>
@@ -5044,52 +5044,52 @@
         <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G35" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
         <v>4.3</v>
@@ -5146,7 +5146,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.18</v>
@@ -5158,22 +5158,22 @@
         <v>1.54</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S35" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U35" t="n">
         <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="X35" t="n">
         <v>28</v>
@@ -5227,7 +5227,7 @@
         <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -5257,67 +5257,67 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G36" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X36" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
         <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA36" t="n">
         <v>70</v>
@@ -5335,7 +5335,7 @@
         <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>13.5</v>
@@ -5359,7 +5359,7 @@
         <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO36" t="n">
         <v>60</v>
@@ -5398,7 +5398,7 @@
         <v>3.05</v>
       </c>
       <c r="H37" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I37" t="n">
         <v>2.74</v>
@@ -5422,10 +5422,10 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="R37" t="n">
         <v>1.35</v>
@@ -5437,7 +5437,7 @@
         <v>1.72</v>
       </c>
       <c r="U37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
         <v>1.57</v>
@@ -5491,7 +5491,7 @@
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
         <v>32</v>
@@ -5530,43 +5530,43 @@
         <v>3.45</v>
       </c>
       <c r="G38" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I38" t="n">
         <v>2.36</v>
       </c>
       <c r="J38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T38" t="n">
         <v>1.83</v>
@@ -5578,13 +5578,13 @@
         <v>1.73</v>
       </c>
       <c r="W38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Z38" t="n">
         <v>970</v>
@@ -5596,7 +5596,7 @@
         <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
         <v>12</v>
@@ -5626,10 +5626,10 @@
         <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO38" t="n">
         <v>29</v>
@@ -5677,7 +5677,7 @@
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5692,10 +5692,10 @@
         <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
         <v>1.23</v>
@@ -5800,10 +5800,10 @@
         <v>4.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I40" t="n">
         <v>2.06</v>
@@ -5935,7 +5935,7 @@
         <v>2.38</v>
       </c>
       <c r="G41" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5956,7 +5956,7 @@
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O41" t="n">
         <v>1.51</v>
@@ -5965,10 +5965,10 @@
         <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
         <v>4.8</v>
@@ -6016,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>80</v>
@@ -6031,7 +6031,7 @@
         <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN41" t="n">
         <v>36</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G42" t="n">
         <v>2.46</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G43" t="n">
         <v>2.32</v>
@@ -6211,7 +6211,7 @@
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J43" t="n">
         <v>3.7</v>
@@ -6226,58 +6226,58 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
         <v>2.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S43" t="n">
         <v>2.58</v>
       </c>
       <c r="T43" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U43" t="n">
         <v>2.38</v>
       </c>
       <c r="V43" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
         <v>1.76</v>
       </c>
       <c r="X43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
         <v>17</v>
       </c>
       <c r="AE43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="n">
         <v>18.5</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="G44" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="H44" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J44" t="n">
         <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,7 +6361,7 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.21</v>
@@ -6373,10 +6373,10 @@
         <v>1.57</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T44" t="n">
         <v>1.52</v>
@@ -6388,7 +6388,7 @@
         <v>1.24</v>
       </c>
       <c r="W44" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
         <v>22</v>
@@ -6397,10 +6397,10 @@
         <v>21</v>
       </c>
       <c r="Z44" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
@@ -6412,7 +6412,7 @@
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
@@ -6424,25 +6424,25 @@
         <v>970</v>
       </c>
       <c r="AI44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
         <v>970</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
         <v>970</v>
       </c>
       <c r="AO44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -6475,7 +6475,7 @@
         <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H45" t="n">
         <v>3.95</v>
@@ -6484,7 +6484,7 @@
         <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>4.8</v>
@@ -6496,13 +6496,13 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q45" t="n">
         <v>1.53</v>
@@ -6523,7 +6523,7 @@
         <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G46" t="n">
         <v>1.37</v>
       </c>
       <c r="H46" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I46" t="n">
         <v>12.5</v>
@@ -6622,7 +6622,7 @@
         <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>950</v>
+        <v>13.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6643,10 +6643,10 @@
         <v>1.34</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S46" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T46" t="n">
         <v>1.66</v>
@@ -6661,7 +6661,7 @@
         <v>3.7</v>
       </c>
       <c r="X46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y46" t="n">
         <v>60</v>
@@ -6709,7 +6709,7 @@
         <v>95</v>
       </c>
       <c r="AN46" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO46" t="n">
         <v>100</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G47" t="n">
         <v>4.1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>2.04</v>
@@ -6763,22 +6763,22 @@
         <v>1.35</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R47" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S47" t="n">
         <v>3</v>
@@ -6790,13 +6790,13 @@
         <v>2.24</v>
       </c>
       <c r="V47" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="W47" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y47" t="n">
         <v>11.5</v>
@@ -6820,7 +6820,7 @@
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG47" t="n">
         <v>18</v>
@@ -6847,7 +6847,7 @@
         <v>44</v>
       </c>
       <c r="AO47" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -6886,13 +6886,13 @@
         <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J48" t="n">
         <v>3.3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6904,13 +6904,13 @@
         <v>1.94</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
         <v>1.94</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R48" t="n">
         <v>1.3</v>
@@ -7021,7 +7021,7 @@
         <v>2.52</v>
       </c>
       <c r="I49" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J49" t="n">
         <v>3.45</v>
@@ -7045,7 +7045,7 @@
         <v>2.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R49" t="n">
         <v>1.48</v>
@@ -7054,70 +7054,70 @@
         <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="U49" t="n">
         <v>1.01</v>
       </c>
       <c r="V49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.51</v>
       </c>
-      <c r="W49" t="n">
-        <v>1.48</v>
-      </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -7378,13 +7378,13 @@
         <v>75</v>
       </c>
       <c r="AL51" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM51" t="n">
         <v>180</v>
       </c>
       <c r="AN51" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO51" t="n">
         <v>32</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G52" t="n">
         <v>1.69</v>
@@ -7498,7 +7498,7 @@
         <v>8.4</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
         <v>36</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G53" t="n">
         <v>5.4</v>
       </c>
       <c r="H53" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="I53" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="J53" t="n">
         <v>3.4</v>
@@ -7582,25 +7582,25 @@
         <v>1.41</v>
       </c>
       <c r="P53" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q53" t="n">
         <v>2.2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S53" t="n">
         <v>4.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U53" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V53" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W53" t="n">
         <v>1.22</v>
@@ -7621,7 +7621,7 @@
         <v>970</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD53" t="n">
         <v>970</v>
@@ -7642,19 +7642,19 @@
         <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK53" t="n">
         <v>80</v>
       </c>
       <c r="AL53" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM53" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN53" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO53" t="n">
         <v>970</v>
@@ -7699,7 +7699,7 @@
         <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
         <v>3.85</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G56" t="n">
         <v>1.47</v>
@@ -7966,7 +7966,7 @@
         <v>8.4</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
         <v>5</v>
@@ -7984,7 +7984,7 @@
         <v>4.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
         <v>2.32</v>
@@ -7993,7 +7993,7 @@
         <v>1.71</v>
       </c>
       <c r="R56" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S56" t="n">
         <v>2.8</v>
@@ -8005,7 +8005,7 @@
         <v>1.98</v>
       </c>
       <c r="V56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W56" t="n">
         <v>3.1</v>
@@ -8131,7 +8131,7 @@
         <v>1.19</v>
       </c>
       <c r="S57" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T57" t="n">
         <v>2.3</v>
@@ -8188,7 +8188,7 @@
         <v>32</v>
       </c>
       <c r="AL57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="n">
         <v>230</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G58" t="n">
         <v>2.02</v>
       </c>
       <c r="H58" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I58" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J58" t="n">
         <v>3.3</v>
@@ -8251,16 +8251,16 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P58" t="n">
         <v>1.81</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
         <v>1.3</v>
@@ -8269,16 +8269,16 @@
         <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U58" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V58" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W58" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X58" t="n">
         <v>970</v>
@@ -8290,22 +8290,22 @@
         <v>42</v>
       </c>
       <c r="AA58" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB58" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AC58" t="n">
         <v>9.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE58" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF58" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
@@ -8314,25 +8314,25 @@
         <v>24</v>
       </c>
       <c r="AI58" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ58" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL58" t="n">
         <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
         <v>970</v>
       </c>
       <c r="AO58" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
@@ -8386,13 +8386,13 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
         <v>1.01</v>
       </c>
       <c r="P59" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q59" t="n">
         <v>2.08</v>
@@ -8410,7 +8410,7 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W59" t="n">
         <v>1.31</v>
@@ -8638,19 +8638,19 @@
         <v>2.08</v>
       </c>
       <c r="H61" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I61" t="n">
         <v>4.9</v>
       </c>
       <c r="J61" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K61" t="n">
         <v>3.2</v>
       </c>
-      <c r="K61" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L61" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M61" t="n">
         <v>1.13</v>
@@ -8662,7 +8662,7 @@
         <v>1.55</v>
       </c>
       <c r="P61" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q61" t="n">
         <v>2.66</v>
@@ -8680,7 +8680,7 @@
         <v>1.76</v>
       </c>
       <c r="V61" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
         <v>1.92</v>
@@ -8695,7 +8695,7 @@
         <v>32</v>
       </c>
       <c r="AA61" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB61" t="n">
         <v>6.8</v>
@@ -8731,13 +8731,13 @@
         <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN61" t="n">
         <v>25</v>
       </c>
       <c r="AO61" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -8791,13 +8791,13 @@
         <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O62" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P62" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q62" t="n">
         <v>2.34</v>
@@ -8806,10 +8806,10 @@
         <v>1.23</v>
       </c>
       <c r="S62" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U62" t="n">
         <v>1.72</v>
@@ -8830,13 +8830,13 @@
         <v>32</v>
       </c>
       <c r="AA62" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB62" t="n">
         <v>8</v>
       </c>
       <c r="AC62" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD62" t="n">
         <v>970</v>
@@ -8857,10 +8857,10 @@
         <v>85</v>
       </c>
       <c r="AJ62" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK62" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL62" t="n">
         <v>55</v>
@@ -8869,7 +8869,7 @@
         <v>180</v>
       </c>
       <c r="AN62" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AO62" t="n">
         <v>95</v>
@@ -8911,7 +8911,7 @@
         <v>5.5</v>
       </c>
       <c r="I63" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
@@ -8950,7 +8950,7 @@
         <v>1.01</v>
       </c>
       <c r="V63" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="W63" t="n">
         <v>2.28</v>
@@ -9040,19 +9040,19 @@
         <v>1.45</v>
       </c>
       <c r="G64" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H64" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I64" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K64" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9061,13 +9061,13 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q64" t="n">
         <v>1.64</v>
@@ -9088,7 +9088,7 @@
         <v>1.11</v>
       </c>
       <c r="W64" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9319,7 +9319,7 @@
         <v>1000</v>
       </c>
       <c r="J66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K66" t="n">
         <v>950</v>
@@ -9331,13 +9331,13 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O66" t="n">
         <v>1.32</v>
       </c>
       <c r="P66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q66" t="n">
         <v>1.32</v>
@@ -9445,16 +9445,16 @@
         <v>5.3</v>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H67" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I67" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J67" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K67" t="n">
         <v>4.4</v>
@@ -9484,13 +9484,13 @@
         <v>3.05</v>
       </c>
       <c r="T67" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U67" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="W67" t="n">
         <v>1.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -676,7 +676,7 @@
         <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -697,7 +697,7 @@
         <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
         <v>1.91</v>
@@ -709,13 +709,13 @@
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -826,7 +826,7 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,37 +961,37 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
         <v>2.12</v>
@@ -1351,13 +1351,13 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="P7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
         <v>2.42</v>
@@ -1381,7 +1381,7 @@
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1657,7 +1657,7 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V9" t="n">
         <v>1.79</v>
@@ -1681,7 +1681,7 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>16</v>
@@ -1762,7 +1762,7 @@
         <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1906,22 +1906,22 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
         <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
         <v>1.65</v>
@@ -1933,19 +1933,19 @@
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
         <v>13.5</v>
@@ -1954,19 +1954,19 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1975,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>36</v>
@@ -1987,7 +1987,7 @@
         <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2050,13 +2050,13 @@
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2065,7 +2065,7 @@
         <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
         <v>2.28</v>
@@ -2155,10 +2155,10 @@
         <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="I13" t="n">
         <v>2.02</v>
@@ -2167,7 +2167,7 @@
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -2182,10 +2182,10 @@
         <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
         <v>1.37</v>
@@ -2194,19 +2194,19 @@
         <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2236,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>36</v>
@@ -2293,7 +2293,7 @@
         <v>1.16</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
@@ -2320,7 +2320,7 @@
         <v>4.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
         <v>2.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.45</v>
@@ -2452,25 +2452,25 @@
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
         <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
         <v>1.39</v>
@@ -2509,13 +2509,13 @@
         <v>18.5</v>
       </c>
       <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK15" t="n">
         <v>44</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>46</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.69</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2836,10 +2836,10 @@
         <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2860,7 +2860,7 @@
         <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
         <v>1.45</v>
@@ -2875,7 +2875,7 @@
         <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
         <v>2.12</v>
@@ -2902,7 +2902,7 @@
         <v>18.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
         <v>12.5</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
         <v>55</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
         <v>2.78</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -2992,22 +2992,22 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
         <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U19" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V19" t="n">
         <v>1.57</v>
@@ -3052,10 +3052,10 @@
         <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
@@ -3064,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G20" t="n">
         <v>2.02</v>
@@ -3106,13 +3106,13 @@
         <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.36</v>
@@ -3136,16 +3136,16 @@
         <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
         <v>1.98</v>
@@ -3184,7 +3184,7 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>23</v>
@@ -3199,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
         <v>48</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
@@ -3241,7 +3241,7 @@
         <v>1.26</v>
       </c>
       <c r="I21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J21" t="n">
         <v>6.2</v>
@@ -3370,13 +3370,13 @@
         <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J22" t="n">
         <v>2.84</v>
@@ -3391,7 +3391,7 @@
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.61</v>
@@ -3418,7 +3418,7 @@
         <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
         <v>9.199999999999999</v>
@@ -3436,7 +3436,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>16.5</v>
@@ -3472,7 +3472,7 @@
         <v>85</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3505,13 +3505,13 @@
         <v>1.49</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
         <v>3.9</v>
@@ -3529,7 +3529,7 @@
         <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
         <v>1.64</v>
@@ -3550,10 +3550,10 @@
         <v>1.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
@@ -3577,7 +3577,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="n">
         <v>7.8</v>
@@ -3589,7 +3589,7 @@
         <v>36</v>
       </c>
       <c r="AI23" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="n">
         <v>970</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G24" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3664,7 +3664,7 @@
         <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P24" t="n">
         <v>1.36</v>
@@ -3682,13 +3682,13 @@
         <v>2.68</v>
       </c>
       <c r="U24" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
         <v>6.8</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.66</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,88 +3796,88 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>36</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AK25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM25" t="n">
         <v>75</v>
       </c>
-      <c r="AB25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>1.41</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>9.199999999999999</v>
@@ -3922,7 +3922,7 @@
         <v>4.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3937,7 +3937,7 @@
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q26" t="n">
         <v>1.94</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H27" t="n">
         <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.56</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4186,7 +4186,7 @@
         <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
@@ -4201,13 +4201,13 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
         <v>2.14</v>
@@ -4216,7 +4216,7 @@
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4339,19 +4339,19 @@
         <v>1.58</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,13 +4450,13 @@
         <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4480,7 +4480,7 @@
         <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
         <v>1.2</v>
@@ -4498,7 +4498,7 @@
         <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="G31" t="n">
         <v>2.08</v>
@@ -4591,37 +4591,37 @@
         <v>3.95</v>
       </c>
       <c r="I31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
         <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,7 +4630,7 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
         <v>1.92</v>
@@ -4723,16 +4723,16 @@
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
         <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -4750,13 +4750,13 @@
         <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H33" t="n">
         <v>2.64</v>
@@ -4867,7 +4867,7 @@
         <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>1.31</v>
@@ -4903,7 +4903,7 @@
         <v>1.51</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>970</v>
@@ -4924,7 +4924,7 @@
         <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
         <v>30</v>
@@ -4933,7 +4933,7 @@
         <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>970</v>
@@ -4987,73 +4987,73 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
         <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U34" t="n">
         <v>2.04</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
         <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA34" t="n">
         <v>60</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
         <v>8.800000000000001</v>
@@ -5062,13 +5062,13 @@
         <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF34" t="n">
         <v>19.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
@@ -5080,19 +5080,19 @@
         <v>46</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
         <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G35" t="n">
         <v>1.8</v>
@@ -5158,7 +5158,7 @@
         <v>1.54</v>
       </c>
       <c r="R35" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
         <v>2.22</v>
@@ -5287,7 +5287,7 @@
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q36" t="n">
         <v>2.12</v>
@@ -5302,7 +5302,7 @@
         <v>1.87</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>1.4</v>
@@ -5359,7 +5359,7 @@
         <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO36" t="n">
         <v>60</v>
@@ -5398,16 +5398,16 @@
         <v>3.05</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I37" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J37" t="n">
         <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,7 +5416,7 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>
@@ -5425,7 +5425,7 @@
         <v>1.91</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="R37" t="n">
         <v>1.35</v>
@@ -5452,19 +5452,19 @@
         <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="n">
         <v>40</v>
       </c>
       <c r="AB37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
         <v>8.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
         <v>30</v>
@@ -5473,10 +5473,10 @@
         <v>22</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>42</v>
@@ -5488,16 +5488,16 @@
         <v>36</v>
       </c>
       <c r="AL37" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
         <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -5533,16 +5533,16 @@
         <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I38" t="n">
         <v>2.36</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5560,7 +5560,7 @@
         <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R38" t="n">
         <v>1.25</v>
@@ -5569,10 +5569,10 @@
         <v>4.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V38" t="n">
         <v>1.73</v>
@@ -5602,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF38" t="n">
         <v>26</v>
@@ -5623,7 +5623,7 @@
         <v>60</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
         <v>170</v>
@@ -5668,7 +5668,7 @@
         <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -5677,37 +5677,37 @@
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U39" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
         <v>1.3</v>
@@ -5716,58 +5716,58 @@
         <v>1.89</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -5806,7 +5806,7 @@
         <v>1.93</v>
       </c>
       <c r="I40" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J40" t="n">
         <v>3.55</v>
@@ -5818,91 +5818,91 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.81</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V40" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W40" t="n">
         <v>1.28</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,7 +5956,7 @@
         <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
         <v>1.51</v>
@@ -5974,13 +5974,13 @@
         <v>4.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="V41" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W41" t="n">
         <v>1.66</v>
@@ -6037,7 +6037,7 @@
         <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="G42" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J42" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,88 +6091,88 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.26</v>
+        <v>5.6</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="T42" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="W42" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -6211,13 +6211,13 @@
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,7 +6226,7 @@
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -6238,10 +6238,10 @@
         <v>1.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="T43" t="n">
         <v>1.6</v>
@@ -6250,7 +6250,7 @@
         <v>2.38</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W43" t="n">
         <v>1.76</v>
@@ -6370,16 +6370,16 @@
         <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S44" t="n">
         <v>2.34</v>
       </c>
       <c r="T44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U44" t="n">
         <v>1.01</v>
@@ -6397,7 +6397,7 @@
         <v>21</v>
       </c>
       <c r="Z44" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA44" t="n">
         <v>100</v>
@@ -6475,19 +6475,19 @@
         <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6505,13 +6505,13 @@
         <v>2.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
         <v>1.46</v>
@@ -6520,10 +6520,10 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W45" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6610,7 +6610,7 @@
         <v>1.3</v>
       </c>
       <c r="G46" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H46" t="n">
         <v>7.6</v>
@@ -6619,10 +6619,10 @@
         <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K46" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,13 +6631,13 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P46" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
         <v>1.34</v>
@@ -6649,7 +6649,7 @@
         <v>1.81</v>
       </c>
       <c r="T46" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U46" t="n">
         <v>2.28</v>
@@ -6658,7 +6658,7 @@
         <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X46" t="n">
         <v>65</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -6769,7 +6769,7 @@
         <v>4.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P47" t="n">
         <v>2.08</v>
@@ -6790,10 +6790,10 @@
         <v>2.24</v>
       </c>
       <c r="V47" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W47" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X47" t="n">
         <v>19.5</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G48" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="H48" t="n">
         <v>3.05</v>
@@ -6910,13 +6910,13 @@
         <v>1.94</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R48" t="n">
         <v>1.3</v>
       </c>
       <c r="S48" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -7015,13 +7015,13 @@
         <v>2.54</v>
       </c>
       <c r="G49" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>2.52</v>
       </c>
       <c r="I49" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="J49" t="n">
         <v>3.45</v>
@@ -7036,7 +7036,7 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
         <v>1.2</v>
@@ -7048,76 +7048,76 @@
         <v>1.58</v>
       </c>
       <c r="R49" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="T49" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X49" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI49" t="n">
         <v>32</v>
       </c>
-      <c r="Y49" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AJ49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL49" t="n">
         <v>34</v>
       </c>
-      <c r="AF49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>44</v>
-      </c>
       <c r="AM49" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN49" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AO49" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G50" t="n">
         <v>3.65</v>
       </c>
       <c r="H50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I50" t="n">
         <v>3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K50" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7198,7 +7198,7 @@
         <v>1.4</v>
       </c>
       <c r="W50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7420,7 +7420,7 @@
         <v>1.58</v>
       </c>
       <c r="G52" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H52" t="n">
         <v>7.2</v>
@@ -7441,40 +7441,40 @@
         <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R52" t="n">
         <v>1.19</v>
       </c>
       <c r="S52" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U52" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V52" t="n">
         <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X52" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z52" t="n">
         <v>75</v>
@@ -7483,7 +7483,7 @@
         <v>410</v>
       </c>
       <c r="AB52" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC52" t="n">
         <v>9.4</v>
@@ -7492,34 +7492,34 @@
         <v>36</v>
       </c>
       <c r="AE52" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF52" t="n">
         <v>8.4</v>
       </c>
       <c r="AG52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH52" t="n">
         <v>36</v>
       </c>
       <c r="AI52" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ52" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL52" t="n">
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO52" t="n">
         <v>470</v>
@@ -7561,7 +7561,7 @@
         <v>1.88</v>
       </c>
       <c r="I53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>3.4</v>
@@ -7576,7 +7576,7 @@
         <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O53" t="n">
         <v>1.41</v>
@@ -7600,10 +7600,10 @@
         <v>1.9</v>
       </c>
       <c r="V53" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X53" t="n">
         <v>12</v>
@@ -7642,7 +7642,7 @@
         <v>46</v>
       </c>
       <c r="AJ53" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="n">
         <v>80</v>
@@ -7726,7 +7726,7 @@
         <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T54" t="n">
         <v>1.59</v>
@@ -7960,10 +7960,10 @@
         <v>1.46</v>
       </c>
       <c r="G56" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H56" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I56" t="n">
         <v>8.800000000000001</v>
@@ -7999,7 +7999,7 @@
         <v>2.8</v>
       </c>
       <c r="T56" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U56" t="n">
         <v>1.98</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G57" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H57" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J57" t="n">
         <v>3.05</v>
@@ -8125,7 +8125,7 @@
         <v>1.52</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R57" t="n">
         <v>1.19</v>
@@ -8140,10 +8140,10 @@
         <v>1.72</v>
       </c>
       <c r="V57" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W57" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X57" t="n">
         <v>7.6</v>
@@ -8164,10 +8164,10 @@
         <v>7.2</v>
       </c>
       <c r="AD57" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE57" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF57" t="n">
         <v>11</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G58" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H58" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I58" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J58" t="n">
         <v>3.3</v>
@@ -8257,16 +8257,16 @@
         <v>1.34</v>
       </c>
       <c r="P58" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R58" t="n">
         <v>1.3</v>
       </c>
       <c r="S58" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T58" t="n">
         <v>1.84</v>
@@ -8275,10 +8275,10 @@
         <v>1.94</v>
       </c>
       <c r="V58" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W58" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="X58" t="n">
         <v>970</v>
@@ -8287,16 +8287,16 @@
         <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA58" t="n">
         <v>130</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD58" t="n">
         <v>22</v>
@@ -8314,25 +8314,25 @@
         <v>24</v>
       </c>
       <c r="AI58" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
         <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AO58" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -8389,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="O59" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
         <v>1.25</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G60" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J60" t="n">
         <v>2.98</v>
       </c>
       <c r="K60" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,13 +8521,13 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="O60" t="n">
         <v>1.01</v>
       </c>
       <c r="P60" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q60" t="n">
         <v>2</v>
@@ -8545,10 +8545,10 @@
         <v>1.01</v>
       </c>
       <c r="V60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W60" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8638,16 +8638,16 @@
         <v>2.08</v>
       </c>
       <c r="H61" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I61" t="n">
         <v>4.9</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L61" t="n">
         <v>1.58</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I62" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.6</v>
       </c>
       <c r="J62" t="n">
         <v>3.3</v>
@@ -8803,34 +8803,34 @@
         <v>2.34</v>
       </c>
       <c r="R62" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S62" t="n">
         <v>4.5</v>
       </c>
       <c r="T62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="V62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W62" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="X62" t="n">
         <v>10.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="n">
         <v>32</v>
       </c>
       <c r="AA62" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB62" t="n">
         <v>8</v>
@@ -8839,34 +8839,34 @@
         <v>7.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE62" t="n">
         <v>70</v>
       </c>
       <c r="AF62" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI62" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ62" t="n">
         <v>32</v>
       </c>
       <c r="AK62" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL62" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM62" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN62" t="n">
         <v>32</v>
@@ -8902,64 +8902,64 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G63" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="H63" t="n">
-        <v>5.5</v>
+        <v>1.09</v>
       </c>
       <c r="I63" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>7.6</v>
+        <v>110</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="O63" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V63" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="W63" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z63" t="n">
         <v>1000</v>
@@ -8968,10 +8968,10 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD63" t="n">
         <v>1000</v>
@@ -8980,10 +8980,10 @@
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH63" t="n">
         <v>1000</v>
@@ -8992,10 +8992,10 @@
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL63" t="n">
         <v>1000</v>
@@ -9046,7 +9046,7 @@
         <v>7.2</v>
       </c>
       <c r="I64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J64" t="n">
         <v>4.8</v>
@@ -9061,10 +9061,10 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.02</v>
+        <v>4.9</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P64" t="n">
         <v>2.34</v>
@@ -9073,76 +9073,76 @@
         <v>1.64</v>
       </c>
       <c r="R64" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="S64" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T64" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U64" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V64" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W64" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE64" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF64" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL64" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM64" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -9487,10 +9487,10 @@
         <v>1.81</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V67" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W67" t="n">
         <v>1.2</v>
@@ -9520,7 +9520,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="n">
         <v>24</v>
@@ -9535,7 +9535,7 @@
         <v>150</v>
       </c>
       <c r="AK67" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL67" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J2" t="n">
         <v>3.9</v>
@@ -700,7 +700,7 @@
         <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
@@ -709,13 +709,13 @@
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
@@ -760,16 +760,16 @@
         <v>80</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="n">
         <v>14.5</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>06:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
         <v>2.66</v>
@@ -811,13 +811,13 @@
         <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
@@ -826,28 +826,28 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.55</v>
@@ -889,10 +889,10 @@
         <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
         <v>28</v>
@@ -901,13 +901,13 @@
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>16</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.64</v>
@@ -952,19 +952,19 @@
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.8</v>
@@ -973,58 +973,58 @@
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1081,22 +1081,22 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
@@ -1120,13 +1120,13 @@
         <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
         <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
         <v>22</v>
@@ -1225,7 +1225,7 @@
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1240,7 +1240,7 @@
         <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
         <v>1.15</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>1.38</v>
+        <v>2.26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.42</v>
+        <v>4.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>1.29</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.72</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7.4</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.4</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
         <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>310</v>
+        <v>5.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>17.5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>2.78</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>1.37</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>4.7</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="H11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.68</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y11" t="n">
         <v>24</v>
       </c>
-      <c r="Y11" t="n">
-        <v>21</v>
-      </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AF11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>27</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2035,7 +2035,7 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2050,37 +2050,37 @@
         <v>1.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
         <v>9.6</v>
@@ -2092,10 +2092,10 @@
         <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
@@ -2107,7 +2107,7 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2122,13 +2122,13 @@
         <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.13</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1.16</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>4.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>1.13</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>1.16</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>4.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="I16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.98</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Q16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.2</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.4</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>3.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.4</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.31</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="X17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z17" t="n">
         <v>15</v>
       </c>
-      <c r="Y17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>26</v>
-      </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.83</v>
       </c>
       <c r="G18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
         <v>4.3</v>
@@ -2839,13 +2839,13 @@
         <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2860,7 +2860,7 @@
         <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
         <v>1.45</v>
@@ -2878,7 +2878,7 @@
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X18" t="n">
         <v>17.5</v>
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.28</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.19</v>
-      </c>
       <c r="P19" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.64</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
         <v>17</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
         <v>13</v>
       </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>22</v>
-      </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.97</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>1.26</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>1.31</v>
       </c>
       <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P20" t="n">
         <v>3.75</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>4.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>1.08</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL20" t="n">
         <v>110</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.800000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
         <v>14</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X21" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>42</v>
-      </c>
       <c r="AH21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="n">
         <v>27</v>
       </c>
-      <c r="AI21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>150</v>
-      </c>
       <c r="AL21" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>2.72</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.94</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="X22" t="n">
-        <v>9.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>8.199999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>2.94</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.11</v>
+        <v>1.51</v>
       </c>
       <c r="W23" t="n">
-        <v>2.72</v>
+        <v>1.41</v>
       </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN23" t="n">
         <v>85</v>
       </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>970</v>
-      </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,91 +3628,91 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="I24" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="R24" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="U24" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="X24" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="n">
         <v>970</v>
@@ -3721,25 +3721,25 @@
         <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>2.94</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.01</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>2.54</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>1.41</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
         <v>9.199999999999999</v>
@@ -3925,7 +3925,7 @@
         <v>5.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3958,7 +3958,7 @@
         <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="X26" t="n">
         <v>15.5</v>
@@ -4009,7 +4009,7 @@
         <v>250</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO26" t="n">
         <v>370</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G27" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I27" t="n">
         <v>2.5</v>
@@ -4075,7 +4075,7 @@
         <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
         <v>1.23</v>
@@ -4093,7 +4093,7 @@
         <v>1.66</v>
       </c>
       <c r="W27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -4192,7 +4192,7 @@
         <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W28" t="n">
         <v>1.67</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
         <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,7 +4336,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O29" t="n">
         <v>1.48</v>
@@ -4345,7 +4345,7 @@
         <v>1.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.41</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.42</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4453,16 +4453,16 @@
         <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4495,7 +4495,7 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W30" t="n">
         <v>1.79</v>
@@ -4573,55 +4573,55 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="G31" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.95</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
         <v>1.01</v>
@@ -4630,10 +4630,10 @@
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="I32" t="n">
         <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="G33" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -4882,31 +4882,31 @@
         <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
         <v>2.92</v>
       </c>
       <c r="T33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
         <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y33" t="n">
         <v>970</v>
@@ -4915,49 +4915,49 @@
         <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
         <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
         <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO33" t="n">
         <v>32</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="H35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.4</v>
       </c>
-      <c r="I35" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="X35" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL35" t="n">
         <v>55</v>
       </c>
-      <c r="AF35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>27</v>
-      </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="G36" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>2.36</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,88 +5281,88 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R36" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL36" t="n">
         <v>70</v>
       </c>
-      <c r="AB36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>55</v>
-      </c>
       <c r="AM36" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="G37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.05</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.65</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="P37" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.92</v>
+        <v>2.44</v>
       </c>
       <c r="R37" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="V37" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="X37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD37" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AE37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG37" t="n">
         <v>13</v>
       </c>
-      <c r="Z37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>14</v>
-      </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="n">
         <v>36</v>
       </c>
       <c r="AL37" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO37" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.45</v>
+        <v>2.32</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="H38" t="n">
-        <v>2.22</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.36</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,88 +5551,88 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AA38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK38" t="n">
         <v>34</v>
       </c>
-      <c r="AB38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF38" t="n">
+      <c r="AL38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN38" t="n">
         <v>26</v>
       </c>
-      <c r="AG38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK38" t="n">
+      <c r="AO38" t="n">
         <v>60</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="J39" t="n">
         <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="R39" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="W39" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA39" t="n">
         <v>40</v>
       </c>
-      <c r="AA39" t="n">
-        <v>120</v>
-      </c>
       <c r="AB39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF39" t="n">
         <v>22</v>
       </c>
-      <c r="AE39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>15</v>
-      </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN39" t="n">
         <v>30</v>
       </c>
-      <c r="AK39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>22</v>
-      </c>
       <c r="AO39" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -5815,7 +5815,7 @@
         <v>3.85</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5842,7 +5842,7 @@
         <v>1.81</v>
       </c>
       <c r="U40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V40" t="n">
         <v>1.96</v>
@@ -5896,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN40" t="n">
         <v>75</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.36</v>
+        <v>1.68</v>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>5.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T41" t="n">
         <v>1.59</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
-      </c>
       <c r="U41" t="n">
-        <v>1.84</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="W41" t="n">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AM41" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -6082,10 +6082,10 @@
         <v>3.85</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
@@ -6112,7 +6112,7 @@
         <v>1.52</v>
       </c>
       <c r="U42" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V42" t="n">
         <v>1.38</v>
@@ -6220,7 +6220,7 @@
         <v>4.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6340,7 +6340,7 @@
         <v>1.84</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H44" t="n">
         <v>4.1</v>
@@ -6352,7 +6352,7 @@
         <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6475,7 +6475,7 @@
         <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
@@ -6484,13 +6484,13 @@
         <v>5.2</v>
       </c>
       <c r="J45" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K45" t="n">
         <v>4.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
@@ -6508,7 +6508,7 @@
         <v>1.54</v>
       </c>
       <c r="R45" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
         <v>2.28</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G46" t="n">
         <v>1.36</v>
@@ -6622,10 +6622,10 @@
         <v>5.9</v>
       </c>
       <c r="K46" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
@@ -6640,7 +6640,7 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="R46" t="n">
         <v>2.02</v>
@@ -6745,7 +6745,7 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -6772,22 +6772,22 @@
         <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="R47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
         <v>3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U47" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V47" t="n">
         <v>1.97</v>
@@ -6823,7 +6823,7 @@
         <v>32</v>
       </c>
       <c r="AG47" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
         <v>17.5</v>
@@ -6847,7 +6847,7 @@
         <v>44</v>
       </c>
       <c r="AO47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G48" t="n">
         <v>2.58</v>
@@ -6886,7 +6886,7 @@
         <v>3.05</v>
       </c>
       <c r="I48" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
         <v>3.3</v>
@@ -6895,7 +6895,7 @@
         <v>3.85</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
@@ -6910,13 +6910,13 @@
         <v>1.94</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R48" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S48" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6928,7 +6928,7 @@
         <v>1.41</v>
       </c>
       <c r="W48" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7024,7 +7024,7 @@
         <v>2.84</v>
       </c>
       <c r="J49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K49" t="n">
         <v>4.4</v>
@@ -7036,13 +7036,13 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="n">
         <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q49" t="n">
         <v>1.58</v>
@@ -7060,10 +7060,10 @@
         <v>2.5</v>
       </c>
       <c r="V49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.54</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.52</v>
       </c>
       <c r="X49" t="n">
         <v>25</v>
@@ -7171,10 +7171,10 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
         <v>1.41</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.75</v>
       </c>
-      <c r="G51" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="K51" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q51" t="n">
         <v>2.2</v>
       </c>
-      <c r="I51" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.46</v>
-      </c>
       <c r="R51" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="U51" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="V51" t="n">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="W51" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="X51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN51" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y51" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>95</v>
-      </c>
       <c r="AO51" t="n">
-        <v>32</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="G52" t="n">
-        <v>1.71</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
-        <v>7.2</v>
+        <v>2.18</v>
       </c>
       <c r="I52" t="n">
-        <v>9.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="O52" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P52" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.44</v>
+        <v>1.45</v>
       </c>
       <c r="R52" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="T52" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="V52" t="n">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
       <c r="W52" t="n">
-        <v>2.4</v>
+        <v>1.31</v>
       </c>
       <c r="X52" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>19.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK52" t="n">
         <v>75</v>
       </c>
-      <c r="AA52" t="n">
-        <v>410</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>24</v>
-      </c>
       <c r="AL52" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM52" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AN52" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="AO52" t="n">
-        <v>470</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -7555,22 +7555,22 @@
         <v>4.6</v>
       </c>
       <c r="G53" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H53" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M53" t="n">
         <v>1.09</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H54" t="n">
         <v>3.45</v>
@@ -7720,13 +7720,13 @@
         <v>2.42</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R54" t="n">
         <v>1.57</v>
       </c>
       <c r="S54" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T54" t="n">
         <v>1.59</v>
@@ -7738,7 +7738,7 @@
         <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X54" t="n">
         <v>20</v>
@@ -7960,7 +7960,7 @@
         <v>1.46</v>
       </c>
       <c r="G56" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H56" t="n">
         <v>8.199999999999999</v>
@@ -7975,34 +7975,34 @@
         <v>5.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M56" t="n">
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P56" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R56" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S56" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T56" t="n">
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1.13</v>
@@ -8101,13 +8101,13 @@
         <v>4.7</v>
       </c>
       <c r="I57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L57" t="n">
         <v>1.63</v>
@@ -8194,7 +8194,7 @@
         <v>230</v>
       </c>
       <c r="AN57" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO57" t="n">
         <v>150</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G58" t="n">
         <v>2.08</v>
@@ -8236,10 +8236,10 @@
         <v>4.2</v>
       </c>
       <c r="I58" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>3.65</v>
@@ -8266,16 +8266,16 @@
         <v>1.3</v>
       </c>
       <c r="S58" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T58" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U58" t="n">
         <v>1.94</v>
       </c>
       <c r="V58" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
         <v>1.92</v>
@@ -8287,31 +8287,31 @@
         <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA58" t="n">
         <v>130</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
         <v>9.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE58" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF58" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI58" t="n">
         <v>80</v>
@@ -8320,16 +8320,16 @@
         <v>25</v>
       </c>
       <c r="AK58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
         <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO58" t="n">
         <v>90</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="G59" t="n">
         <v>4.2</v>
@@ -8371,13 +8371,13 @@
         <v>2.56</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J59" t="n">
         <v>2.28</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8410,7 +8410,7 @@
         <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W59" t="n">
         <v>1.31</v>
@@ -8515,13 +8515,13 @@
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="O60" t="n">
         <v>1.01</v>
@@ -8530,13 +8530,13 @@
         <v>1.58</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R60" t="n">
         <v>1.13</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T60" t="n">
         <v>1.01</v>
@@ -8662,7 +8662,7 @@
         <v>1.55</v>
       </c>
       <c r="P61" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q61" t="n">
         <v>2.66</v>
@@ -8767,37 +8767,37 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
         <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L62" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O62" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P62" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q62" t="n">
         <v>2.34</v>
@@ -8806,25 +8806,25 @@
         <v>1.22</v>
       </c>
       <c r="S62" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U62" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="V62" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W62" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="X62" t="n">
         <v>10.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z62" t="n">
         <v>32</v>
@@ -8839,40 +8839,40 @@
         <v>7.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE62" t="n">
         <v>70</v>
       </c>
       <c r="AF62" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI62" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="n">
         <v>32</v>
       </c>
       <c r="AK62" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL62" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM62" t="n">
         <v>200</v>
       </c>
       <c r="AN62" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO62" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G63" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="H63" t="n">
-        <v>1.09</v>
+        <v>6.6</v>
       </c>
       <c r="I63" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,43 +8926,43 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
       </c>
       <c r="P63" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T63" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="V63" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W63" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="X63" t="n">
         <v>970</v>
       </c>
       <c r="Y63" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
@@ -8974,7 +8974,7 @@
         <v>970</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
@@ -8986,25 +8986,25 @@
         <v>970</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AK63" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
         <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9046,7 +9046,7 @@
         <v>7.2</v>
       </c>
       <c r="I64" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J64" t="n">
         <v>4.8</v>
@@ -9148,7 +9148,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9158,36 +9158,36 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H65" t="n">
-        <v>4.5</v>
+        <v>1.04</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,22 +9196,22 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="O65" t="n">
         <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R65" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9293,132 +9293,132 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G66" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H66" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I66" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N66" t="n">
-        <v>1.24</v>
+        <v>2.76</v>
       </c>
       <c r="O66" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P66" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.32</v>
+        <v>2.08</v>
       </c>
       <c r="R66" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="S66" t="n">
-        <v>1.32</v>
+        <v>3.45</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V66" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W66" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA66" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB66" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE66" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF66" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI66" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK66" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL66" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,120 +9433,255 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="G67" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="H67" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="I67" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="J67" t="n">
-        <v>3.95</v>
+        <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
       </c>
       <c r="M67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M68" t="n">
         <v>1.05</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N68" t="n">
         <v>4.2</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O68" t="n">
         <v>1.27</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P68" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q68" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="n">
         <v>1.81</v>
       </c>
-      <c r="R67" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S67" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U67" t="n">
+      <c r="U68" t="n">
         <v>2.08</v>
       </c>
-      <c r="V67" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W67" t="n">
+      <c r="V68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W68" t="n">
         <v>1.2</v>
       </c>
-      <c r="X67" t="n">
+      <c r="X68" t="n">
         <v>20</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Y68" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="Z68" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AA68" t="n">
         <v>20</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AB68" t="n">
         <v>24</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AC68" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD67" t="n">
+      <c r="AD68" t="n">
         <v>11</v>
       </c>
-      <c r="AE67" t="n">
+      <c r="AE68" t="n">
         <v>20</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AF68" t="n">
         <v>55</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AG68" t="n">
         <v>24</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AH68" t="n">
         <v>21</v>
       </c>
-      <c r="AI67" t="n">
+      <c r="AI68" t="n">
         <v>34</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AJ68" t="n">
         <v>150</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AK68" t="n">
         <v>75</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AL68" t="n">
         <v>80</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AM68" t="n">
         <v>120</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AN68" t="n">
         <v>90</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AO68" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -676,7 +676,7 @@
         <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -685,31 +685,31 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.41</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -721,10 +721,10 @@
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -733,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.4</v>
@@ -742,37 +742,37 @@
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>27</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>75</v>
       </c>
       <c r="AK2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>44</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.64</v>
       </c>
       <c r="G3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.68</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -838,22 +838,22 @@
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U3" t="n">
         <v>2.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
@@ -865,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -892,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -946,13 +946,13 @@
         <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -985,10 +985,10 @@
         <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1090,7 +1090,7 @@
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
         <v>1.61</v>
@@ -1216,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1231,22 +1231,22 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.87</v>
@@ -1264,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1276,10 +1276,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>100</v>
@@ -1351,10 +1351,10 @@
         <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
@@ -1363,19 +1363,19 @@
         <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
         <v>2.24</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1384,10 +1384,10 @@
         <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
         <v>1.16</v>
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1408,7 +1408,7 @@
         <v>260</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1435,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>90</v>
@@ -1480,19 +1480,19 @@
         <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="H9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,13 +1681,13 @@
         <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
@@ -1699,10 +1699,10 @@
         <v>46</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>970</v>
@@ -1711,10 +1711,10 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,55 +1753,55 @@
         <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="L10" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="P10" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
         <v>6.2</v>
@@ -1810,7 +1810,7 @@
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1819,40 +1819,40 @@
         <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
         <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK10" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AM10" t="n">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="AN10" t="n">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
         <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
         <v>11.5</v>
@@ -1897,25 +1897,25 @@
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
@@ -1924,10 +1924,10 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
@@ -2020,16 +2020,16 @@
         <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
@@ -2170,7 +2170,7 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2209,7 +2209,7 @@
         <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.43</v>
@@ -2317,7 +2317,7 @@
         <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
         <v>2.22</v>
@@ -2326,25 +2326,25 @@
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X14" t="n">
         <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
         <v>13</v>
@@ -2353,7 +2353,7 @@
         <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -2383,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
         <v>180</v>
@@ -2425,7 +2425,7 @@
         <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
@@ -2440,7 +2440,7 @@
         <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2473,7 +2473,7 @@
         <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>1.16</v>
       </c>
       <c r="H16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I16" t="n">
         <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K16" t="n">
         <v>60</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,16 +2695,16 @@
         <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
         <v>1.88</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -2713,34 +2713,34 @@
         <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V17" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2752,7 +2752,7 @@
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
@@ -2797,7 +2797,7 @@
         <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
         <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
         <v>1.46</v>
@@ -2851,46 +2851,46 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T18" t="n">
         <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
         <v>14</v>
@@ -2899,19 +2899,19 @@
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
         <v>46</v>
@@ -2920,19 +2920,19 @@
         <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.38</v>
@@ -2992,61 +2992,61 @@
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q19" t="n">
         <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
         <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z19" t="n">
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3061,10 +3061,10 @@
         <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>55</v>
@@ -3133,13 +3133,13 @@
         <v>1.31</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S20" t="n">
         <v>1.77</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>2.24</v>
@@ -3235,7 +3235,7 @@
         <v>2.84</v>
       </c>
       <c r="G21" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>2.52</v>
@@ -3262,19 +3262,19 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U21" t="n">
         <v>2.74</v>
@@ -3283,7 +3283,7 @@
         <v>1.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X21" t="n">
         <v>22</v>
@@ -3367,73 +3367,73 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="O22" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="P22" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="U22" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
         <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3442,10 +3442,10 @@
         <v>30</v>
       </c>
       <c r="AE22" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3454,25 +3454,25 @@
         <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="I23" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
         <v>3.05</v>
@@ -3523,7 +3523,7 @@
         <v>1.51</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
         <v>2.44</v>
@@ -3550,25 +3550,25 @@
         <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="W23" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z23" t="n">
         <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>7</v>
@@ -3589,25 +3589,25 @@
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM23" t="n">
         <v>250</v>
       </c>
       <c r="AN23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J24" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,13 +3661,13 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
         <v>1.61</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3802,7 +3802,7 @@
         <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
         <v>2.28</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
@@ -3949,7 +3949,7 @@
         <v>3.9</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
         <v>1.84</v>
@@ -3958,7 +3958,7 @@
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X26" t="n">
         <v>12.5</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.31</v>
@@ -4087,13 +4087,13 @@
         <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
@@ -4102,46 +4102,46 @@
         <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
         <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
         <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="n">
         <v>36</v>
@@ -4180,19 +4180,19 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -4213,10 +4213,10 @@
         <v>1.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
         <v>1.59</v>
@@ -4225,13 +4225,13 @@
         <v>2.42</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
         <v>20</v>
@@ -4240,43 +4240,43 @@
         <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL28" t="n">
         <v>30</v>
       </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>32</v>
-      </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN28" t="n">
         <v>12.5</v>
@@ -4315,7 +4315,7 @@
         <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H29" t="n">
         <v>2.8</v>
@@ -4336,7 +4336,7 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4345,7 +4345,7 @@
         <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
         <v>1.24</v>
@@ -4366,7 +4366,7 @@
         <v>1.51</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>11.5</v>
@@ -4447,31 +4447,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O30" t="n">
         <v>1.48</v>
@@ -4480,13 +4480,13 @@
         <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
         <v>1.96</v>
@@ -4495,10 +4495,10 @@
         <v>1.86</v>
       </c>
       <c r="V30" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -4507,7 +4507,7 @@
         <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>60</v>
@@ -4600,13 +4600,13 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="n">
         <v>1.47</v>
@@ -4615,7 +4615,7 @@
         <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R31" t="n">
         <v>1.22</v>
@@ -4624,10 +4624,10 @@
         <v>4.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V31" t="n">
         <v>1.35</v>
@@ -4648,7 +4648,7 @@
         <v>90</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
         <v>8.4</v>
@@ -4666,7 +4666,7 @@
         <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>85</v>
@@ -4723,16 +4723,16 @@
         <v>4.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
@@ -4747,7 +4747,7 @@
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
         <v>2.26</v>
@@ -4759,13 +4759,13 @@
         <v>4.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U32" t="n">
         <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W32" t="n">
         <v>1.32</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G33" t="n">
         <v>1.49</v>
@@ -4867,16 +4867,16 @@
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.32</v>
@@ -4996,16 +4996,16 @@
         <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
@@ -5017,7 +5017,7 @@
         <v>1.41</v>
       </c>
       <c r="P34" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q34" t="n">
         <v>2.18</v>
@@ -5026,13 +5026,13 @@
         <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
         <v>1.25</v>
@@ -5122,73 +5122,73 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G35" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.4</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O35" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="U35" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC35" t="n">
         <v>8.4</v>
@@ -5197,7 +5197,7 @@
         <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF35" t="n">
         <v>970</v>
@@ -5209,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
         <v>46</v>
@@ -5218,16 +5218,16 @@
         <v>34</v>
       </c>
       <c r="AL35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO35" t="n">
         <v>50</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -5263,16 +5263,16 @@
         <v>2.14</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.46</v>
@@ -5281,13 +5281,13 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q36" t="n">
         <v>2.1</v>
@@ -5302,13 +5302,13 @@
         <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
@@ -5359,7 +5359,7 @@
         <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO36" t="n">
         <v>85</v>
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="G37" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.4</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="P37" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W37" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AA37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO37" t="n">
         <v>34</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -5545,19 +5545,19 @@
         <v>3.25</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O38" t="n">
         <v>1.51</v>
       </c>
       <c r="P38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q38" t="n">
         <v>2.46</v>
@@ -5662,76 +5662,76 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G39" t="n">
         <v>2.48</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
         <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.39</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.4</v>
       </c>
       <c r="W39" t="n">
         <v>1.67</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
         <v>70</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
         <v>17</v>
@@ -5740,7 +5740,7 @@
         <v>55</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
         <v>13.5</v>
@@ -5755,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL39" t="n">
         <v>55</v>
@@ -5764,10 +5764,10 @@
         <v>130</v>
       </c>
       <c r="AN39" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G40" t="n">
         <v>3.15</v>
@@ -5806,13 +5806,13 @@
         <v>2.52</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L40" t="n">
         <v>1.41</v>
@@ -5830,13 +5830,13 @@
         <v>1.91</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
         <v>1.35</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
         <v>1.73</v>
@@ -5851,7 +5851,7 @@
         <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
@@ -5866,7 +5866,7 @@
         <v>13.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD40" t="n">
         <v>14</v>
@@ -5935,7 +5935,7 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
         <v>1.93</v>
@@ -5947,16 +5947,16 @@
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
@@ -5965,7 +5965,7 @@
         <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R41" t="n">
         <v>1.35</v>
@@ -6076,7 +6076,7 @@
         <v>4.4</v>
       </c>
       <c r="I42" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>4.3</v>
@@ -6085,7 +6085,7 @@
         <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
@@ -6118,7 +6118,7 @@
         <v>1.25</v>
       </c>
       <c r="W42" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X42" t="n">
         <v>28</v>
@@ -6205,10 +6205,10 @@
         <v>2.06</v>
       </c>
       <c r="G43" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
         <v>3.65</v>
@@ -6238,7 +6238,7 @@
         <v>1.56</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.38</v>
@@ -6247,13 +6247,13 @@
         <v>1.52</v>
       </c>
       <c r="U43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V43" t="n">
         <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X43" t="n">
         <v>27</v>
@@ -6346,7 +6346,7 @@
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J44" t="n">
         <v>3.7</v>
@@ -6364,7 +6364,7 @@
         <v>4.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P44" t="n">
         <v>2.26</v>
@@ -6373,7 +6373,7 @@
         <v>1.66</v>
       </c>
       <c r="R44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
         <v>2.66</v>
@@ -6385,7 +6385,7 @@
         <v>2.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W44" t="n">
         <v>1.76</v>
@@ -6412,7 +6412,7 @@
         <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF44" t="n">
         <v>18</v>
@@ -6502,10 +6502,10 @@
         <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R45" t="n">
         <v>1.51</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
         <v>4.6</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K46" t="n">
         <v>4.7</v>
@@ -6637,19 +6637,19 @@
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S46" t="n">
         <v>2.26</v>
       </c>
       <c r="T46" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U46" t="n">
         <v>2.44</v>
@@ -6748,7 +6748,7 @@
         <v>1.34</v>
       </c>
       <c r="H47" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I47" t="n">
         <v>11</v>
@@ -6778,10 +6778,10 @@
         <v>1.31</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S47" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T47" t="n">
         <v>1.67</v>
@@ -6844,7 +6844,7 @@
         <v>95</v>
       </c>
       <c r="AN47" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO47" t="n">
         <v>100</v>
@@ -6886,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
@@ -6901,31 +6901,31 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V48" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W48" t="n">
         <v>1.31</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G49" t="n">
         <v>2.52</v>
@@ -7051,13 +7051,13 @@
         <v>1.37</v>
       </c>
       <c r="S49" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
         <v>1.41</v>
@@ -7081,7 +7081,7 @@
         <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
         <v>17</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I50" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J50" t="n">
         <v>3.45</v>
@@ -7195,7 +7195,7 @@
         <v>2.52</v>
       </c>
       <c r="V50" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W50" t="n">
         <v>1.46</v>
@@ -7285,7 +7285,7 @@
         <v>3.8</v>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
         <v>2.22</v>
@@ -7300,31 +7300,31 @@
         <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P51" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R51" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S51" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
         <v>1.9</v>
@@ -7333,7 +7333,7 @@
         <v>1.76</v>
       </c>
       <c r="W51" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X51" t="n">
         <v>10.5</v>
@@ -7345,7 +7345,7 @@
         <v>14</v>
       </c>
       <c r="AA51" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB51" t="n">
         <v>12.5</v>
@@ -7384,7 +7384,7 @@
         <v>180</v>
       </c>
       <c r="AN51" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO51" t="n">
         <v>32</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="G52" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>2.32</v>
@@ -7429,10 +7429,10 @@
         <v>3.15</v>
       </c>
       <c r="J52" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K52" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7456,7 +7456,7 @@
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,7 +7465,7 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W52" t="n">
         <v>1.35</v>
@@ -7570,7 +7570,7 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
@@ -7642,7 +7642,7 @@
         <v>170</v>
       </c>
       <c r="AJ53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
         <v>23</v>
@@ -7687,58 +7687,58 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="G54" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="J54" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K54" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="O54" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P54" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S54" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V54" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7822,43 +7822,43 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G55" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H55" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="I55" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K55" t="n">
         <v>3.7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P55" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q55" t="n">
         <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S55" t="n">
         <v>4.1</v>
@@ -7870,7 +7870,7 @@
         <v>1.9</v>
       </c>
       <c r="V55" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
@@ -7888,7 +7888,7 @@
         <v>22</v>
       </c>
       <c r="AB55" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC55" t="n">
         <v>970</v>
@@ -7897,10 +7897,10 @@
         <v>970</v>
       </c>
       <c r="AE55" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF55" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG55" t="n">
         <v>21</v>
@@ -7912,10 +7912,10 @@
         <v>46</v>
       </c>
       <c r="AJ55" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AK55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL55" t="n">
         <v>95</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G56" t="n">
         <v>2.2</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I56" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J56" t="n">
         <v>3.85</v>
@@ -7990,7 +7990,7 @@
         <v>2.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R56" t="n">
         <v>1.57</v>
@@ -8005,10 +8005,10 @@
         <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W56" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X56" t="n">
         <v>20</v>
@@ -8062,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="AO56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="H58" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K58" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.32</v>
@@ -8257,7 +8257,7 @@
         <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q58" t="n">
         <v>1.7</v>
@@ -8278,7 +8278,7 @@
         <v>1.12</v>
       </c>
       <c r="W58" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="X58" t="n">
         <v>22</v>
@@ -8290,7 +8290,7 @@
         <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB58" t="n">
         <v>8.800000000000001</v>
@@ -8311,10 +8311,10 @@
         <v>9.4</v>
       </c>
       <c r="AH58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
@@ -8368,7 +8368,7 @@
         <v>2.16</v>
       </c>
       <c r="H59" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I59" t="n">
         <v>4.8</v>
@@ -8380,7 +8380,7 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M59" t="n">
         <v>1.14</v>
@@ -8392,10 +8392,10 @@
         <v>1.6</v>
       </c>
       <c r="P59" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R59" t="n">
         <v>1.19</v>
@@ -8404,7 +8404,7 @@
         <v>6</v>
       </c>
       <c r="T59" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U59" t="n">
         <v>1.71</v>
@@ -8437,7 +8437,7 @@
         <v>20</v>
       </c>
       <c r="AE59" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
@@ -8458,10 +8458,10 @@
         <v>32</v>
       </c>
       <c r="AL59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM59" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN59" t="n">
         <v>29</v>
@@ -8500,7 +8500,7 @@
         <v>1.86</v>
       </c>
       <c r="G60" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H60" t="n">
         <v>4.4</v>
@@ -8521,16 +8521,16 @@
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O60" t="n">
         <v>1.34</v>
       </c>
       <c r="P60" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
         <v>1.31</v>
@@ -8548,7 +8548,7 @@
         <v>1.23</v>
       </c>
       <c r="W60" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X60" t="n">
         <v>970</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G61" t="n">
         <v>4.2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="I61" t="n">
         <v>3.75</v>
@@ -8647,7 +8647,7 @@
         <v>2.28</v>
       </c>
       <c r="K61" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8776,13 +8776,13 @@
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J62" t="n">
         <v>2.98</v>
       </c>
       <c r="K62" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,7 +8791,7 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="O62" t="n">
         <v>1.01</v>
@@ -8803,13 +8803,13 @@
         <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S62" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U62" t="n">
         <v>1.01</v>
@@ -8911,7 +8911,7 @@
         <v>4.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>3.2</v>
@@ -8932,7 +8932,7 @@
         <v>1.56</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q63" t="n">
         <v>2.72</v>
@@ -8944,7 +8944,7 @@
         <v>5.6</v>
       </c>
       <c r="T63" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U63" t="n">
         <v>1.75</v>
@@ -8953,13 +8953,13 @@
         <v>1.25</v>
       </c>
       <c r="W63" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X63" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y63" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z63" t="n">
         <v>32</v>
@@ -8974,19 +8974,19 @@
         <v>7.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE63" t="n">
         <v>85</v>
       </c>
       <c r="AF63" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
         <v>11.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
         <v>110</v>
@@ -9007,7 +9007,7 @@
         <v>25</v>
       </c>
       <c r="AO63" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G64" t="n">
         <v>2.2</v>
@@ -9055,13 +9055,13 @@
         <v>3.6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O64" t="n">
         <v>1.48</v>
@@ -9070,16 +9070,16 @@
         <v>1.66</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R64" t="n">
         <v>1.23</v>
       </c>
       <c r="S64" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T64" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U64" t="n">
         <v>1.85</v>
@@ -9121,7 +9121,7 @@
         <v>11.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI64" t="n">
         <v>80</v>
@@ -9193,7 +9193,7 @@
         <v>1.38</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
         <v>2.8</v>
@@ -9223,13 +9223,13 @@
         <v>1.09</v>
       </c>
       <c r="W65" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
       </c>
       <c r="Y65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z65" t="n">
         <v>95</v>
@@ -9316,7 +9316,7 @@
         <v>7.2</v>
       </c>
       <c r="I66" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J66" t="n">
         <v>4.8</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G67" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H67" t="n">
         <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J67" t="n">
         <v>3.35</v>
@@ -9460,52 +9460,52 @@
         <v>3.8</v>
       </c>
       <c r="L67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.39</v>
       </c>
-      <c r="M67" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P67" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R67" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S67" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T67" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U67" t="n">
         <v>1.92</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W67" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X67" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB67" t="n">
         <v>9.4</v>
@@ -9514,7 +9514,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE67" t="n">
         <v>75</v>
@@ -9538,7 +9538,7 @@
         <v>27</v>
       </c>
       <c r="AL67" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM67" t="n">
         <v>150</v>
@@ -9547,7 +9547,7 @@
         <v>19.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -9853,10 +9853,10 @@
         <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I70" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J70" t="n">
         <v>4.2</v>
@@ -9895,7 +9895,7 @@
         <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W70" t="n">
         <v>1.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.75</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.85</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -763,16 +763,16 @@
         <v>44</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.64</v>
       </c>
       <c r="G3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.66</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.68</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
@@ -826,40 +826,40 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.58</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
@@ -868,10 +868,10 @@
         <v>40</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -889,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>40</v>
@@ -901,13 +901,13 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -946,13 +946,13 @@
         <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -976,7 +976,7 @@
         <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="T4" t="n">
         <v>1.93</v>
@@ -985,10 +985,10 @@
         <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1084,13 +1084,13 @@
         <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,7 +1099,7 @@
         <v>2.62</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P5" t="n">
         <v>1.55</v>
@@ -1117,7 +1117,7 @@
         <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
         <v>1.33</v>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>95</v>
@@ -1210,16 +1210,16 @@
         <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
@@ -1234,16 +1234,16 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
         <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -1252,10 +1252,10 @@
         <v>1.87</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
         <v>2.62</v>
@@ -1264,10 +1264,10 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
         <v>190</v>
@@ -1276,7 +1276,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>30</v>
@@ -1285,10 +1285,10 @@
         <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1309,7 +1309,7 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
@@ -1366,7 +1366,7 @@
         <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
         <v>1.61</v>
@@ -1375,7 +1375,7 @@
         <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1390,13 +1390,13 @@
         <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
         <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
         <v>1.65</v>
@@ -1525,7 +1525,7 @@
         <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.92</v>
@@ -1612,49 +1612,49 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.28</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.32</v>
       </c>
       <c r="H9" t="n">
         <v>13.5</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
         <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
         <v>1.64</v>
@@ -1663,58 +1663,58 @@
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z9" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG9" t="n">
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK9" t="n">
         <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
         <v>2.66</v>
       </c>
       <c r="K10" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.8</v>
@@ -1771,13 +1771,13 @@
         <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
         <v>3.75</v>
@@ -1795,7 +1795,7 @@
         <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
@@ -1804,25 +1804,25 @@
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
         <v>40</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
         <v>130</v>
@@ -1915,13 +1915,13 @@
         <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>2.6</v>
@@ -1936,7 +1936,7 @@
         <v>2.78</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.46</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="T12" t="n">
         <v>2.28</v>
@@ -2065,7 +2065,7 @@
         <v>1.63</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
         <v>1.78</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:50:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>1.88</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.75</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.42</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.34</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>2.24</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
         <v>55</v>
       </c>
-      <c r="AA13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AJ13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL13" t="n">
         <v>110</v>
       </c>
-      <c r="AF13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AM13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO13" t="n">
         <v>22</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.23</v>
-      </c>
       <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>23</v>
-      </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
         <v>110</v>
       </c>
-      <c r="AM14" t="n">
-        <v>180</v>
-      </c>
       <c r="AN14" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>1.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>16</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.27</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.13</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.08</v>
+        <v>1.95</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Z16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL16" t="n">
         <v>60</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,109 +2683,109 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.4</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
         <v>60</v>
@@ -2794,16 +2794,16 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>1.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>1.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>1.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.65</v>
+        <v>4.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="n">
         <v>28</v>
       </c>
-      <c r="AF18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
         <v>23</v>
       </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8.800000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>14</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X20" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>44</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>27</v>
       </c>
-      <c r="AI20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>150</v>
-      </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>3.15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="H21" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
         <v>36</v>
       </c>
-      <c r="AB21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>32</v>
-      </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3370,25 +3370,25 @@
         <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H22" t="n">
         <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J22" t="n">
         <v>2.72</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
         <v>2.24</v>
@@ -3397,16 +3397,16 @@
         <v>1.69</v>
       </c>
       <c r="P22" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.46</v>
@@ -3415,19 +3415,19 @@
         <v>1.58</v>
       </c>
       <c r="V22" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X22" t="n">
         <v>6.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
         <v>220</v>
@@ -3436,22 +3436,22 @@
         <v>6.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
         <v>210</v>
@@ -3505,16 +3505,16 @@
         <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I23" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
         <v>3.05</v>
@@ -3550,22 +3550,22 @@
         <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z23" t="n">
         <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
@@ -3574,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
@@ -3607,7 +3607,7 @@
         <v>90</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G24" t="n">
         <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
@@ -3658,19 +3658,19 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
         <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.44</v>
@@ -3685,13 +3685,13 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G25" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="H25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I25" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3820,25 +3820,25 @@
         <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W25" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
         <v>80</v>
       </c>
       <c r="AA25" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
@@ -3847,7 +3847,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="n">
         <v>7.8</v>
@@ -3859,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
@@ -3877,13 +3877,13 @@
         <v>12.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>2.74</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.53</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>23</v>
-      </c>
       <c r="AE26" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
         <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>2.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="U27" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL27" t="n">
         <v>30</v>
       </c>
-      <c r="AL27" t="n">
-        <v>55</v>
-      </c>
       <c r="AM27" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.96</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>4.9</v>
+        <v>2.92</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.51</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN28" t="n">
         <v>44</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>2.92</v>
+        <v>1.53</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="P29" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
         <v>23</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AE29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL29" t="n">
         <v>60</v>
       </c>
-      <c r="AB29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>65</v>
-      </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -4438,55 +4438,55 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.76</v>
+        <v>1.92</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
         <v>1.96</v>
@@ -4495,64 +4495,64 @@
         <v>1.86</v>
       </c>
       <c r="V30" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AA30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL30" t="n">
         <v>60</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>75</v>
       </c>
       <c r="AM30" t="n">
         <v>180</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -4588,7 +4588,7 @@
         <v>2.48</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -4603,28 +4603,28 @@
         <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>1.51</v>
       </c>
       <c r="O31" t="n">
         <v>1.47</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>1.87</v>
@@ -4720,10 +4720,10 @@
         <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
         <v>2.42</v>
@@ -4732,22 +4732,22 @@
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O32" t="n">
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
         <v>2.26</v>
@@ -4855,7 +4855,7 @@
         <v>1.43</v>
       </c>
       <c r="G33" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H33" t="n">
         <v>9.199999999999999</v>
@@ -4864,7 +4864,7 @@
         <v>11.5</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>2.76</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.3</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="O34" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="W34" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AF34" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
         <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>2.52</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H35" t="n">
         <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.05</v>
@@ -5164,16 +5164,16 @@
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U35" t="n">
         <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
@@ -5248,91 +5248,91 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="U36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.39</v>
       </c>
-      <c r="P36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -5341,28 +5341,28 @@
         <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AO36" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="H37" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M37" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="W37" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
         <v>970</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AG37" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AH37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>36</v>
       </c>
-      <c r="AB37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>100</v>
-      </c>
       <c r="AK37" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL37" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AO37" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="G38" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="I38" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
         <v>3.65</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O38" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W38" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AF38" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AK38" t="n">
         <v>36</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO38" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="G39" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>2.34</v>
       </c>
       <c r="J39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="V39" t="n">
-        <v>1.39</v>
+        <v>1.74</v>
       </c>
       <c r="W39" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="n">
         <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="AO39" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.15</v>
+        <v>2.14</v>
       </c>
       <c r="H40" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.72</v>
+        <v>4.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O40" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="W40" t="n">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="X40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF40" t="n">
         <v>15</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AG40" t="n">
         <v>13</v>
       </c>
-      <c r="Z40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF40" t="n">
+      <c r="AH40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN40" t="n">
         <v>22</v>
       </c>
-      <c r="AG40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>32</v>
-      </c>
       <c r="AO40" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>4.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I41" t="n">
         <v>2.02</v>
@@ -5965,7 +5965,7 @@
         <v>1.9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="R41" t="n">
         <v>1.35</v>
@@ -5986,7 +5986,7 @@
         <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y41" t="n">
         <v>970</v>
@@ -6001,7 +6001,7 @@
         <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD41" t="n">
         <v>970</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G42" t="n">
         <v>1.8</v>
@@ -6085,10 +6085,10 @@
         <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
         <v>5.1</v>
@@ -6097,7 +6097,7 @@
         <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q42" t="n">
         <v>1.54</v>
@@ -6121,13 +6121,13 @@
         <v>2.24</v>
       </c>
       <c r="X42" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
         <v>24</v>
       </c>
       <c r="Z42" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA42" t="n">
         <v>110</v>
@@ -6223,7 +6223,7 @@
         <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>5.6</v>
@@ -6232,13 +6232,13 @@
         <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="Q43" t="n">
         <v>1.56</v>
       </c>
       <c r="R43" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S43" t="n">
         <v>2.38</v>
@@ -6256,7 +6256,7 @@
         <v>1.81</v>
       </c>
       <c r="X43" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="Y43" t="n">
         <v>21</v>
@@ -6373,7 +6373,7 @@
         <v>1.66</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S44" t="n">
         <v>2.66</v>
@@ -6391,7 +6391,7 @@
         <v>1.76</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
@@ -6415,7 +6415,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG44" t="n">
         <v>13</v>
@@ -6475,7 +6475,7 @@
         <v>1.83</v>
       </c>
       <c r="G45" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H45" t="n">
         <v>4.1</v>
@@ -6496,37 +6496,37 @@
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>4.7</v>
+        <v>2.12</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P45" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R45" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="S45" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="T45" t="n">
         <v>1.66</v>
       </c>
       <c r="U45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V45" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
         <v>2.06</v>
       </c>
       <c r="X45" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y45" t="n">
         <v>23</v>
@@ -6547,7 +6547,7 @@
         <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
@@ -6559,7 +6559,7 @@
         <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ45" t="n">
         <v>24</v>
@@ -6577,7 +6577,7 @@
         <v>970</v>
       </c>
       <c r="AO45" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -6622,13 +6622,13 @@
         <v>4.1</v>
       </c>
       <c r="K46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>5.4</v>
@@ -6640,13 +6640,13 @@
         <v>2.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R46" t="n">
         <v>1.61</v>
       </c>
       <c r="S46" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T46" t="n">
         <v>1.58</v>
@@ -6754,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K47" t="n">
         <v>7.4</v>
@@ -6763,7 +6763,7 @@
         <v>1.16</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N47" t="n">
         <v>7.2</v>
@@ -6793,10 +6793,10 @@
         <v>1.1</v>
       </c>
       <c r="W47" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="X47" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Y47" t="n">
         <v>60</v>
@@ -6907,13 +6907,13 @@
         <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S48" t="n">
         <v>3.05</v>
@@ -6946,7 +6946,7 @@
         <v>18</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48" t="n">
         <v>11</v>
@@ -7030,13 +7030,13 @@
         <v>3.85</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>3.4</v>
+        <v>1.94</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -7054,10 +7054,10 @@
         <v>3.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U49" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V49" t="n">
         <v>1.41</v>
@@ -7081,7 +7081,7 @@
         <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD49" t="n">
         <v>17</v>
@@ -7150,7 +7150,7 @@
         <v>2.76</v>
       </c>
       <c r="G50" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
         <v>2.32</v>
@@ -7174,7 +7174,7 @@
         <v>5.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P50" t="n">
         <v>2.42</v>
@@ -7201,7 +7201,7 @@
         <v>1.46</v>
       </c>
       <c r="X50" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="Y50" t="n">
         <v>970</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H51" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I51" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
         <v>3.4</v>
@@ -7312,28 +7312,28 @@
         <v>1.46</v>
       </c>
       <c r="P51" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q51" t="n">
         <v>2.36</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S51" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U51" t="n">
         <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X51" t="n">
         <v>10.5</v>
@@ -7348,7 +7348,7 @@
         <v>32</v>
       </c>
       <c r="AB51" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC51" t="n">
         <v>7.4</v>
@@ -7360,34 +7360,34 @@
         <v>30</v>
       </c>
       <c r="AF51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG51" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
         <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL51" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM51" t="n">
         <v>180</v>
       </c>
       <c r="AN51" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO51" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -7450,13 +7450,13 @@
         <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7471,7 +7471,7 @@
         <v>1.35</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y52" t="n">
         <v>1000</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G53" t="n">
         <v>1.72</v>
@@ -7570,25 +7570,25 @@
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O53" t="n">
         <v>1.43</v>
       </c>
       <c r="P53" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S53" t="n">
         <v>4.5</v>
@@ -7624,7 +7624,7 @@
         <v>9.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE53" t="n">
         <v>180</v>
@@ -7690,58 +7690,58 @@
         <v>1.96</v>
       </c>
       <c r="G54" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="I54" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="O54" t="n">
         <v>1.45</v>
       </c>
       <c r="P54" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
         <v>3.7</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W54" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y54" t="n">
         <v>1000</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G55" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
@@ -7840,37 +7840,37 @@
         <v>3.7</v>
       </c>
       <c r="L55" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R55" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
         <v>4.1</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U55" t="n">
         <v>1.9</v>
       </c>
       <c r="V55" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
@@ -7882,7 +7882,7 @@
         <v>7.6</v>
       </c>
       <c r="Z55" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AA55" t="n">
         <v>22</v>
@@ -7891,10 +7891,10 @@
         <v>18</v>
       </c>
       <c r="AC55" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE55" t="n">
         <v>22</v>
@@ -7912,13 +7912,13 @@
         <v>46</v>
       </c>
       <c r="AJ55" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK55" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL55" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM55" t="n">
         <v>160</v>
@@ -7927,7 +7927,7 @@
         <v>120</v>
       </c>
       <c r="AO55" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G56" t="n">
         <v>2.18</v>
       </c>
-      <c r="G56" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H56" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
         <v>3.85</v>
@@ -7981,22 +7981,22 @@
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S56" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T56" t="n">
         <v>1.59</v>
@@ -8005,10 +8005,10 @@
         <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W56" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X56" t="n">
         <v>20</v>
@@ -8029,13 +8029,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE56" t="n">
         <v>34</v>
       </c>
       <c r="AF56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG56" t="n">
         <v>11</v>
@@ -8047,10 +8047,10 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL56" t="n">
         <v>28</v>
@@ -8059,7 +8059,7 @@
         <v>65</v>
       </c>
       <c r="AN56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO56" t="n">
         <v>25</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G58" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H58" t="n">
         <v>8.800000000000001</v>
@@ -8239,34 +8239,34 @@
         <v>9</v>
       </c>
       <c r="J58" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K58" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.32</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R58" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T58" t="n">
         <v>1.97</v>
@@ -8278,13 +8278,13 @@
         <v>1.12</v>
       </c>
       <c r="W58" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X58" t="n">
         <v>22</v>
       </c>
       <c r="Y58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z58" t="n">
         <v>80</v>
@@ -8293,7 +8293,7 @@
         <v>300</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC58" t="n">
         <v>11.5</v>
@@ -8305,7 +8305,7 @@
         <v>130</v>
       </c>
       <c r="AF58" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG58" t="n">
         <v>9.4</v>
@@ -8314,7 +8314,7 @@
         <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
@@ -8329,7 +8329,7 @@
         <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO58" t="n">
         <v>150</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G59" t="n">
         <v>2.16</v>
@@ -8371,7 +8371,7 @@
         <v>4.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
@@ -8380,13 +8380,13 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M59" t="n">
         <v>1.14</v>
       </c>
       <c r="N59" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O59" t="n">
         <v>1.6</v>
@@ -8398,10 +8398,10 @@
         <v>2.88</v>
       </c>
       <c r="R59" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T59" t="n">
         <v>2.34</v>
@@ -8410,13 +8410,13 @@
         <v>1.71</v>
       </c>
       <c r="V59" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W59" t="n">
         <v>1.86</v>
       </c>
       <c r="X59" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y59" t="n">
         <v>11.5</v>
@@ -8434,10 +8434,10 @@
         <v>7.2</v>
       </c>
       <c r="AD59" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
@@ -8461,13 +8461,13 @@
         <v>70</v>
       </c>
       <c r="AM59" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN59" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO59" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G60" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I60" t="n">
         <v>5.3</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L60" t="n">
         <v>1.38</v>
@@ -8545,10 +8545,10 @@
         <v>1.94</v>
       </c>
       <c r="V60" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W60" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
         <v>970</v>
@@ -8563,7 +8563,7 @@
         <v>130</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC60" t="n">
         <v>8.6</v>
@@ -8602,7 +8602,7 @@
         <v>970</v>
       </c>
       <c r="AO60" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -8635,16 +8635,16 @@
         <v>2.78</v>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>2.54</v>
       </c>
       <c r="I61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="K61" t="n">
         <v>4.1</v>
@@ -8665,13 +8665,13 @@
         <v>1.52</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
         <v>1.13</v>
       </c>
       <c r="S61" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,13 +8680,13 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W61" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y61" t="n">
         <v>1000</v>
@@ -8770,13 +8770,13 @@
         <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J62" t="n">
         <v>2.98</v>
@@ -8791,7 +8791,7 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O62" t="n">
         <v>1.01</v>
@@ -8800,7 +8800,7 @@
         <v>1.58</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
         <v>1.18</v>
@@ -8818,10 +8818,10 @@
         <v>1.27</v>
       </c>
       <c r="W62" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y62" t="n">
         <v>1000</v>
@@ -8905,13 +8905,13 @@
         <v>2.04</v>
       </c>
       <c r="G63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H63" t="n">
         <v>4.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J63" t="n">
         <v>3.2</v>
@@ -8926,7 +8926,7 @@
         <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O63" t="n">
         <v>1.56</v>
@@ -8935,7 +8935,7 @@
         <v>1.56</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R63" t="n">
         <v>1.2</v>
@@ -8947,16 +8947,16 @@
         <v>2.28</v>
       </c>
       <c r="U63" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V63" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W63" t="n">
         <v>1.94</v>
       </c>
       <c r="X63" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y63" t="n">
         <v>12</v>
@@ -8980,7 +8980,7 @@
         <v>85</v>
       </c>
       <c r="AF63" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG63" t="n">
         <v>11.5</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J64" t="n">
         <v>3.5</v>
       </c>
       <c r="K64" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L64" t="n">
         <v>1.51</v>
@@ -9064,13 +9064,13 @@
         <v>2.92</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P64" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R64" t="n">
         <v>1.23</v>
@@ -9079,58 +9079,58 @@
         <v>4.7</v>
       </c>
       <c r="T64" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U64" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V64" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y64" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA64" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
       </c>
       <c r="AD64" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF64" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH64" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI64" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ64" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK64" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL64" t="n">
         <v>55</v>
@@ -9139,10 +9139,10 @@
         <v>180</v>
       </c>
       <c r="AN64" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO64" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -9184,31 +9184,31 @@
         <v>11.5</v>
       </c>
       <c r="J65" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K65" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.38</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O65" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="P65" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="R65" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S65" t="n">
         <v>3.6</v>
@@ -9223,7 +9223,7 @@
         <v>1.09</v>
       </c>
       <c r="W65" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
@@ -9325,7 +9325,7 @@
         <v>5.4</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M66" t="n">
         <v>1.02</v>
@@ -9352,7 +9352,7 @@
         <v>1.84</v>
       </c>
       <c r="U66" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="V66" t="n">
         <v>1.13</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G67" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I67" t="n">
         <v>5.1</v>
@@ -9457,28 +9457,28 @@
         <v>3.35</v>
       </c>
       <c r="K67" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L67" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M67" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O67" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P67" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R67" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S67" t="n">
         <v>3.85</v>
@@ -9493,7 +9493,7 @@
         <v>1.24</v>
       </c>
       <c r="W67" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
         <v>14</v>
@@ -9520,7 +9520,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG67" t="n">
         <v>12</v>
@@ -9532,10 +9532,10 @@
         <v>85</v>
       </c>
       <c r="AJ67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL67" t="n">
         <v>48</v>
@@ -9544,7 +9544,7 @@
         <v>150</v>
       </c>
       <c r="AN67" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO67" t="n">
         <v>90</v>
@@ -9580,16 +9580,16 @@
         <v>1.55</v>
       </c>
       <c r="G68" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I68" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="n">
         <v>4.3</v>
@@ -9607,10 +9607,10 @@
         <v>1.39</v>
       </c>
       <c r="P68" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R68" t="n">
         <v>1.27</v>
@@ -9625,10 +9625,10 @@
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W68" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X68" t="n">
         <v>13</v>
@@ -9643,10 +9643,10 @@
         <v>300</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD68" t="n">
         <v>29</v>
@@ -9655,10 +9655,10 @@
         <v>160</v>
       </c>
       <c r="AF68" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AG68" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH68" t="n">
         <v>29</v>
@@ -9679,7 +9679,7 @@
         <v>210</v>
       </c>
       <c r="AN68" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO68" t="n">
         <v>260</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -691,49 +691,49 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -751,28 +751,28 @@
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -820,52 +820,52 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="V3" t="n">
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
         <v>18</v>
@@ -877,16 +877,16 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI3" t="n">
         <v>28</v>
@@ -895,19 +895,19 @@
         <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>48</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA4" t="n">
         <v>970</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>970</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE4" t="n">
         <v>970</v>
       </c>
-      <c r="AA4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>23</v>
-      </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
         <v>2.4</v>
@@ -1084,7 +1084,7 @@
         <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
@@ -1093,7 +1093,7 @@
         <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
         <v>2.62</v>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>110</v>
@@ -1171,13 +1171,13 @@
         <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
         <v>1.87</v>
@@ -1255,64 +1255,64 @@
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>28</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
@@ -1348,25 +1348,25 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
         <v>1.61</v>
@@ -1375,13 +1375,13 @@
         <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.42</v>
@@ -1390,64 +1390,64 @@
         <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>130</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AA7" t="n">
-        <v>260</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>1.03</v>
@@ -1510,7 +1510,7 @@
         <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>1.4</v>
@@ -1525,64 +1525,64 @@
         <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
         <v>85</v>
       </c>
-      <c r="AB8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13</v>
-      </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1636,16 +1636,16 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
         <v>1.46</v>
@@ -1654,7 +1654,7 @@
         <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
         <v>1.64</v>
@@ -1663,16 +1663,16 @@
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,34 +1681,34 @@
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AE9" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AM9" t="n">
         <v>280</v>
@@ -1750,25 +1750,25 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="L10" t="n">
         <v>1.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1777,7 +1777,7 @@
         <v>1.87</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" t="n">
         <v>3.75</v>
@@ -1792,19 +1792,19 @@
         <v>2.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
         <v>11.5</v>
@@ -1813,46 +1813,46 @@
         <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ10" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AL10" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="AM10" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AN10" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1921,7 +1921,7 @@
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
       <c r="T11" t="n">
         <v>2.6</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1972,19 +1972,19 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
@@ -2050,25 +2050,25 @@
         <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.01</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2179,82 +2179,82 @@
         <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
         <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AO13" t="n">
         <v>22</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="G14" t="n">
         <v>2.5</v>
       </c>
       <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.15</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
@@ -2317,7 +2317,7 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
         <v>1.94</v>
@@ -2335,10 +2335,10 @@
         <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2377,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
         <v>28</v>
@@ -2425,19 +2425,19 @@
         <v>1.12</v>
       </c>
       <c r="G15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>23</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="K15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2581,73 +2581,73 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
         <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH16" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
         <v>55</v>
@@ -2656,13 +2656,13 @@
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
         <v>55</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2722,7 +2722,7 @@
         <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
         <v>2.22</v>
@@ -2734,16 +2734,16 @@
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
         <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X17" t="n">
         <v>11.5</v>
@@ -2752,10 +2752,10 @@
         <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2767,37 +2767,37 @@
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I18" t="n">
         <v>1.28</v>
       </c>
       <c r="J18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,67 +2851,67 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
         <v>3.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S18" t="n">
         <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -2920,19 +2920,19 @@
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL18" t="n">
         <v>150</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>110</v>
       </c>
       <c r="AM18" t="n">
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H19" t="n">
         <v>5.7</v>
@@ -2977,7 +2977,7 @@
         <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
@@ -2986,13 +2986,13 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
@@ -3010,64 +3010,64 @@
         <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AA19" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -3124,37 +3124,37 @@
         <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
         <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
         <v>2.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
         <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
         <v>20</v>
@@ -3163,10 +3163,10 @@
         <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
@@ -3175,10 +3175,10 @@
         <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
@@ -3187,10 +3187,10 @@
         <v>30</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3199,10 +3199,10 @@
         <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
@@ -3253,7 +3253,7 @@
         <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -3262,55 +3262,55 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.91</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3319,25 +3319,25 @@
         <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -3373,16 +3373,16 @@
         <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,31 +3391,31 @@
         <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
         <v>3.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
         <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
         <v>1.81</v>
@@ -3424,55 +3424,55 @@
         <v>6.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="AJ22" t="n">
         <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
         <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="K23" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
         <v>1.14</v>
@@ -3550,7 +3550,7 @@
         <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W23" t="n">
         <v>1.36</v>
@@ -3559,55 +3559,55 @@
         <v>7.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH23" t="n">
         <v>24</v>
       </c>
-      <c r="AG23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
       <c r="AI23" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
         <v>90</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3661,88 +3661,88 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
         <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U24" t="n">
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I25" t="n">
         <v>9</v>
@@ -3799,40 +3799,40 @@
         <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
         <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
         <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V25" t="n">
         <v>1.12</v>
       </c>
       <c r="W25" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="Z25" t="n">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AA25" t="n">
         <v>420</v>
@@ -3841,19 +3841,19 @@
         <v>6.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AE25" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
@@ -3862,19 +3862,19 @@
         <v>210</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
         <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>440</v>
@@ -3907,70 +3907,70 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
         <v>1.58</v>
       </c>
       <c r="W26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>22</v>
-      </c>
       <c r="AA26" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -3979,40 +3979,40 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -4045,10 +4045,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>3.85</v>
@@ -4057,7 +4057,7 @@
         <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -4072,16 +4072,16 @@
         <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
         <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.58</v>
@@ -4093,19 +4093,19 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -4114,40 +4114,40 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4231,58 +4231,58 @@
         <v>1.51</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
         <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
         <v>15.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
         <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
         <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G29" t="n">
         <v>2.1</v>
@@ -4333,19 +4333,19 @@
         <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4360,10 +4360,10 @@
         <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
@@ -4375,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="AA29" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
         <v>8.800000000000001</v>
@@ -4408,10 +4408,10 @@
         <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>26</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4495,10 +4495,10 @@
         <v>1.86</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="X30" t="n">
         <v>13.5</v>
@@ -4510,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="AA30" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
         <v>9.199999999999999</v>
@@ -4546,7 +4546,7 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>24</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
         <v>2.48</v>
@@ -4591,7 +4591,7 @@
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
@@ -4600,28 +4600,28 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>1.94</v>
@@ -4630,64 +4630,64 @@
         <v>1.87</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
         <v>1.67</v>
       </c>
       <c r="X31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y31" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="AB31" t="n">
         <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
         <v>18.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
         <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
         <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4747,10 +4747,10 @@
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
@@ -4765,13 +4765,13 @@
         <v>1.86</v>
       </c>
       <c r="V32" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
         <v>1.32</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y32" t="n">
         <v>9.199999999999999</v>
@@ -4780,49 +4780,49 @@
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
         <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
         <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AF32" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AG32" t="n">
         <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AO32" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -4861,10 +4861,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -4900,10 +4900,10 @@
         <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4912,7 +4912,7 @@
         <v>27</v>
       </c>
       <c r="Z33" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA33" t="n">
         <v>480</v>
@@ -4921,7 +4921,7 @@
         <v>7.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
         <v>38</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
         <v>3.1</v>
@@ -4999,28 +4999,28 @@
         <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K34" t="n">
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O34" t="n">
         <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
@@ -5029,10 +5029,10 @@
         <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
         <v>1.48</v>
@@ -5041,58 +5041,58 @@
         <v>1.47</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
         <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
         <v>22</v>
       </c>
-      <c r="AG34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>24</v>
-      </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AK34" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3.4</v>
@@ -5146,13 +5146,13 @@
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q35" t="n">
         <v>2.32</v>
@@ -5176,58 +5176,58 @@
         <v>1.57</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
         <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AA35" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB35" t="n">
         <v>10</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AJ35" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM35" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AO35" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J36" t="n">
         <v>3.15</v>
@@ -5275,22 +5275,22 @@
         <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
         <v>2.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
@@ -5305,64 +5305,64 @@
         <v>1.84</v>
       </c>
       <c r="V36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AK36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM36" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AN36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5404,7 +5404,7 @@
         <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>3.45</v>
@@ -5416,22 +5416,22 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R37" t="n">
         <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
         <v>1.9</v>
@@ -5449,55 +5449,55 @@
         <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AB37" t="n">
         <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AF37" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK37" t="n">
         <v>36</v>
       </c>
-      <c r="AK37" t="n">
-        <v>32</v>
-      </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AO37" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -5527,28 +5527,28 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I38" t="n">
         <v>2.66</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
         <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
         <v>3.65</v>
@@ -5566,19 +5566,19 @@
         <v>1.35</v>
       </c>
       <c r="S38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
         <v>1.73</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X38" t="n">
         <v>14.5</v>
@@ -5587,49 +5587,49 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA38" t="n">
         <v>38</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
         <v>28</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AK38" t="n">
         <v>36</v>
       </c>
       <c r="AL38" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
@@ -5665,10 +5665,10 @@
         <v>3.7</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H39" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I39" t="n">
         <v>2.34</v>
@@ -5677,22 +5677,22 @@
         <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
         <v>1.54</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="O39" t="n">
         <v>1.53</v>
       </c>
       <c r="P39" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q39" t="n">
         <v>2.58</v>
@@ -5707,7 +5707,7 @@
         <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V39" t="n">
         <v>1.74</v>
@@ -5716,7 +5716,7 @@
         <v>1.33</v>
       </c>
       <c r="X39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y39" t="n">
         <v>7.2</v>
@@ -5737,37 +5737,37 @@
         <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="n">
         <v>26</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
         <v>75</v>
       </c>
       <c r="AJ39" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
         <v>95</v>
       </c>
       <c r="AM39" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO39" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
@@ -5812,7 +5812,7 @@
         <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
         <v>1.46</v>
@@ -5821,13 +5821,13 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="O40" t="n">
         <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -5848,61 +5848,61 @@
         <v>1.28</v>
       </c>
       <c r="W40" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AE40" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AI40" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK40" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AO40" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -5935,19 +5935,19 @@
         <v>4.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>1.94</v>
       </c>
       <c r="I41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5956,31 +5956,31 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S41" t="n">
         <v>3.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U41" t="n">
         <v>2.06</v>
       </c>
       <c r="V41" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W41" t="n">
         <v>1.28</v>
@@ -5989,55 +5989,55 @@
         <v>90</v>
       </c>
       <c r="Y41" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AA41" t="n">
         <v>27</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AG41" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH41" t="n">
         <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AJ41" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AK41" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL41" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM41" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN41" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AO41" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G42" t="n">
         <v>1.8</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -6091,7 +6091,7 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
         <v>1.18</v>
@@ -6106,13 +6106,13 @@
         <v>1.63</v>
       </c>
       <c r="S42" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T42" t="n">
         <v>1.59</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V42" t="n">
         <v>1.25</v>
@@ -6121,58 +6121,58 @@
         <v>2.24</v>
       </c>
       <c r="X42" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y42" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="Z42" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AA42" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF42" t="n">
         <v>970</v>
       </c>
       <c r="AG42" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
         <v>970</v>
       </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AK42" t="n">
         <v>970</v>
       </c>
       <c r="AL42" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="AM42" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AO42" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
@@ -6208,10 +6208,10 @@
         <v>2.22</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J43" t="n">
         <v>3.85</v>
@@ -6238,7 +6238,7 @@
         <v>1.56</v>
       </c>
       <c r="R43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
         <v>2.38</v>
@@ -6250,22 +6250,22 @@
         <v>2.6</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
         <v>1.81</v>
       </c>
       <c r="X43" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Y43" t="n">
         <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA43" t="n">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="AB43" t="n">
         <v>15.5</v>
@@ -6277,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AF43" t="n">
         <v>18</v>
@@ -6289,25 +6289,25 @@
         <v>16</v>
       </c>
       <c r="AI43" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ43" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK43" t="n">
         <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AN43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -6340,13 +6340,13 @@
         <v>2.12</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
         <v>3.7</v>
@@ -6355,10 +6355,10 @@
         <v>4.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
         <v>4.6</v>
@@ -6367,10 +6367,10 @@
         <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
         <v>1.49</v>
@@ -6382,52 +6382,52 @@
         <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
         <v>1.39</v>
       </c>
       <c r="W44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X44" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA44" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB44" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>9.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AF44" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK44" t="n">
         <v>22</v>
@@ -6436,13 +6436,13 @@
         <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AN44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G45" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,22 +6496,22 @@
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O45" t="n">
         <v>1.21</v>
       </c>
       <c r="P45" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S45" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
         <v>1.66</v>
@@ -6520,64 +6520,64 @@
         <v>2.32</v>
       </c>
       <c r="V45" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="W45" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="X45" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y45" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="Z45" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AA45" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AB45" t="n">
         <v>970</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD45" t="n">
         <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
         <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ45" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AK45" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AM45" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN45" t="n">
         <v>85</v>
       </c>
-      <c r="AN45" t="n">
-        <v>970</v>
-      </c>
       <c r="AO45" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
@@ -6610,7 +6610,7 @@
         <v>1.81</v>
       </c>
       <c r="G46" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
@@ -6631,7 +6631,7 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.18</v>
@@ -6643,76 +6643,76 @@
         <v>1.55</v>
       </c>
       <c r="R46" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="T46" t="n">
         <v>1.58</v>
       </c>
       <c r="U46" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V46" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X46" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47">
@@ -6742,67 +6742,67 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G47" t="n">
         <v>1.34</v>
       </c>
       <c r="H47" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="K47" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q47" t="n">
         <v>1.31</v>
       </c>
       <c r="R47" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T47" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U47" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X47" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Y47" t="n">
         <v>60</v>
       </c>
       <c r="Z47" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -6814,19 +6814,19 @@
         <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="n">
         <v>970</v>
       </c>
       <c r="AG47" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
         <v>95</v>
@@ -6835,16 +6835,16 @@
         <v>970</v>
       </c>
       <c r="AK47" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AL47" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AM47" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO47" t="n">
         <v>100</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G48" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
-        <v>2.04</v>
-      </c>
       <c r="J48" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
@@ -6901,7 +6901,7 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -6910,67 +6910,67 @@
         <v>2.16</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S48" t="n">
         <v>3.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U48" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V48" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
         <v>1.31</v>
       </c>
       <c r="X48" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI48" t="n">
         <v>32</v>
       </c>
-      <c r="AG48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL48" t="n">
         <v>55</v>
@@ -6979,10 +6979,10 @@
         <v>85</v>
       </c>
       <c r="AN48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G49" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="I49" t="n">
         <v>3.45</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,7 +7036,7 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -7054,19 +7054,19 @@
         <v>3.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
         <v>1.41</v>
       </c>
       <c r="W49" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="X49" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y49" t="n">
         <v>16</v>
@@ -7075,22 +7075,22 @@
         <v>28</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF49" t="n">
         <v>17</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>19.5</v>
       </c>
       <c r="AG49" t="n">
         <v>14</v>
@@ -7108,7 +7108,7 @@
         <v>32</v>
       </c>
       <c r="AL49" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="n">
         <v>110</v>
@@ -7117,7 +7117,7 @@
         <v>24</v>
       </c>
       <c r="AO49" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G50" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H50" t="n">
         <v>2.32</v>
       </c>
       <c r="I50" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
         <v>4.4</v>
@@ -7195,22 +7195,22 @@
         <v>2.52</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y50" t="n">
         <v>970</v>
       </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AA50" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AB50" t="n">
         <v>970</v>
@@ -7219,37 +7219,37 @@
         <v>970</v>
       </c>
       <c r="AD50" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AG50" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
         <v>970</v>
       </c>
       <c r="AI50" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AJ50" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AK50" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AL50" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AM50" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AN50" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
         <v>970</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G51" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I51" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J51" t="n">
         <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.1</v>
@@ -7312,16 +7312,16 @@
         <v>1.46</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
         <v>1.24</v>
       </c>
       <c r="S51" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T51" t="n">
         <v>1.99</v>
@@ -7330,40 +7330,40 @@
         <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE51" t="n">
         <v>32</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>30</v>
       </c>
       <c r="AF51" t="n">
         <v>26</v>
       </c>
       <c r="AG51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH51" t="n">
         <v>22</v>
@@ -7372,22 +7372,22 @@
         <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK51" t="n">
         <v>55</v>
       </c>
       <c r="AL51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM51" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AO51" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I52" t="n">
         <v>3.15</v>
       </c>
       <c r="J52" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="K52" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7450,13 +7450,13 @@
         <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7468,61 +7468,61 @@
         <v>1.47</v>
       </c>
       <c r="W52" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X52" t="n">
         <v>90</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53">
@@ -7555,7 +7555,7 @@
         <v>1.58</v>
       </c>
       <c r="G53" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>6.8</v>
@@ -7567,13 +7567,13 @@
         <v>3.55</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
         <v>2.86</v>
@@ -7591,7 +7591,7 @@
         <v>1.23</v>
       </c>
       <c r="S53" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T53" t="n">
         <v>2.22</v>
@@ -7603,19 +7603,19 @@
         <v>1.14</v>
       </c>
       <c r="W53" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AA53" t="n">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="AB53" t="n">
         <v>6.6</v>
@@ -7624,40 +7624,40 @@
         <v>9.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AE53" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AF53" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL53" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM53" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="AN53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO53" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G54" t="n">
         <v>2.02</v>
@@ -7696,103 +7696,103 @@
         <v>4.6</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
         <v>1.52</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P54" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R54" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S54" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T54" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U54" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W54" t="n">
         <v>1.98</v>
       </c>
       <c r="X54" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
         <v>5.5</v>
@@ -7831,25 +7831,25 @@
         <v>1.86</v>
       </c>
       <c r="I55" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P55" t="n">
         <v>1.74</v>
@@ -7861,73 +7861,73 @@
         <v>1.27</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T55" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U55" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA55" t="n">
         <v>60</v>
       </c>
-      <c r="AA55" t="n">
-        <v>22</v>
-      </c>
       <c r="AB55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="AD55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>700</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>700</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO55" t="n">
         <v>55</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G56" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H56" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J56" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K56" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L56" t="n">
         <v>1.32</v>
@@ -7990,7 +7990,7 @@
         <v>2.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R56" t="n">
         <v>1.58</v>
@@ -7999,40 +7999,40 @@
         <v>2.66</v>
       </c>
       <c r="T56" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U56" t="n">
         <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W56" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE56" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF56" t="n">
         <v>15.5</v>
@@ -8044,13 +8044,13 @@
         <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="n">
         <v>28</v>
@@ -8059,10 +8059,10 @@
         <v>65</v>
       </c>
       <c r="AN56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="G57" t="n">
         <v>1000</v>
       </c>
       <c r="H57" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="J57" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8227,28 +8227,28 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G58" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H58" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K58" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.32</v>
       </c>
       <c r="M58" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
         <v>4.9</v>
@@ -8257,7 +8257,7 @@
         <v>1.24</v>
       </c>
       <c r="P58" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q58" t="n">
         <v>1.71</v>
@@ -8269,55 +8269,55 @@
         <v>2.78</v>
       </c>
       <c r="T58" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U58" t="n">
         <v>1.98</v>
       </c>
       <c r="V58" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W58" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z58" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA58" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
         <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF58" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK58" t="n">
         <v>14.5</v>
@@ -8326,13 +8326,13 @@
         <v>34</v>
       </c>
       <c r="AM58" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO58" t="n">
         <v>140</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I59" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
@@ -8380,7 +8380,7 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M59" t="n">
         <v>1.14</v>
@@ -8389,13 +8389,13 @@
         <v>2.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P59" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
@@ -8413,10 +8413,10 @@
         <v>1.27</v>
       </c>
       <c r="W59" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X59" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y59" t="n">
         <v>11.5</v>
@@ -8428,16 +8428,16 @@
         <v>130</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD59" t="n">
         <v>19.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI59" t="n">
         <v>120</v>
@@ -8461,7 +8461,7 @@
         <v>70</v>
       </c>
       <c r="AM59" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN59" t="n">
         <v>30</v>
@@ -8500,22 +8500,22 @@
         <v>1.87</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H60" t="n">
         <v>4.3</v>
       </c>
       <c r="I60" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J60" t="n">
         <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8527,7 +8527,7 @@
         <v>1.34</v>
       </c>
       <c r="P60" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q60" t="n">
         <v>2</v>
@@ -8539,7 +8539,7 @@
         <v>3.6</v>
       </c>
       <c r="T60" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U60" t="n">
         <v>1.94</v>
@@ -8548,22 +8548,22 @@
         <v>1.24</v>
       </c>
       <c r="W60" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X60" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="Z60" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AA60" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AB60" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC60" t="n">
         <v>8.6</v>
@@ -8572,37 +8572,37 @@
         <v>970</v>
       </c>
       <c r="AE60" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="AF60" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH60" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AI60" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="AJ60" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AL60" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AM60" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO60" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>2.54</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J61" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="K61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8665,13 +8665,13 @@
         <v>1.52</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R61" t="n">
         <v>1.13</v>
       </c>
       <c r="S61" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,64 +8680,64 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
         <v>1.33</v>
       </c>
       <c r="X61" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -8770,19 +8770,19 @@
         <v>2.18</v>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J62" t="n">
         <v>2.98</v>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,7 +8791,7 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O62" t="n">
         <v>1.01</v>
@@ -8803,10 +8803,10 @@
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S62" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>1.05</v>
@@ -8818,61 +8818,61 @@
         <v>1.27</v>
       </c>
       <c r="W62" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X62" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
         <v>2.04</v>
       </c>
-      <c r="G63" t="n">
-        <v>2.06</v>
-      </c>
       <c r="H63" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L63" t="n">
         <v>1.6</v>
@@ -8929,10 +8929,10 @@
         <v>2.76</v>
       </c>
       <c r="O63" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P63" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q63" t="n">
         <v>2.7</v>
@@ -8950,22 +8950,22 @@
         <v>1.74</v>
       </c>
       <c r="V63" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W63" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X63" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y63" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA63" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB63" t="n">
         <v>6.6</v>
@@ -8977,7 +8977,7 @@
         <v>21</v>
       </c>
       <c r="AE63" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8989,7 +8989,7 @@
         <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ63" t="n">
         <v>24</v>
@@ -9004,7 +9004,7 @@
         <v>210</v>
       </c>
       <c r="AN63" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO63" t="n">
         <v>140</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G64" t="n">
         <v>2.08</v>
       </c>
-      <c r="G64" t="n">
-        <v>2.1</v>
-      </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
         <v>3.5</v>
@@ -9055,13 +9055,13 @@
         <v>3.55</v>
       </c>
       <c r="L64" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O64" t="n">
         <v>1.47</v>
@@ -9085,34 +9085,34 @@
         <v>1.84</v>
       </c>
       <c r="V64" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W64" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA64" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD64" t="n">
         <v>17.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF64" t="n">
         <v>11.5</v>
@@ -9121,28 +9121,28 @@
         <v>11</v>
       </c>
       <c r="AH64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI64" t="n">
         <v>85</v>
       </c>
       <c r="AJ64" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK64" t="n">
         <v>26</v>
       </c>
       <c r="AL64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM64" t="n">
         <v>180</v>
       </c>
       <c r="AN64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO64" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -9172,58 +9172,58 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="G65" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="H65" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I65" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K65" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O65" t="n">
         <v>1.38</v>
       </c>
-      <c r="M65" t="n">
+      <c r="P65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V65" t="n">
         <v>1.07</v>
       </c>
-      <c r="N65" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T65" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W65" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
@@ -9232,7 +9232,7 @@
         <v>27</v>
       </c>
       <c r="Z65" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
@@ -9244,7 +9244,7 @@
         <v>970</v>
       </c>
       <c r="AD65" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
@@ -9256,7 +9256,7 @@
         <v>970</v>
       </c>
       <c r="AH65" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
@@ -9265,10 +9265,10 @@
         <v>970</v>
       </c>
       <c r="AK65" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AL65" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
@@ -9313,7 +9313,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I66" t="n">
         <v>8.4</v>
@@ -9322,7 +9322,7 @@
         <v>4.8</v>
       </c>
       <c r="K66" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L66" t="n">
         <v>1.26</v>
@@ -9337,22 +9337,22 @@
         <v>1.22</v>
       </c>
       <c r="P66" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q66" t="n">
         <v>1.64</v>
       </c>
       <c r="R66" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S66" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="T66" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U66" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="V66" t="n">
         <v>1.13</v>
@@ -9367,7 +9367,7 @@
         <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA66" t="n">
         <v>270</v>
@@ -9385,7 +9385,7 @@
         <v>130</v>
       </c>
       <c r="AF66" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG66" t="n">
         <v>10.5</v>
@@ -9397,19 +9397,19 @@
         <v>110</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL66" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM66" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="AN66" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO66" t="n">
         <v>140</v>
@@ -9445,16 +9445,16 @@
         <v>1.86</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J67" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
         <v>3.85</v>
@@ -9490,13 +9490,13 @@
         <v>1.92</v>
       </c>
       <c r="V67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y67" t="n">
         <v>16.5</v>
@@ -9505,7 +9505,7 @@
         <v>38</v>
       </c>
       <c r="AA67" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB67" t="n">
         <v>9.4</v>
@@ -9523,31 +9523,31 @@
         <v>13</v>
       </c>
       <c r="AG67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI67" t="n">
         <v>85</v>
       </c>
       <c r="AJ67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL67" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM67" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN67" t="n">
         <v>19</v>
       </c>
       <c r="AO67" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68">
@@ -9586,10 +9586,10 @@
         <v>6.2</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J68" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K68" t="n">
         <v>4.3</v>
@@ -9616,7 +9616,7 @@
         <v>1.27</v>
       </c>
       <c r="S68" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
         <v>2.16</v>
@@ -9625,19 +9625,19 @@
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W68" t="n">
         <v>2.56</v>
       </c>
       <c r="X68" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Z68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA68" t="n">
         <v>300</v>
@@ -9649,22 +9649,22 @@
         <v>9.6</v>
       </c>
       <c r="AD68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE68" t="n">
         <v>160</v>
       </c>
       <c r="AF68" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG68" t="n">
         <v>10.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI68" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ68" t="n">
         <v>18</v>
@@ -9673,10 +9673,10 @@
         <v>22</v>
       </c>
       <c r="AL68" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM68" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AN68" t="n">
         <v>12.5</v>
@@ -9865,7 +9865,7 @@
         <v>4.4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -9892,7 +9892,7 @@
         <v>1.82</v>
       </c>
       <c r="U70" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V70" t="n">
         <v>2.4</v>
@@ -9901,58 +9901,58 @@
         <v>1.2</v>
       </c>
       <c r="X70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH70" t="n">
         <v>20</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>21</v>
       </c>
       <c r="AI70" t="n">
         <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK70" t="n">
         <v>75</v>
       </c>
       <c r="AL70" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM70" t="n">
         <v>120</v>
       </c>
       <c r="AN70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO70" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,10 +697,10 @@
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>1.44</v>
@@ -721,13 +721,13 @@
         <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
         <v>25</v>
@@ -769,10 +769,10 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -832,16 +832,16 @@
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
         <v>1.72</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
         <v>1.49</v>
@@ -850,22 +850,22 @@
         <v>2.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
         <v>18</v>
@@ -874,40 +874,40 @@
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>13.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -985,22 +985,22 @@
         <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>500</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
@@ -1012,19 +1012,19 @@
         <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF4" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1075,7 +1075,7 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
         <v>3.55</v>
@@ -1084,13 +1084,13 @@
         <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1099,7 +1099,7 @@
         <v>2.62</v>
       </c>
       <c r="O5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P5" t="n">
         <v>1.55</v>
@@ -1111,10 +1111,10 @@
         <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
         <v>1.75</v>
@@ -1126,7 +1126,7 @@
         <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>110</v>
@@ -1210,106 +1210,106 @@
         <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="n">
         <v>700</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AE6" t="n">
         <v>700</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>700</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO6" t="n">
         <v>500</v>
@@ -1345,7 +1345,7 @@
         <v>1.82</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -1360,10 +1360,10 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
         <v>2.16</v>
@@ -1375,7 +1375,7 @@
         <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
         <v>500</v>
@@ -1414,28 +1414,28 @@
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AE7" t="n">
         <v>700</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
         <v>700</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
@@ -1444,7 +1444,7 @@
         <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
         <v>500</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
@@ -1495,40 +1495,40 @@
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
         <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
         <v>500</v>
@@ -1543,7 +1543,7 @@
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC8" t="n">
         <v>42</v>
@@ -1558,7 +1558,7 @@
         <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
         <v>500</v>
@@ -1615,19 +1615,19 @@
         <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1636,40 +1636,40 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
         <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
         <v>180</v>
@@ -1681,43 +1681,43 @@
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10">
@@ -1756,10 +1756,10 @@
         <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K10" t="n">
         <v>2.86</v>
@@ -1768,7 +1768,7 @@
         <v>1.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
@@ -1780,7 +1780,7 @@
         <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.1</v>
@@ -1789,13 +1789,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
@@ -1810,7 +1810,7 @@
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>11.5</v>
@@ -1825,10 +1825,10 @@
         <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AG10" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>500</v>
@@ -1846,7 +1846,7 @@
         <v>700</v>
       </c>
       <c r="AM10" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AN10" t="n">
         <v>500</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
         <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>1.47</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
         <v>500</v>
@@ -2158,16 +2158,16 @@
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2182,16 +2182,16 @@
         <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.98</v>
@@ -2200,7 +2200,7 @@
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
         <v>1.2</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
@@ -2335,10 +2335,10 @@
         <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2353,46 +2353,46 @@
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
         <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
         <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2437,7 +2437,7 @@
         <v>11.5</v>
       </c>
       <c r="K15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H16" t="n">
         <v>1.91</v>
@@ -2572,10 +2572,10 @@
         <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2587,16 +2587,16 @@
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>1.79</v>
@@ -2614,13 +2614,13 @@
         <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
         <v>18</v>
@@ -2638,7 +2638,7 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
         <v>18.5</v>
@@ -2647,7 +2647,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="n">
         <v>55</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
         <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
         <v>2.52</v>
@@ -2716,13 +2716,13 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
         <v>2.22</v>
@@ -2788,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
         <v>1.22</v>
@@ -2839,10 +2839,10 @@
         <v>1.28</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2869,67 +2869,67 @@
         <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.06</v>
       </c>
       <c r="X18" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
       </c>
       <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>460</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AE18" t="n">
         <v>14</v>
       </c>
-      <c r="AB18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN18" t="n">
         <v>150</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>160</v>
       </c>
       <c r="AO18" t="n">
         <v>2.92</v>
@@ -2974,13 +2974,13 @@
         <v>6.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -2992,7 +2992,7 @@
         <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H20" t="n">
         <v>2.58</v>
@@ -3109,70 +3109,70 @@
         <v>2.62</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="S20" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V20" t="n">
         <v>1.61</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>22</v>
@@ -3184,22 +3184,22 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="n">
         <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
@@ -3244,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3277,13 +3277,13 @@
         <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
         <v>2.22</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M22" t="n">
         <v>1.17</v>
@@ -3394,25 +3394,25 @@
         <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T22" t="n">
         <v>2.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
         <v>1.22</v>
@@ -3421,25 +3421,25 @@
         <v>1.81</v>
       </c>
       <c r="X22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="n">
         <v>700</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
         <v>700</v>
@@ -3460,10 +3460,10 @@
         <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
         <v>500</v>
@@ -3505,28 +3505,28 @@
         <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I23" t="n">
         <v>2.76</v>
       </c>
       <c r="J23" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
         <v>2.98</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M23" t="n">
         <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
         <v>1.61</v>
@@ -3547,43 +3547,43 @@
         <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V23" t="n">
         <v>1.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X23" t="n">
         <v>7.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z23" t="n">
         <v>15.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
@@ -3592,22 +3592,22 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AL23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM23" t="n">
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3649,7 +3649,7 @@
         <v>2.96</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3661,22 +3661,22 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
         <v>1.49</v>
@@ -3700,13 +3700,13 @@
         <v>500</v>
       </c>
       <c r="AA24" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
         <v>500</v>
       </c>
       <c r="AC24" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
         <v>500</v>
@@ -3727,7 +3727,7 @@
         <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
         <v>500</v>
@@ -3736,7 +3736,7 @@
         <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
         <v>500</v>
@@ -3778,13 +3778,13 @@
         <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I25" t="n">
         <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4.4</v>
@@ -3856,7 +3856,7 @@
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="AI25" t="n">
         <v>210</v>
@@ -3868,10 +3868,10 @@
         <v>65</v>
       </c>
       <c r="AL25" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN25" t="n">
         <v>13</v>
@@ -3907,73 +3907,73 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.68</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.8</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
         <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="n">
         <v>13</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
@@ -3985,10 +3985,10 @@
         <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>17.5</v>
@@ -3997,22 +3997,22 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
         <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
         <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
         <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4072,7 +4072,7 @@
         <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q27" t="n">
         <v>1.6</v>
@@ -4102,25 +4102,25 @@
         <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>11.5</v>
@@ -4129,7 +4129,7 @@
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
         <v>32</v>
@@ -4138,16 +4138,16 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4282,7 +4282,7 @@
         <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
@@ -4315,10 +4315,10 @@
         <v>1.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -4486,7 +4486,7 @@
         <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>1.96</v>
@@ -4498,7 +4498,7 @@
         <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
         <v>13.5</v>
@@ -4591,10 +4591,10 @@
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4654,7 +4654,7 @@
         <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
         <v>60</v>
@@ -4675,13 +4675,13 @@
         <v>36</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
         <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
         <v>32</v>
@@ -4732,7 +4732,7 @@
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
@@ -4750,7 +4750,7 @@
         <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
@@ -4762,7 +4762,7 @@
         <v>1.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
         <v>1.73</v>
@@ -4771,16 +4771,16 @@
         <v>1.32</v>
       </c>
       <c r="X32" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA32" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
         <v>970</v>
@@ -4789,7 +4789,7 @@
         <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE32" t="n">
         <v>500</v>
@@ -4801,13 +4801,13 @@
         <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AI32" t="n">
         <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
         <v>500</v>
@@ -4816,7 +4816,7 @@
         <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>500</v>
@@ -4864,7 +4864,7 @@
         <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -4894,7 +4894,7 @@
         <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U33" t="n">
         <v>1.7</v>
@@ -4903,7 +4903,7 @@
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4990,19 +4990,19 @@
         <v>2.8</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,40 +5011,40 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
         <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
         <v>2.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S34" t="n">
         <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
         <v>1.87</v>
       </c>
       <c r="V34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.47</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
         <v>19.5</v>
@@ -5071,7 +5071,7 @@
         <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
         <v>460</v>
@@ -5092,7 +5092,7 @@
         <v>120</v>
       </c>
       <c r="AO34" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35">
@@ -5122,31 +5122,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>3.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
@@ -5155,16 +5155,16 @@
         <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S35" t="n">
         <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U35" t="n">
         <v>1.89</v>
@@ -5176,10 +5176,10 @@
         <v>1.57</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z35" t="n">
         <v>48</v>
@@ -5260,10 +5260,10 @@
         <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
         <v>3.55</v>
@@ -5305,43 +5305,43 @@
         <v>1.84</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA36" t="n">
         <v>500</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
         <v>500</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI36" t="n">
         <v>500</v>
@@ -5350,16 +5350,16 @@
         <v>500</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL36" t="n">
         <v>500</v>
       </c>
       <c r="AM36" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO36" t="n">
         <v>500</v>
@@ -5395,7 +5395,7 @@
         <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
@@ -5404,7 +5404,7 @@
         <v>3.65</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>3.45</v>
@@ -5416,7 +5416,7 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
@@ -5434,7 +5434,7 @@
         <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
         <v>1.94</v>
@@ -5443,7 +5443,7 @@
         <v>1.39</v>
       </c>
       <c r="W37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -5452,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA37" t="n">
         <v>500</v>
@@ -5467,10 +5467,10 @@
         <v>19.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG37" t="n">
         <v>15.5</v>
@@ -5479,7 +5479,7 @@
         <v>25</v>
       </c>
       <c r="AI37" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="AJ37" t="n">
         <v>48</v>
@@ -5488,7 +5488,7 @@
         <v>36</v>
       </c>
       <c r="AL37" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AM37" t="n">
         <v>580</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I38" t="n">
         <v>2.66</v>
@@ -5569,7 +5569,7 @@
         <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U38" t="n">
         <v>2.14</v>
@@ -5620,13 +5620,13 @@
         <v>210</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL38" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AM38" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AN38" t="n">
         <v>46</v>
@@ -5683,7 +5683,7 @@
         <v>1.54</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
         <v>2.76</v>
@@ -5707,7 +5707,7 @@
         <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
         <v>1.74</v>
@@ -5737,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
         <v>26</v>
@@ -5800,13 +5800,13 @@
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.35</v>
@@ -5827,7 +5827,7 @@
         <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -5848,7 +5848,7 @@
         <v>1.28</v>
       </c>
       <c r="W40" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X40" t="n">
         <v>970</v>
@@ -5956,19 +5956,19 @@
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O41" t="n">
         <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q41" t="n">
         <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S41" t="n">
         <v>3.5</v>
@@ -5986,7 +5986,7 @@
         <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Y41" t="n">
         <v>10.5</v>
@@ -6010,28 +6010,28 @@
         <v>25</v>
       </c>
       <c r="AF41" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AG41" t="n">
         <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI41" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ41" t="n">
         <v>500</v>
       </c>
       <c r="AK41" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="n">
         <v>500</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
         <v>500</v>
@@ -6082,22 +6082,22 @@
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q42" t="n">
         <v>1.54</v>
@@ -6106,13 +6106,13 @@
         <v>1.63</v>
       </c>
       <c r="S42" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="T42" t="n">
         <v>1.59</v>
       </c>
       <c r="U42" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V42" t="n">
         <v>1.25</v>
@@ -6133,10 +6133,10 @@
         <v>500</v>
       </c>
       <c r="AB42" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
@@ -6145,13 +6145,13 @@
         <v>500</v>
       </c>
       <c r="AF42" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
         <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI42" t="n">
         <v>500</v>
@@ -6160,13 +6160,13 @@
         <v>500</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL42" t="n">
         <v>500</v>
       </c>
       <c r="AM42" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
         <v>7.8</v>
@@ -6226,7 +6226,7 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.18</v>
@@ -6235,22 +6235,22 @@
         <v>2.74</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S43" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T43" t="n">
         <v>1.52</v>
       </c>
       <c r="U43" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W43" t="n">
         <v>1.81</v>
@@ -6367,16 +6367,16 @@
         <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q44" t="n">
         <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T44" t="n">
         <v>1.6</v>
@@ -6391,16 +6391,16 @@
         <v>1.75</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="n">
         <v>17</v>
       </c>
       <c r="Z44" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AA44" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AB44" t="n">
         <v>13</v>
@@ -6412,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="n">
         <v>16.5</v>
@@ -6424,16 +6424,16 @@
         <v>16</v>
       </c>
       <c r="AI44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK44" t="n">
         <v>40</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>22</v>
-      </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
         <v>500</v>
@@ -6442,7 +6442,7 @@
         <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
@@ -6475,16 +6475,16 @@
         <v>1.81</v>
       </c>
       <c r="G45" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H45" t="n">
         <v>3.65</v>
       </c>
       <c r="I45" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
         <v>5.5</v>
@@ -6493,7 +6493,7 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
         <v>2.08</v>
@@ -6508,10 +6508,10 @@
         <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S45" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="n">
         <v>1.66</v>
@@ -6520,10 +6520,10 @@
         <v>2.32</v>
       </c>
       <c r="V45" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X45" t="n">
         <v>500</v>
@@ -6610,16 +6610,16 @@
         <v>1.81</v>
       </c>
       <c r="G46" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J46" t="n">
         <v>4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.1</v>
       </c>
       <c r="K46" t="n">
         <v>4.6</v>
@@ -6631,88 +6631,88 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q46" t="n">
         <v>1.55</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T46" t="n">
         <v>1.58</v>
       </c>
       <c r="U46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V46" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W46" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X46" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA46" t="n">
         <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM46" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AO46" t="n">
-        <v>250</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G47" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H47" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
         <v>12.5</v>
       </c>
       <c r="J47" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.17</v>
@@ -6772,7 +6772,7 @@
         <v>1.1</v>
       </c>
       <c r="P47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
         <v>1.31</v>
@@ -6781,7 +6781,7 @@
         <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="T47" t="n">
         <v>1.66</v>
@@ -6793,13 +6793,13 @@
         <v>1.09</v>
       </c>
       <c r="W47" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X47" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="Y47" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="n">
         <v>140</v>
@@ -6814,25 +6814,25 @@
         <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AE47" t="n">
         <v>140</v>
       </c>
       <c r="AF47" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG47" t="n">
         <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="AJ47" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK47" t="n">
         <v>16</v>
@@ -6841,10 +6841,10 @@
         <v>500</v>
       </c>
       <c r="AM47" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO47" t="n">
         <v>100</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
         <v>4.3</v>
@@ -6886,7 +6886,7 @@
         <v>1.98</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J48" t="n">
         <v>3.85</v>
@@ -6901,19 +6901,19 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R48" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S48" t="n">
         <v>3.05</v>
@@ -6925,10 +6925,10 @@
         <v>2.28</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W48" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X48" t="n">
         <v>17.5</v>
@@ -7015,7 +7015,7 @@
         <v>2.26</v>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H49" t="n">
         <v>2.86</v>
@@ -7036,13 +7036,13 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q49" t="n">
         <v>1.9</v>
@@ -7054,10 +7054,10 @@
         <v>3.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U49" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V49" t="n">
         <v>1.41</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="G50" t="n">
         <v>3.15</v>
@@ -7162,7 +7162,7 @@
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.26</v>
@@ -7171,13 +7171,13 @@
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.19</v>
       </c>
       <c r="P50" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q50" t="n">
         <v>1.57</v>
@@ -7210,17 +7210,17 @@
         <v>500</v>
       </c>
       <c r="AA50" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB50" t="n">
         <v>970</v>
       </c>
       <c r="AC50" t="n">
+        <v>500</v>
+      </c>
+      <c r="AD50" t="n">
         <v>970</v>
       </c>
-      <c r="AD50" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE50" t="n">
         <v>500</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>500</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH50" t="n">
         <v>970</v>
@@ -7246,10 +7246,10 @@
         <v>500</v>
       </c>
       <c r="AM50" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO50" t="n">
         <v>970</v>
@@ -7372,7 +7372,7 @@
         <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AK51" t="n">
         <v>55</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G52" t="n">
         <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I52" t="n">
         <v>3.15</v>
       </c>
       <c r="J52" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K52" t="n">
         <v>5.2</v>
@@ -7450,13 +7450,13 @@
         <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
         <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7612,7 +7612,7 @@
         <v>19.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AA53" t="n">
         <v>700</v>
@@ -7624,7 +7624,7 @@
         <v>9.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AE53" t="n">
         <v>700</v>
@@ -7636,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="n">
         <v>700</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G54" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>4.6</v>
@@ -7699,10 +7699,10 @@
         <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K54" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.52</v>
@@ -7717,10 +7717,10 @@
         <v>1.46</v>
       </c>
       <c r="P54" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R54" t="n">
         <v>1.23</v>
@@ -7738,7 +7738,7 @@
         <v>1.24</v>
       </c>
       <c r="W54" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
         <v>11</v>
@@ -7753,7 +7753,7 @@
         <v>700</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC54" t="n">
         <v>8.199999999999999</v>
@@ -7762,10 +7762,10 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="AF54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG54" t="n">
         <v>11.5</v>
@@ -7774,7 +7774,7 @@
         <v>24</v>
       </c>
       <c r="AI54" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="n">
         <v>26</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G55" t="n">
         <v>5.5</v>
@@ -7837,7 +7837,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.48</v>
@@ -7852,7 +7852,7 @@
         <v>1.42</v>
       </c>
       <c r="P55" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q55" t="n">
         <v>2.24</v>
@@ -7882,34 +7882,34 @@
         <v>7.4</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA55" t="n">
         <v>60</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC55" t="n">
         <v>8</v>
       </c>
       <c r="AD55" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE55" t="n">
         <v>25</v>
       </c>
       <c r="AF55" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AG55" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="AH55" t="n">
         <v>60</v>
       </c>
       <c r="AI55" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AJ55" t="n">
         <v>700</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H56" t="n">
         <v>3.65</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
         <v>3.9</v>
@@ -7987,10 +7987,10 @@
         <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R56" t="n">
         <v>1.58</v>
@@ -8005,10 +8005,10 @@
         <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W56" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
@@ -8017,7 +8017,7 @@
         <v>18.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA56" t="n">
         <v>65</v>
@@ -8026,7 +8026,7 @@
         <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>15</v>
@@ -8038,13 +8038,13 @@
         <v>15.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH56" t="n">
         <v>15</v>
       </c>
       <c r="AI56" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="n">
         <v>26</v>
@@ -8053,7 +8053,7 @@
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM56" t="n">
         <v>65</v>
@@ -8227,73 +8227,73 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G58" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H58" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K58" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R58" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U58" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W58" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X58" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y58" t="n">
         <v>30</v>
       </c>
       <c r="Z58" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC58" t="n">
         <v>11</v>
@@ -8302,37 +8302,37 @@
         <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF58" t="n">
         <v>8.6</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH58" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AJ58" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK58" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL58" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO58" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -8371,7 +8371,7 @@
         <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
@@ -8389,7 +8389,7 @@
         <v>2.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P59" t="n">
         <v>1.52</v>
@@ -8407,7 +8407,7 @@
         <v>2.34</v>
       </c>
       <c r="U59" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V59" t="n">
         <v>1.27</v>
@@ -8431,7 +8431,7 @@
         <v>6.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD59" t="n">
         <v>19.5</v>
@@ -8449,7 +8449,7 @@
         <v>26</v>
       </c>
       <c r="AI59" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="n">
         <v>27</v>
@@ -8458,7 +8458,7 @@
         <v>32</v>
       </c>
       <c r="AL59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM59" t="n">
         <v>220</v>
@@ -8512,10 +8512,10 @@
         <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L60" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8527,10 +8527,10 @@
         <v>1.34</v>
       </c>
       <c r="P60" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R60" t="n">
         <v>1.31</v>
@@ -8542,7 +8542,7 @@
         <v>1.85</v>
       </c>
       <c r="U60" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V60" t="n">
         <v>1.24</v>
@@ -8557,7 +8557,7 @@
         <v>110</v>
       </c>
       <c r="Z60" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AA60" t="n">
         <v>700</v>
@@ -8569,7 +8569,7 @@
         <v>8.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AE60" t="n">
         <v>700</v>
@@ -8587,10 +8587,10 @@
         <v>700</v>
       </c>
       <c r="AJ60" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AK60" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AL60" t="n">
         <v>500</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I61" t="n">
         <v>3.55</v>
@@ -8662,7 +8662,7 @@
         <v>1.01</v>
       </c>
       <c r="P61" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="Q61" t="n">
         <v>2.08</v>
@@ -8671,7 +8671,7 @@
         <v>1.13</v>
       </c>
       <c r="S61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,7 +8680,7 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W61" t="n">
         <v>1.33</v>
@@ -8695,7 +8695,7 @@
         <v>500</v>
       </c>
       <c r="AA61" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB61" t="n">
         <v>500</v>
@@ -8722,7 +8722,7 @@
         <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK61" t="n">
         <v>500</v>
@@ -8773,7 +8773,7 @@
         <v>2.68</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I62" t="n">
         <v>4.7</v>
@@ -8791,13 +8791,13 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="O62" t="n">
         <v>1.01</v>
       </c>
       <c r="P62" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
@@ -8806,7 +8806,7 @@
         <v>1.13</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T62" t="n">
         <v>1.05</v>
@@ -8830,7 +8830,7 @@
         <v>500</v>
       </c>
       <c r="AA62" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB62" t="n">
         <v>500</v>
@@ -8857,7 +8857,7 @@
         <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK62" t="n">
         <v>500</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="n">
         <v>2.04</v>
@@ -8911,7 +8911,7 @@
         <v>4.9</v>
       </c>
       <c r="I63" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>3.25</v>
@@ -8926,31 +8926,31 @@
         <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O63" t="n">
         <v>1.55</v>
       </c>
       <c r="P63" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R63" t="n">
         <v>1.2</v>
       </c>
       <c r="S63" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T63" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U63" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W63" t="n">
         <v>1.96</v>
@@ -8977,31 +8977,31 @@
         <v>21</v>
       </c>
       <c r="AE63" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH63" t="n">
         <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ63" t="n">
         <v>24</v>
       </c>
       <c r="AK63" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL63" t="n">
         <v>60</v>
       </c>
       <c r="AM63" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN63" t="n">
         <v>24</v>
@@ -9049,7 +9049,7 @@
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K64" t="n">
         <v>3.55</v>
@@ -9079,10 +9079,10 @@
         <v>4.7</v>
       </c>
       <c r="T64" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U64" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V64" t="n">
         <v>1.3</v>
@@ -9097,7 +9097,7 @@
         <v>12.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA64" t="n">
         <v>110</v>
@@ -9112,7 +9112,7 @@
         <v>17.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF64" t="n">
         <v>11.5</v>
@@ -9136,7 +9136,7 @@
         <v>50</v>
       </c>
       <c r="AM64" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN64" t="n">
         <v>22</v>
@@ -9172,97 +9172,97 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G65" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>6.4</v>
       </c>
       <c r="I65" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="J65" t="n">
         <v>3.7</v>
       </c>
       <c r="K65" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="L65" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O65" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P65" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q65" t="n">
         <v>2.02</v>
       </c>
       <c r="R65" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="S65" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="T65" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U65" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W65" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
       </c>
       <c r="Y65" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Z65" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD65" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AG65" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH65" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK65" t="n">
         <v>500</v>
@@ -9274,7 +9274,7 @@
         <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO65" t="n">
         <v>1000</v>
@@ -9343,7 +9343,7 @@
         <v>1.64</v>
       </c>
       <c r="R66" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S66" t="n">
         <v>2.54</v>
@@ -9475,7 +9475,7 @@
         <v>1.77</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R67" t="n">
         <v>1.29</v>
@@ -9496,7 +9496,7 @@
         <v>2.02</v>
       </c>
       <c r="X67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y67" t="n">
         <v>16.5</v>
@@ -9577,46 +9577,46 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G68" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H68" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="I68" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M68" t="n">
         <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O68" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P68" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R68" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T68" t="n">
         <v>2.16</v>
@@ -9625,16 +9625,16 @@
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W68" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="X68" t="n">
         <v>14.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z68" t="n">
         <v>65</v>
@@ -9646,16 +9646,16 @@
         <v>6.8</v>
       </c>
       <c r="AC68" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE68" t="n">
         <v>160</v>
       </c>
       <c r="AF68" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG68" t="n">
         <v>10.5</v>
@@ -9667,16 +9667,16 @@
         <v>160</v>
       </c>
       <c r="AJ68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK68" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL68" t="n">
         <v>48</v>
       </c>
       <c r="AM68" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN68" t="n">
         <v>12.5</v>
@@ -9724,7 +9724,7 @@
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K69" t="n">
         <v>950</v>
@@ -9850,7 +9850,7 @@
         <v>5.5</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H70" t="n">
         <v>1.66</v>
@@ -9865,7 +9865,7 @@
         <v>4.4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -9880,7 +9880,7 @@
         <v>2.12</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R70" t="n">
         <v>1.44</v>
@@ -9892,7 +9892,7 @@
         <v>1.82</v>
       </c>
       <c r="U70" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V70" t="n">
         <v>2.4</v>
@@ -9943,7 +9943,7 @@
         <v>75</v>
       </c>
       <c r="AL70" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM70" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -691,88 +691,88 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.56</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.82</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
         <v>1.49</v>
       </c>
       <c r="U3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
         <v>18.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>13.5</v>
@@ -892,22 +892,22 @@
         <v>27</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="I4" t="n">
         <v>1.73</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.33</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -997,31 +997,31 @@
         <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>500</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
         <v>500</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>250</v>
@@ -1075,61 +1075,61 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H5" t="n">
         <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
         <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
         <v>26</v>
@@ -1138,16 +1138,16 @@
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AF5" t="n">
         <v>14.5</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1234,58 +1234,58 @@
         <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
         <v>700</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1297,19 +1297,19 @@
         <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO6" t="n">
         <v>500</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -1360,22 +1360,22 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="O7" t="n">
         <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
         <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AO8" t="n">
         <v>500</v>
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>760</v>
       </c>
       <c r="AB9" t="n">
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1711,13 +1711,13 @@
         <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>680</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
@@ -1747,88 +1747,88 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="K10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="S10" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.72</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>500</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AF10" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AG10" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
         <v>500</v>
@@ -1846,13 +1846,13 @@
         <v>700</v>
       </c>
       <c r="AM10" t="n">
-        <v>630</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>11.5</v>
@@ -1903,25 +1903,25 @@
         <v>1.54</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>1.47</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
         <v>2.66</v>
@@ -1936,55 +1936,55 @@
         <v>2.74</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
@@ -2152,88 +2152,88 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="I13" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>500</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AF13" t="n">
         <v>500</v>
       </c>
       <c r="AG13" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
         <v>500</v>
@@ -2254,10 +2254,10 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -2305,28 +2305,28 @@
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
@@ -2335,10 +2335,10 @@
         <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2359,19 +2359,19 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>50</v>
@@ -2383,16 +2383,16 @@
         <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
         <v>330</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="G15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
         <v>11.5</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>4.7</v>
       </c>
       <c r="H16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.91</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.93</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2584,19 +2584,19 @@
         <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
         <v>1.79</v>
@@ -2605,7 +2605,7 @@
         <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W16" t="n">
         <v>1.27</v>
@@ -2614,16 +2614,16 @@
         <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
         <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.6</v>
@@ -2656,7 +2656,7 @@
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>55</v>
@@ -2698,10 +2698,10 @@
         <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2710,7 +2710,7 @@
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2719,28 +2719,28 @@
         <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
         <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
         <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
         <v>1.42</v>
@@ -2752,34 +2752,34 @@
         <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
         <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
@@ -2794,10 +2794,10 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J18" t="n">
         <v>7.4</v>
       </c>
       <c r="K18" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2857,37 +2857,37 @@
         <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="R18" t="n">
         <v>2.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X18" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>11.5</v>
@@ -2896,10 +2896,10 @@
         <v>460</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -2911,25 +2911,25 @@
         <v>55</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AK18" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
         <v>2.92</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G19" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
         <v>6.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
@@ -2986,7 +2986,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
@@ -2995,31 +2995,31 @@
         <v>1.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X19" t="n">
         <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
         <v>500</v>
@@ -3031,22 +3031,22 @@
         <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>700</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="n">
         <v>700</v>
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>500</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.58</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.66</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.55</v>
       </c>
-      <c r="U20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>1.61</v>
       </c>
-      <c r="W20" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
@@ -3244,64 +3244,64 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.75</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>16</v>
@@ -3319,25 +3319,25 @@
         <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
         <v>25</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3367,49 +3367,49 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="M22" t="n">
         <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O22" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R22" t="n">
         <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U22" t="n">
         <v>1.61</v>
@@ -3418,7 +3418,7 @@
         <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
@@ -3439,13 +3439,13 @@
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE22" t="n">
         <v>700</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3502,40 +3502,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G23" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="I23" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>2.98</v>
       </c>
       <c r="L23" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="O23" t="n">
         <v>1.61</v>
       </c>
       <c r="P23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -3544,58 +3544,58 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
         <v>7.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="AL23" t="n">
         <v>110</v>
@@ -3607,7 +3607,7 @@
         <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="I24" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
         <v>1.49</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
         <v>500</v>
@@ -3709,7 +3709,7 @@
         <v>42</v>
       </c>
       <c r="AD24" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
         <v>500</v>
@@ -3718,7 +3718,7 @@
         <v>500</v>
       </c>
       <c r="AG24" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
         <v>500</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G25" t="n">
         <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3790,37 +3790,37 @@
         <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W25" t="n">
         <v>2.66</v>
@@ -3835,19 +3835,19 @@
         <v>510</v>
       </c>
       <c r="AA25" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
         <v>110</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>700</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -3859,10 +3859,10 @@
         <v>180</v>
       </c>
       <c r="AI25" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>65</v>
@@ -3871,13 +3871,13 @@
         <v>380</v>
       </c>
       <c r="AM25" t="n">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I26" t="n">
         <v>2.52</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.65</v>
       </c>
-      <c r="U26" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="n">
         <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>9</v>
       </c>
       <c r="AD26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13</v>
       </c>
-      <c r="AE26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4042,64 +4042,64 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
         <v>75</v>
@@ -4114,10 +4114,10 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
@@ -4141,10 +4141,10 @@
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO27" t="n">
         <v>60</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
         <v>11</v>
@@ -4237,19 +4237,19 @@
         <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>120</v>
@@ -4267,7 +4267,7 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK28" t="n">
         <v>110</v>
@@ -4276,7 +4276,7 @@
         <v>380</v>
       </c>
       <c r="AM28" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
         <v>70</v>
@@ -4312,64 +4312,64 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.54</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
         <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
         <v>40</v>
@@ -4378,10 +4378,10 @@
         <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>23</v>
@@ -4417,7 +4417,7 @@
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
@@ -4447,58 +4447,58 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
         <v>1.96</v>
       </c>
       <c r="U30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X30" t="n">
         <v>13.5</v>
@@ -4549,7 +4549,7 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>120</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4600,64 +4600,64 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>1.61</v>
+        <v>2.86</v>
       </c>
       <c r="O31" t="n">
-        <v>1.07</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.07</v>
+        <v>2.56</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
         <v>1.36</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y31" t="n">
         <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -4678,7 +4678,7 @@
         <v>32</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
@@ -4687,7 +4687,7 @@
         <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
@@ -4717,49 +4717,49 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.45</v>
       </c>
-      <c r="G32" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
         <v>1.89</v>
@@ -4768,7 +4768,7 @@
         <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X32" t="n">
         <v>20</v>
@@ -4786,7 +4786,7 @@
         <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD32" t="n">
         <v>500</v>
@@ -4852,58 +4852,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G33" t="n">
         <v>1.46</v>
       </c>
       <c r="H33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
         <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
         <v>1.33</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4912,7 +4912,7 @@
         <v>27</v>
       </c>
       <c r="Z33" t="n">
-        <v>95</v>
+        <v>480</v>
       </c>
       <c r="AA33" t="n">
         <v>480</v>
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>2.8</v>
       </c>
       <c r="I34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.05</v>
       </c>
-      <c r="J34" t="n">
-        <v>3</v>
-      </c>
       <c r="K34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
         <v>1.96</v>
@@ -5041,13 +5041,13 @@
         <v>1.48</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
         <v>220</v>
@@ -5056,7 +5056,7 @@
         <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
         <v>14</v>
@@ -5086,7 +5086,7 @@
         <v>460</v>
       </c>
       <c r="AM34" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
         <v>120</v>
@@ -5122,64 +5122,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G35" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U35" t="n">
         <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
         <v>48</v>
@@ -5203,7 +5203,7 @@
         <v>32</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH35" t="n">
         <v>21</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
         <v>2.58</v>
@@ -5266,7 +5266,7 @@
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
         <v>3.15</v>
@@ -5275,91 +5275,91 @@
         <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
         <v>500</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ36" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AK36" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AL36" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AO36" t="n">
         <v>500</v>
@@ -5392,64 +5392,64 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
         <v>2.54</v>
       </c>
       <c r="H37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.3</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
         <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>65</v>
@@ -5485,7 +5485,7 @@
         <v>48</v>
       </c>
       <c r="AK37" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL37" t="n">
         <v>160</v>
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="I38" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R38" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T38" t="n">
         <v>1.74</v>
       </c>
       <c r="U38" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V38" t="n">
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
         <v>14.5</v>
@@ -5587,7 +5587,7 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
         <v>38</v>
@@ -5662,67 +5662,67 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G39" t="n">
         <v>3.7</v>
       </c>
-      <c r="G39" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H39" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="I39" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
         <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
         <v>5.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V39" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
         <v>34</v>
@@ -5731,43 +5731,43 @@
         <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD39" t="n">
         <v>12</v>
       </c>
       <c r="AE39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO39" t="n">
         <v>32</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S40" t="n">
         <v>4.5</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V40" t="n">
         <v>1.29</v>
       </c>
-      <c r="S40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X40" t="n">
         <v>970</v>
@@ -5932,64 +5932,64 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I41" t="n">
         <v>2.04</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K41" t="n">
         <v>3.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
         <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T41" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V41" t="n">
         <v>1.96</v>
       </c>
       <c r="W41" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X41" t="n">
         <v>29</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
         <v>14.5</v>
@@ -6007,10 +6007,10 @@
         <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AG41" t="n">
         <v>21</v>
@@ -6019,13 +6019,13 @@
         <v>60</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ41" t="n">
         <v>500</v>
       </c>
       <c r="AK41" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="AL41" t="n">
         <v>500</v>
@@ -6037,7 +6037,7 @@
         <v>500</v>
       </c>
       <c r="AO41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,46 +6067,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
         <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K42" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P42" t="n">
         <v>2.58</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R42" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="T42" t="n">
         <v>1.59</v>
@@ -6115,13 +6115,13 @@
         <v>2.44</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="X42" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
         <v>500</v>
@@ -6136,7 +6136,7 @@
         <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
@@ -6148,10 +6148,10 @@
         <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH42" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI42" t="n">
         <v>500</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>7.8</v>
+        <v>30</v>
       </c>
       <c r="AO42" t="n">
         <v>500</v>
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S43" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T43" t="n">
         <v>1.52</v>
       </c>
       <c r="U43" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X43" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Y43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="n">
         <v>65</v>
@@ -6271,10 +6271,10 @@
         <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE43" t="n">
         <v>90</v>
@@ -6286,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI43" t="n">
         <v>130</v>
@@ -6307,7 +6307,7 @@
         <v>10.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -6337,85 +6337,85 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
         <v>4.2</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O44" t="n">
         <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S44" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W44" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
         <v>38</v>
       </c>
       <c r="Y44" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Z44" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AA44" t="n">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="AB44" t="n">
         <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD44" t="n">
         <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AF44" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
@@ -6424,16 +6424,16 @@
         <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AK44" t="n">
         <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
         <v>500</v>
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G45" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="H45" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W45" t="n">
         <v>2.08</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.96</v>
       </c>
       <c r="X45" t="n">
         <v>500</v>
@@ -6607,76 +6607,76 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G46" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.4</v>
       </c>
-      <c r="I46" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R46" t="n">
         <v>1.64</v>
       </c>
       <c r="S46" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="T46" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U46" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W46" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AA46" t="n">
         <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
         <v>19.5</v>
@@ -6685,10 +6685,10 @@
         <v>200</v>
       </c>
       <c r="AF46" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>16</v>
@@ -6697,7 +6697,7 @@
         <v>48</v>
       </c>
       <c r="AJ46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="n">
         <v>17</v>
@@ -6712,7 +6712,7 @@
         <v>7.8</v>
       </c>
       <c r="AO46" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G47" t="n">
         <v>1.33</v>
@@ -6754,19 +6754,19 @@
         <v>12.5</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K47" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O47" t="n">
         <v>1.1</v>
@@ -6775,22 +6775,22 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="R47" t="n">
         <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="T47" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U47" t="n">
         <v>2.36</v>
       </c>
       <c r="V47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W47" t="n">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC47" t="n">
         <v>970</v>
@@ -6844,7 +6844,7 @@
         <v>320</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AO47" t="n">
         <v>100</v>
@@ -6877,52 +6877,52 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G48" t="n">
         <v>4.3</v>
       </c>
       <c r="H48" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>2.02</v>
       </c>
       <c r="J48" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
         <v>3.9</v>
       </c>
-      <c r="L48" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="T48" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="V48" t="n">
         <v>1.98</v>
@@ -6931,10 +6931,10 @@
         <v>1.3</v>
       </c>
       <c r="X48" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
@@ -6943,7 +6943,7 @@
         <v>23</v>
       </c>
       <c r="AB48" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC48" t="n">
         <v>8.4</v>
@@ -6952,37 +6952,37 @@
         <v>10.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>30</v>
       </c>
       <c r="AG48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK48" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN48" t="n">
         <v>55</v>
       </c>
-      <c r="AM48" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>42</v>
-      </c>
       <c r="AO48" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -7012,64 +7012,64 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G49" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="H49" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.45</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q49" t="n">
         <v>1.96</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.9</v>
       </c>
       <c r="R49" t="n">
         <v>1.37</v>
       </c>
       <c r="S49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W49" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z49" t="n">
         <v>28</v>
@@ -7081,10 +7081,10 @@
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE49" t="n">
         <v>40</v>
@@ -7102,10 +7102,10 @@
         <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK49" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL49" t="n">
         <v>40</v>
@@ -7147,58 +7147,58 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G50" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="I50" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K50" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S50" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U50" t="n">
         <v>2.52</v>
       </c>
       <c r="V50" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W50" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X50" t="n">
         <v>500</v>
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="G51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="I51" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="J51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.25</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L51" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="O51" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="P51" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R51" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V51" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="W51" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="X51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC51" t="n">
         <v>7.2</v>
       </c>
       <c r="AD51" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE51" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG51" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH51" t="n">
         <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ51" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AK51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL51" t="n">
         <v>75</v>
       </c>
       <c r="AM51" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN51" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AO51" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -7417,46 +7417,46 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="H52" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="I52" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J52" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="K52" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>1.58</v>
+        <v>2.88</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7465,10 +7465,10 @@
         <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W52" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="X52" t="n">
         <v>90</v>
@@ -7516,7 +7516,7 @@
         <v>500</v>
       </c>
       <c r="AM52" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
         <v>500</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G53" t="n">
         <v>1.7</v>
@@ -7564,34 +7564,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O53" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P53" t="n">
         <v>1.64</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="R53" t="n">
         <v>1.23</v>
       </c>
       <c r="S53" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T53" t="n">
         <v>2.22</v>
@@ -7600,19 +7600,19 @@
         <v>1.68</v>
       </c>
       <c r="V53" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W53" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AA53" t="n">
         <v>700</v>
@@ -7636,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="n">
         <v>700</v>
@@ -7648,7 +7648,7 @@
         <v>22</v>
       </c>
       <c r="AL53" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM53" t="n">
         <v>700</v>
@@ -7687,46 +7687,46 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I54" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>3.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O54" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R54" t="n">
         <v>1.23</v>
       </c>
       <c r="S54" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T54" t="n">
         <v>2.02</v>
@@ -7735,7 +7735,7 @@
         <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
@@ -7747,7 +7747,7 @@
         <v>14</v>
       </c>
       <c r="Z54" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA54" t="n">
         <v>700</v>
@@ -7762,7 +7762,7 @@
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AF54" t="n">
         <v>11.5</v>
@@ -7774,13 +7774,13 @@
         <v>24</v>
       </c>
       <c r="AI54" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AJ54" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK54" t="n">
         <v>26</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>27</v>
       </c>
       <c r="AL54" t="n">
         <v>55</v>
@@ -7789,7 +7789,7 @@
         <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO54" t="n">
         <v>500</v>
@@ -7831,7 +7831,7 @@
         <v>1.86</v>
       </c>
       <c r="I55" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
@@ -7846,31 +7846,31 @@
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O55" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q55" t="n">
         <v>2.24</v>
       </c>
       <c r="R55" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S55" t="n">
         <v>4.2</v>
       </c>
       <c r="T55" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V55" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
@@ -7885,10 +7885,10 @@
         <v>10.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AC55" t="n">
         <v>8</v>
@@ -7900,13 +7900,13 @@
         <v>25</v>
       </c>
       <c r="AF55" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AG55" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AI55" t="n">
         <v>200</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G56" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J56" t="n">
         <v>3.9</v>
@@ -7981,61 +7981,61 @@
         <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R56" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S56" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T56" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U56" t="n">
         <v>2.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W56" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
       </c>
       <c r="Y56" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB56" t="n">
         <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="n">
         <v>15</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG56" t="n">
         <v>10.5</v>
@@ -8056,10 +8056,10 @@
         <v>27</v>
       </c>
       <c r="AM56" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO56" t="n">
         <v>27</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8236,43 +8236,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K58" t="n">
         <v>5.2</v>
       </c>
-      <c r="K58" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O58" t="n">
         <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R58" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S58" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T58" t="n">
         <v>2.02</v>
       </c>
       <c r="U58" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V58" t="n">
         <v>1.12</v>
@@ -8284,13 +8284,13 @@
         <v>19.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z58" t="n">
         <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB58" t="n">
         <v>8.800000000000001</v>
@@ -8302,7 +8302,7 @@
         <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF58" t="n">
         <v>8.6</v>
@@ -8314,7 +8314,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
@@ -8323,16 +8323,16 @@
         <v>15</v>
       </c>
       <c r="AL58" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM58" t="n">
         <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO58" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59">
@@ -8371,7 +8371,7 @@
         <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J59" t="n">
         <v>3.1</v>
@@ -8380,34 +8380,34 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M59" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N59" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O59" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P59" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T59" t="n">
         <v>2.34</v>
       </c>
       <c r="U59" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V59" t="n">
         <v>1.27</v>
@@ -8416,28 +8416,28 @@
         <v>1.84</v>
       </c>
       <c r="X59" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y59" t="n">
         <v>11.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB59" t="n">
         <v>6.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD59" t="n">
         <v>19.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF59" t="n">
         <v>11</v>
@@ -8446,10 +8446,10 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI59" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ59" t="n">
         <v>27</v>
@@ -8458,10 +8458,10 @@
         <v>32</v>
       </c>
       <c r="AL59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM59" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN59" t="n">
         <v>30</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G60" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I60" t="n">
         <v>5.1</v>
@@ -8512,31 +8512,31 @@
         <v>3.5</v>
       </c>
       <c r="K60" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O60" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P60" t="n">
         <v>1.84</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S60" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T60" t="n">
         <v>1.85</v>
@@ -8545,19 +8545,19 @@
         <v>1.96</v>
       </c>
       <c r="V60" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AA60" t="n">
         <v>700</v>
@@ -8572,7 +8572,7 @@
         <v>120</v>
       </c>
       <c r="AE60" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="AF60" t="n">
         <v>12.5</v>
@@ -8581,19 +8581,19 @@
         <v>17</v>
       </c>
       <c r="AH60" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="AJ60" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AK60" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL60" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AM60" t="n">
         <v>580</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -8641,37 +8641,37 @@
         <v>2.56</v>
       </c>
       <c r="I61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
         <v>2.54</v>
       </c>
       <c r="K61" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P61" t="n">
         <v>1.67</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R61" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="S61" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,10 +8680,10 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W61" t="n">
         <v>1.4</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1.33</v>
       </c>
       <c r="X61" t="n">
         <v>500</v>
@@ -8767,46 +8767,46 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G62" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H62" t="n">
         <v>3.45</v>
       </c>
       <c r="I62" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J62" t="n">
         <v>2.98</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M62" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>1.59</v>
+        <v>3.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P62" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="S62" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="T62" t="n">
         <v>1.05</v>
@@ -8815,10 +8815,10 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W62" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X62" t="n">
         <v>500</v>
@@ -8866,7 +8866,7 @@
         <v>500</v>
       </c>
       <c r="AM62" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN62" t="n">
         <v>500</v>
@@ -8920,34 +8920,34 @@
         <v>3.3</v>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M63" t="n">
         <v>1.13</v>
       </c>
       <c r="N63" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O63" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P63" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="R63" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S63" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T63" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U63" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V63" t="n">
         <v>1.25</v>
@@ -8956,13 +8956,13 @@
         <v>1.96</v>
       </c>
       <c r="X63" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y63" t="n">
         <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA63" t="n">
         <v>140</v>
@@ -8974,25 +8974,25 @@
         <v>7.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE63" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH63" t="n">
         <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK63" t="n">
         <v>27</v>
@@ -9001,7 +9001,7 @@
         <v>60</v>
       </c>
       <c r="AM63" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN63" t="n">
         <v>24</v>
@@ -9037,112 +9037,112 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="G64" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="H64" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J64" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M64" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="n">
         <v>1.47</v>
       </c>
       <c r="P64" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q64" t="n">
         <v>2.38</v>
       </c>
       <c r="R64" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S64" t="n">
         <v>4.7</v>
       </c>
       <c r="T64" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U64" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V64" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W64" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
         <v>11.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z64" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA64" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB64" t="n">
         <v>7.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD64" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE64" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF64" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK64" t="n">
         <v>24</v>
       </c>
-      <c r="AI64" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>26</v>
-      </c>
       <c r="AL64" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM64" t="n">
         <v>160</v>
       </c>
       <c r="AN64" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
@@ -9172,46 +9172,46 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="H65" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I65" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J65" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K65" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P65" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="R65" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="S65" t="n">
-        <v>2.04</v>
+        <v>4.4</v>
       </c>
       <c r="T65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>1.01</v>
       </c>
       <c r="V65" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W65" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
@@ -9232,28 +9232,28 @@
         <v>48</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AC65" t="n">
         <v>42</v>
       </c>
       <c r="AD65" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AH65" t="n">
         <v>95</v>
@@ -9262,7 +9262,7 @@
         <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK65" t="n">
         <v>500</v>
@@ -9274,7 +9274,7 @@
         <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO65" t="n">
         <v>1000</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G66" t="n">
         <v>1.5</v>
@@ -9316,37 +9316,37 @@
         <v>7.6</v>
       </c>
       <c r="I66" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J66" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K66" t="n">
         <v>5.3</v>
       </c>
       <c r="L66" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M66" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O66" t="n">
         <v>1.22</v>
       </c>
       <c r="P66" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R66" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S66" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="T66" t="n">
         <v>1.86</v>
@@ -9355,7 +9355,7 @@
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W66" t="n">
         <v>3</v>
@@ -9445,13 +9445,13 @@
         <v>1.86</v>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J67" t="n">
         <v>3.4</v>
@@ -9466,7 +9466,7 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O67" t="n">
         <v>1.38</v>
@@ -9481,7 +9481,7 @@
         <v>1.29</v>
       </c>
       <c r="S67" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T67" t="n">
         <v>1.92</v>
@@ -9490,10 +9490,10 @@
         <v>1.92</v>
       </c>
       <c r="V67" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W67" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
         <v>12.5</v>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G68" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H68" t="n">
         <v>7.4</v>
@@ -9589,10 +9589,10 @@
         <v>9</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K68" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L68" t="n">
         <v>1.45</v>
@@ -9604,31 +9604,31 @@
         <v>3.25</v>
       </c>
       <c r="O68" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P68" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R68" t="n">
         <v>1.28</v>
       </c>
       <c r="S68" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T68" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U68" t="n">
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W68" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="X68" t="n">
         <v>14.5</v>
@@ -9637,7 +9637,7 @@
         <v>22</v>
       </c>
       <c r="Z68" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="n">
         <v>300</v>
@@ -9724,7 +9724,7 @@
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K69" t="n">
         <v>950</v>
@@ -9853,7 +9853,7 @@
         <v>5.9</v>
       </c>
       <c r="H70" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="I70" t="n">
         <v>1.71</v>
@@ -9865,31 +9865,31 @@
         <v>4.4</v>
       </c>
       <c r="L70" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R70" t="n">
         <v>1.44</v>
       </c>
       <c r="S70" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T70" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U70" t="n">
         <v>2.1</v>
@@ -9910,7 +9910,7 @@
         <v>11</v>
       </c>
       <c r="AA70" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB70" t="n">
         <v>21</v>
@@ -9937,7 +9937,7 @@
         <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK70" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>1.31</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>16.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>2.84</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>2.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AL2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>44</v>
       </c>
-      <c r="AM2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>34</v>
-      </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -823,16 +823,16 @@
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
         <v>1.52</v>
@@ -847,22 +847,22 @@
         <v>1.49</v>
       </c>
       <c r="U3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>36</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -889,10 +889,10 @@
         <v>13.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>500</v>
       </c>
       <c r="AB4" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AG4" t="n">
         <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI4" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.56</v>
@@ -1096,7 +1096,7 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
         <v>1.52</v>
@@ -1117,13 +1117,13 @@
         <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
         <v>9.800000000000001</v>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
         <v>7.6</v>
@@ -1144,7 +1144,7 @@
         <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
         <v>160</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
         <v>60</v>
@@ -1273,43 +1273,43 @@
         <v>700</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>500</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
         <v>5.5</v>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>1.62</v>
@@ -1366,16 +1366,16 @@
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R7" t="n">
         <v>1.15</v>
@@ -1387,16 +1387,16 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
         <v>32</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
@@ -1420,7 +1420,7 @@
         <v>700</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1510,19 +1510,19 @@
         <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1537,10 +1537,10 @@
         <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
@@ -1552,7 +1552,7 @@
         <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="n">
         <v>14</v>
@@ -1561,28 +1561,28 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA9" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE9" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>430</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="N10" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="P10" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>2.46</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>500</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>500</v>
@@ -1894,7 +1894,7 @@
         <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -2023,7 +2023,7 @@
         <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -2059,16 +2059,16 @@
         <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
         <v>9.199999999999999</v>
@@ -2155,22 +2155,22 @@
         <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2182,52 +2182,52 @@
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W13" t="n">
         <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>500</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>500</v>
@@ -2236,7 +2236,7 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
@@ -2257,7 +2257,7 @@
         <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2302,7 +2302,7 @@
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.42</v>
@@ -2317,28 +2317,28 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
         <v>1.99</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2383,13 +2383,13 @@
         <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>36</v>
@@ -2431,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
         <v>11.5</v>
@@ -2455,7 +2455,7 @@
         <v>4.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,79 +2557,79 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.85</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
         <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
         <v>19.5</v>
@@ -2647,22 +2647,22 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2734,16 +2734,16 @@
         <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X17" t="n">
         <v>11.5</v>
@@ -2764,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>30</v>
@@ -2788,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
         <v>1.25</v>
@@ -2857,7 +2857,7 @@
         <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q18" t="n">
         <v>1.31</v>
@@ -2866,13 +2866,13 @@
         <v>2.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>4.7</v>
@@ -2884,7 +2884,7 @@
         <v>55</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
         <v>12</v>
@@ -2896,22 +2896,22 @@
         <v>460</v>
       </c>
       <c r="AC18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>180</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
@@ -2920,19 +2920,19 @@
         <v>510</v>
       </c>
       <c r="AK18" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
         <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
@@ -2986,43 +2986,43 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
         <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
@@ -3046,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
         <v>700</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>500</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H20" t="n">
         <v>2.76</v>
       </c>
       <c r="I20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
@@ -3130,19 +3130,19 @@
         <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
         <v>1.55</v>
@@ -3151,7 +3151,7 @@
         <v>1.61</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>16</v>
@@ -3169,7 +3169,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -3265,7 +3265,7 @@
         <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>1.39</v>
@@ -3274,16 +3274,16 @@
         <v>3.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X21" t="n">
         <v>14.5</v>
@@ -3295,16 +3295,16 @@
         <v>28</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
         <v>46</v>
@@ -3334,7 +3334,7 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>46</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.06</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.14</v>
       </c>
       <c r="H22" t="n">
         <v>5.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="M22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.17</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S22" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
         <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
         <v>700</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AN22" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I23" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K23" t="n">
         <v>2.98</v>
@@ -3550,10 +3550,10 @@
         <v>1.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
         <v>7.6</v>
@@ -3562,16 +3562,16 @@
         <v>7.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AB23" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3580,10 +3580,10 @@
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -3595,7 +3595,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="AL23" t="n">
         <v>110</v>
@@ -3604,7 +3604,7 @@
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
         <v>140</v>
@@ -3640,16 +3640,16 @@
         <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3658,19 +3658,19 @@
         <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
         <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
         <v>1.52</v>
@@ -3679,10 +3679,10 @@
         <v>2.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.58</v>
@@ -3694,55 +3694,55 @@
         <v>500</v>
       </c>
       <c r="Y24" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="Z24" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AF24" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3772,49 +3772,49 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
         <v>7.4</v>
       </c>
       <c r="I25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.51</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
         <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="n">
         <v>1.63</v>
@@ -3823,13 +3823,13 @@
         <v>1.14</v>
       </c>
       <c r="W25" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="n">
         <v>510</v>
@@ -3838,10 +3838,10 @@
         <v>700</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
         <v>110</v>
@@ -3862,19 +3862,19 @@
         <v>700</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>65</v>
       </c>
       <c r="AL25" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
         <v>700</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>500</v>
@@ -3907,85 +3907,85 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.86</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.96</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
         <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -3994,10 +3994,10 @@
         <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AK26" t="n">
         <v>30</v>
@@ -4012,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>3.9</v>
@@ -4084,7 +4084,7 @@
         <v>2.66</v>
       </c>
       <c r="T27" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
         <v>2.44</v>
@@ -4111,7 +4111,7 @@
         <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>16</v>
@@ -4132,7 +4132,7 @@
         <v>160</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4180,13 +4180,13 @@
         <v>2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
         <v>3.15</v>
@@ -4219,10 +4219,10 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V28" t="n">
         <v>1.48</v>
@@ -4267,7 +4267,7 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
         <v>110</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
         <v>1.53</v>
@@ -4339,40 +4339,40 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
         <v>2.42</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
         <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AA29" t="n">
         <v>900</v>
@@ -4384,19 +4384,19 @@
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
@@ -4405,7 +4405,7 @@
         <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
@@ -4414,10 +4414,10 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
@@ -4462,7 +4462,7 @@
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4489,7 +4489,7 @@
         <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U30" t="n">
         <v>1.87</v>
@@ -4498,7 +4498,7 @@
         <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X30" t="n">
         <v>13.5</v>
@@ -4588,7 +4588,7 @@
         <v>2.46</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
         <v>3.8</v>
@@ -4597,10 +4597,10 @@
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4609,10 +4609,10 @@
         <v>2.86</v>
       </c>
       <c r="O31" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
         <v>2.56</v>
@@ -4624,10 +4624,10 @@
         <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
         <v>1.36</v>
@@ -4720,13 +4720,13 @@
         <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4735,40 +4735,40 @@
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.9</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W32" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
         <v>20</v>
@@ -4819,10 +4819,10 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4867,7 +4867,7 @@
         <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.42</v>
@@ -4876,7 +4876,7 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4894,7 +4894,7 @@
         <v>3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U33" t="n">
         <v>1.72</v>
@@ -4903,7 +4903,7 @@
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4933,7 +4933,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
         <v>32</v>
@@ -4987,73 +4987,73 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.98</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB34" t="n">
         <v>9.4</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
@@ -5065,16 +5065,16 @@
         <v>230</v>
       </c>
       <c r="AF34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AJ34" t="n">
         <v>220</v>
@@ -5083,16 +5083,16 @@
         <v>230</v>
       </c>
       <c r="AL34" t="n">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AO34" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
@@ -5134,10 +5134,10 @@
         <v>3.3</v>
       </c>
       <c r="J35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.53</v>
@@ -5155,7 +5155,7 @@
         <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
         <v>1.24</v>
@@ -5164,16 +5164,16 @@
         <v>4.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
         <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -5227,7 +5227,7 @@
         <v>500</v>
       </c>
       <c r="AO35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G36" t="n">
         <v>2.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.58</v>
@@ -5299,16 +5299,16 @@
         <v>5.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U36" t="n">
         <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="X36" t="n">
         <v>9.4</v>
@@ -5335,7 +5335,7 @@
         <v>230</v>
       </c>
       <c r="AF36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5359,10 +5359,10 @@
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="AO36" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G37" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.52</v>
@@ -5416,10 +5416,10 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P37" t="n">
         <v>1.66</v>
@@ -5434,37 +5434,37 @@
         <v>4.8</v>
       </c>
       <c r="T37" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U37" t="n">
         <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W37" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="X37" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
         <v>500</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AE37" t="n">
         <v>160</v>
@@ -5473,31 +5473,31 @@
         <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AJ37" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AK37" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AL37" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="n">
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="AO37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I38" t="n">
         <v>2.64</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
         <v>3.55</v>
@@ -5551,7 +5551,7 @@
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O38" t="n">
         <v>1.32</v>
@@ -5569,7 +5569,7 @@
         <v>3.55</v>
       </c>
       <c r="T38" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
         <v>2.16</v>
@@ -5578,7 +5578,7 @@
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X38" t="n">
         <v>14.5</v>
@@ -5671,55 +5671,55 @@
         <v>2.34</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P39" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S39" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W39" t="n">
         <v>1.37</v>
       </c>
       <c r="X39" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z39" t="n">
         <v>13</v>
@@ -5734,7 +5734,7 @@
         <v>7.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE39" t="n">
         <v>29</v>
@@ -5743,28 +5743,28 @@
         <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AJ39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="n">
         <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="n">
         <v>32</v>
@@ -5806,25 +5806,25 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
         <v>3.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
         <v>1.71</v>
@@ -5836,7 +5836,7 @@
         <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T40" t="n">
         <v>1.98</v>
@@ -5845,64 +5845,64 @@
         <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W40" t="n">
         <v>1.86</v>
       </c>
       <c r="X40" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AA40" t="n">
         <v>500</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="n">
         <v>500</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
         <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AM40" t="n">
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>4.1</v>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
         <v>1.98</v>
@@ -5944,52 +5944,52 @@
         <v>2.04</v>
       </c>
       <c r="J41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S41" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U41" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V41" t="n">
         <v>1.96</v>
       </c>
       <c r="W41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X41" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
         <v>14.5</v>
@@ -6001,10 +6001,10 @@
         <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE41" t="n">
         <v>65</v>
@@ -6016,7 +6016,7 @@
         <v>21</v>
       </c>
       <c r="AH41" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="n">
         <v>500</v>
@@ -6034,10 +6034,10 @@
         <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO41" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G42" t="n">
         <v>1.85</v>
@@ -6076,7 +6076,7 @@
         <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J42" t="n">
         <v>4.2</v>
@@ -6085,34 +6085,34 @@
         <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
@@ -6172,7 +6172,7 @@
         <v>30</v>
       </c>
       <c r="AO42" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6217,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -6229,13 +6229,13 @@
         <v>5.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
         <v>2.66</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R43" t="n">
         <v>1.66</v>
@@ -6244,7 +6244,7 @@
         <v>2.42</v>
       </c>
       <c r="T43" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U43" t="n">
         <v>2.66</v>
@@ -6346,7 +6346,7 @@
         <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
@@ -6382,7 +6382,7 @@
         <v>1.62</v>
       </c>
       <c r="U44" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V44" t="n">
         <v>1.4</v>
@@ -6442,7 +6442,7 @@
         <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="G45" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>4.3</v>
@@ -6493,43 +6493,43 @@
         <v>1.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
         <v>5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
         <v>2.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R45" t="n">
         <v>1.52</v>
       </c>
       <c r="S45" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T45" t="n">
         <v>1.69</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V45" t="n">
         <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X45" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="Y45" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z45" t="n">
         <v>500</v>
@@ -6541,7 +6541,7 @@
         <v>970</v>
       </c>
       <c r="AC45" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="n">
         <v>970</v>
@@ -6553,16 +6553,16 @@
         <v>970</v>
       </c>
       <c r="AG45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>970</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>500</v>
       </c>
       <c r="AK45" t="n">
         <v>970</v>
@@ -6577,7 +6577,7 @@
         <v>85</v>
       </c>
       <c r="AO45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="H46" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.29</v>
@@ -6631,7 +6631,7 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.19</v>
@@ -6643,76 +6643,76 @@
         <v>1.58</v>
       </c>
       <c r="R46" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S46" t="n">
         <v>2.46</v>
       </c>
       <c r="T46" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V46" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="X46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
         <v>100</v>
       </c>
       <c r="AA46" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
         <v>200</v>
       </c>
       <c r="AF46" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI46" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AJ46" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL46" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AO46" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G47" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
         <v>6.4</v>
@@ -6778,22 +6778,22 @@
         <v>1.34</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S47" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T47" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U47" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X47" t="n">
         <v>170</v>
@@ -6844,7 +6844,7 @@
         <v>320</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO47" t="n">
         <v>100</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="I48" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.8</v>
       </c>
       <c r="L48" t="n">
         <v>1.44</v>
@@ -6901,88 +6901,88 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O48" t="n">
         <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W48" t="n">
         <v>1.37</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.3</v>
       </c>
       <c r="X48" t="n">
         <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
         <v>10.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI48" t="n">
         <v>38</v>
       </c>
       <c r="AJ48" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="n">
         <v>55</v>
       </c>
-      <c r="AL48" t="n">
-        <v>60</v>
-      </c>
       <c r="AM48" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN48" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G49" t="n">
         <v>2.48</v>
@@ -7021,13 +7021,13 @@
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J49" t="n">
         <v>3.45</v>
       </c>
       <c r="K49" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
         <v>1.41</v>
@@ -7039,7 +7039,7 @@
         <v>3.9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P49" t="n">
         <v>1.98</v>
@@ -7054,10 +7054,10 @@
         <v>3.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U49" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V49" t="n">
         <v>1.42</v>
@@ -7072,7 +7072,7 @@
         <v>15.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA49" t="n">
         <v>60</v>
@@ -7087,19 +7087,19 @@
         <v>14.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="n">
         <v>17</v>
       </c>
       <c r="AG49" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ49" t="n">
         <v>36</v>
@@ -7111,10 +7111,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO49" t="n">
         <v>36</v>
@@ -7153,49 +7153,49 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I50" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.62</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.64</v>
       </c>
       <c r="W50" t="n">
         <v>1.5</v>
@@ -7204,34 +7204,34 @@
         <v>500</v>
       </c>
       <c r="Y50" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z50" t="n">
         <v>970</v>
       </c>
-      <c r="Z50" t="n">
-        <v>500</v>
-      </c>
       <c r="AA50" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB50" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AC50" t="n">
-        <v>500</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD50" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AG50" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI50" t="n">
         <v>500</v>
@@ -7249,10 +7249,10 @@
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="AO50" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.3</v>
       </c>
-      <c r="G51" t="n">
+      <c r="K51" t="n">
         <v>3.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.58</v>
       </c>
-      <c r="M51" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W51" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z51" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AB51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
         <v>12</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK51" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM51" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN51" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AO51" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -7417,37 +7417,37 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G52" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="I52" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J52" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K52" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N52" t="n">
         <v>2.88</v>
       </c>
       <c r="O52" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q52" t="n">
         <v>2.44</v>
@@ -7459,70 +7459,70 @@
         <v>4.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V52" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W52" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X52" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB52" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC52" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AE52" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AF52" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AI52" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AM52" t="n">
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G53" t="n">
         <v>1.7</v>
@@ -7564,40 +7564,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="O53" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P53" t="n">
         <v>1.64</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R53" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S53" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T53" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U53" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V53" t="n">
         <v>1.15</v>
@@ -7606,22 +7606,22 @@
         <v>2.42</v>
       </c>
       <c r="X53" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z53" t="n">
         <v>280</v>
       </c>
       <c r="AA53" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
         <v>75</v>
@@ -7636,7 +7636,7 @@
         <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AI53" t="n">
         <v>700</v>
@@ -7648,13 +7648,13 @@
         <v>22</v>
       </c>
       <c r="AL53" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="AM53" t="n">
         <v>700</v>
       </c>
       <c r="AN53" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO53" t="n">
         <v>500</v>
@@ -7687,52 +7687,52 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H54" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
         <v>1.53</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O54" t="n">
         <v>1.47</v>
       </c>
       <c r="P54" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R54" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S54" t="n">
         <v>4.8</v>
       </c>
       <c r="T54" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U54" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V54" t="n">
         <v>1.25</v>
@@ -7756,7 +7756,7 @@
         <v>7.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
         <v>21</v>
@@ -7774,7 +7774,7 @@
         <v>24</v>
       </c>
       <c r="AI54" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="n">
         <v>25</v>
@@ -7825,13 +7825,13 @@
         <v>5.1</v>
       </c>
       <c r="G55" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H55" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I55" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J55" t="n">
         <v>3.5</v>
@@ -7840,40 +7840,40 @@
         <v>3.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P55" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U55" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V55" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W55" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X55" t="n">
         <v>11.5</v>
@@ -7897,16 +7897,16 @@
         <v>10.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AF55" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AG55" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AH55" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AI55" t="n">
         <v>200</v>
@@ -7924,10 +7924,10 @@
         <v>580</v>
       </c>
       <c r="AN55" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO55" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G56" t="n">
         <v>2.08</v>
@@ -7990,10 +7990,10 @@
         <v>2.48</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S56" t="n">
         <v>2.62</v>
@@ -8047,13 +8047,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK56" t="n">
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM56" t="n">
         <v>60</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="G57" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="I57" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="J57" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8230,82 +8230,82 @@
         <v>1.43</v>
       </c>
       <c r="G58" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H58" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I58" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I58" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="J58" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K58" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S58" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="T58" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U58" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>1.12</v>
       </c>
       <c r="W58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X58" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z58" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA58" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD58" t="n">
         <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF58" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG58" t="n">
         <v>9.800000000000001</v>
@@ -8314,25 +8314,25 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
       </c>
       <c r="AK58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN58" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO58" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -8365,7 +8365,7 @@
         <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>4.5</v>
@@ -8380,25 +8380,25 @@
         <v>3.15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M59" t="n">
         <v>1.15</v>
       </c>
       <c r="N59" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P59" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
         <v>2.94</v>
       </c>
       <c r="R59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S59" t="n">
         <v>6.4</v>
@@ -8410,7 +8410,7 @@
         <v>1.71</v>
       </c>
       <c r="V59" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W59" t="n">
         <v>1.84</v>
@@ -8419,7 +8419,7 @@
         <v>7.8</v>
       </c>
       <c r="Y59" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z59" t="n">
         <v>29</v>
@@ -8461,10 +8461,10 @@
         <v>70</v>
       </c>
       <c r="AM59" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO59" t="n">
         <v>140</v>
@@ -8497,28 +8497,28 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I60" t="n">
         <v>5.1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K60" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
         <v>3.45</v>
@@ -8530,16 +8530,16 @@
         <v>1.84</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S60" t="n">
         <v>3.8</v>
       </c>
       <c r="T60" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="n">
         <v>1.96</v>
@@ -8551,7 +8551,7 @@
         <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
         <v>15.5</v>
@@ -8563,10 +8563,10 @@
         <v>700</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD60" t="n">
         <v>120</v>
@@ -8575,16 +8575,16 @@
         <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG60" t="n">
         <v>17</v>
       </c>
       <c r="AH60" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AJ60" t="n">
         <v>130</v>
@@ -8602,7 +8602,7 @@
         <v>55</v>
       </c>
       <c r="AO60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61">
@@ -8632,67 +8632,67 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="J61" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O61" t="n">
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R61" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V61" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X61" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="Y61" t="n">
         <v>500</v>
       </c>
       <c r="Z61" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA61" t="n">
         <v>900</v>
@@ -8701,10 +8701,10 @@
         <v>500</v>
       </c>
       <c r="AC61" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD61" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE61" t="n">
         <v>500</v>
@@ -8713,7 +8713,7 @@
         <v>500</v>
       </c>
       <c r="AG61" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH61" t="n">
         <v>500</v>
@@ -8767,31 +8767,31 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H62" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
         <v>2.98</v>
       </c>
       <c r="K62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L62" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M62" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O62" t="n">
         <v>1.39</v>
@@ -8800,13 +8800,13 @@
         <v>1.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R62" t="n">
         <v>1.28</v>
       </c>
       <c r="S62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>1.05</v>
@@ -8815,10 +8815,10 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W62" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X62" t="n">
         <v>500</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G63" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H63" t="n">
         <v>4.9</v>
@@ -8947,13 +8947,13 @@
         <v>2.28</v>
       </c>
       <c r="U63" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
         <v>1.25</v>
       </c>
       <c r="W63" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X63" t="n">
         <v>8.4</v>
@@ -8962,10 +8962,10 @@
         <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA63" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB63" t="n">
         <v>6.6</v>
@@ -8977,7 +8977,7 @@
         <v>20</v>
       </c>
       <c r="AE63" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8992,7 +8992,7 @@
         <v>120</v>
       </c>
       <c r="AJ63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK63" t="n">
         <v>27</v>
@@ -9040,22 +9040,22 @@
         <v>1.98</v>
       </c>
       <c r="G64" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I64" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K64" t="n">
         <v>3.55</v>
       </c>
-      <c r="K64" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L64" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="n">
         <v>1.1</v>
@@ -9067,64 +9067,64 @@
         <v>1.47</v>
       </c>
       <c r="P64" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R64" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S64" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T64" t="n">
         <v>2.08</v>
       </c>
       <c r="U64" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V64" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W64" t="n">
         <v>2</v>
       </c>
       <c r="X64" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA64" t="n">
         <v>120</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC64" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD64" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE64" t="n">
         <v>75</v>
       </c>
       <c r="AF64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG64" t="n">
         <v>10.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI64" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="n">
         <v>23</v>
@@ -9133,13 +9133,13 @@
         <v>24</v>
       </c>
       <c r="AL64" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM64" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN64" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO64" t="n">
         <v>110</v>
@@ -9172,58 +9172,58 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G65" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H65" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I65" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K65" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L65" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O65" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P65" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R65" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S65" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V65" t="n">
         <v>1.11</v>
       </c>
       <c r="W65" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X65" t="n">
         <v>970</v>
@@ -9232,13 +9232,13 @@
         <v>48</v>
       </c>
       <c r="Z65" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC65" t="n">
         <v>42</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H66" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I66" t="n">
         <v>8.6</v>
@@ -9322,7 +9322,7 @@
         <v>4.9</v>
       </c>
       <c r="K66" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L66" t="n">
         <v>1.32</v>
@@ -9331,22 +9331,22 @@
         <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O66" t="n">
         <v>1.22</v>
       </c>
       <c r="P66" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R66" t="n">
         <v>1.56</v>
       </c>
       <c r="S66" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T66" t="n">
         <v>1.86</v>
@@ -9355,10 +9355,10 @@
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X66" t="n">
         <v>23</v>
@@ -9409,7 +9409,7 @@
         <v>430</v>
       </c>
       <c r="AN66" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO66" t="n">
         <v>140</v>
@@ -9499,7 +9499,7 @@
         <v>12.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z67" t="n">
         <v>38</v>
@@ -9508,10 +9508,10 @@
         <v>900</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD67" t="n">
         <v>21</v>
@@ -9544,10 +9544,10 @@
         <v>580</v>
       </c>
       <c r="AN67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G68" t="n">
         <v>1.59</v>
@@ -9586,7 +9586,7 @@
         <v>7.4</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J68" t="n">
         <v>4.1</v>
@@ -9595,7 +9595,7 @@
         <v>4.6</v>
       </c>
       <c r="L68" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M68" t="n">
         <v>1.08</v>
@@ -9610,13 +9610,13 @@
         <v>1.78</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R68" t="n">
         <v>1.28</v>
       </c>
       <c r="S68" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
         <v>2.18</v>
@@ -9625,7 +9625,7 @@
         <v>1.74</v>
       </c>
       <c r="V68" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W68" t="n">
         <v>2.68</v>
@@ -9733,7 +9733,7 @@
         <v>1.01</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
         <v>1.24</v>
@@ -9850,7 +9850,7 @@
         <v>5.5</v>
       </c>
       <c r="G70" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H70" t="n">
         <v>1.69</v>
@@ -9895,10 +9895,10 @@
         <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W70" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X70" t="n">
         <v>17.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>140</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>740</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>10.5</v>
+        <v>1.6</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>1.62</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="N2" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="O2" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="T2" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.33</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -788,81 +788,81 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="O3" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="U3" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,40 +871,40 @@
         <v>4.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AG3" t="n">
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>1.51</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>1.14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>1.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.09</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>2.84</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,531 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.82</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
-        <v>2.14</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Real Soacha Cundinamarca FC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>790</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X7" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Puebla</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z8" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
